--- a/BackTest/2020-01-23 BackTest FX.xlsx
+++ b/BackTest/2020-01-23 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>66.40000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G2" t="n">
-        <v>66.83200000000002</v>
+        <v>66.85033333333335</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>67.45999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>67.45999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>67.45999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>67.45999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>66.83666666666669</v>
+        <v>66.83200000000002</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,38 +503,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>66.40000000000001</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>66.41</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>66.41</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>66.40000000000001</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>66.81016666666669</v>
+        <v>66.83666666666669</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>67.45999999999999</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -544,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>66.41</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C5" t="n">
         <v>66.41</v>
@@ -553,13 +547,13 @@
         <v>66.41</v>
       </c>
       <c r="E5" t="n">
-        <v>66.41</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>2383.245</v>
+        <v>36</v>
       </c>
       <c r="G5" t="n">
-        <v>66.79200000000002</v>
+        <v>66.81016666666669</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -569,11 +563,7 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -583,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>66.40000000000001</v>
+        <v>66.41</v>
       </c>
       <c r="C6" t="n">
-        <v>66.09999999999999</v>
+        <v>66.41</v>
       </c>
       <c r="D6" t="n">
-        <v>66.40000000000001</v>
+        <v>66.41</v>
       </c>
       <c r="E6" t="n">
-        <v>66.09999999999999</v>
+        <v>66.41</v>
       </c>
       <c r="F6" t="n">
-        <v>5182.0782</v>
+        <v>2383.245</v>
       </c>
       <c r="G6" t="n">
-        <v>66.76216666666669</v>
+        <v>66.79200000000002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,11 +598,7 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -622,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="C7" t="n">
         <v>66.09999999999999</v>
-      </c>
-      <c r="C7" t="n">
-        <v>66.40000000000001</v>
       </c>
       <c r="D7" t="n">
         <v>66.40000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>27104.8468</v>
+        <v>5182.0782</v>
       </c>
       <c r="G7" t="n">
-        <v>66.73733333333335</v>
+        <v>66.76216666666669</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -647,11 +633,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -664,19 +646,19 @@
         <v>66.09999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>66</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>66.09999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E8" t="n">
         <v>66</v>
       </c>
       <c r="F8" t="n">
-        <v>1699</v>
+        <v>27104.8468</v>
       </c>
       <c r="G8" t="n">
-        <v>66.70583333333336</v>
+        <v>66.73733333333335</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -686,11 +668,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -700,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66.19</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>66.3</v>
+        <v>66</v>
       </c>
       <c r="D9" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>66.19</v>
+        <v>66</v>
       </c>
       <c r="F9" t="n">
-        <v>1342.5345</v>
+        <v>1699</v>
       </c>
       <c r="G9" t="n">
-        <v>66.67750000000004</v>
+        <v>66.70583333333336</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,11 +703,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -739,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>66.19</v>
+      </c>
+      <c r="C10" t="n">
         <v>66.3</v>
       </c>
-      <c r="C10" t="n">
-        <v>66.31</v>
-      </c>
       <c r="D10" t="n">
-        <v>66.31</v>
+        <v>66.3</v>
       </c>
       <c r="E10" t="n">
-        <v>66.3</v>
+        <v>66.19</v>
       </c>
       <c r="F10" t="n">
-        <v>54</v>
+        <v>1342.5345</v>
       </c>
       <c r="G10" t="n">
-        <v>66.66100000000003</v>
+        <v>66.67750000000004</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -764,11 +738,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -778,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C11" t="n">
         <v>66.31</v>
       </c>
-      <c r="C11" t="n">
-        <v>66.3</v>
-      </c>
       <c r="D11" t="n">
-        <v>67.90000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="E11" t="n">
         <v>66.3</v>
       </c>
       <c r="F11" t="n">
-        <v>1021.816298438881</v>
+        <v>54</v>
       </c>
       <c r="G11" t="n">
-        <v>66.63433333333336</v>
+        <v>66.66100000000003</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -803,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -820,19 +786,19 @@
         <v>66.31</v>
       </c>
       <c r="C12" t="n">
-        <v>66.31</v>
+        <v>66.3</v>
       </c>
       <c r="D12" t="n">
-        <v>66.31</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>66.31</v>
+        <v>66.3</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>1021.816298438881</v>
       </c>
       <c r="G12" t="n">
-        <v>66.61950000000003</v>
+        <v>66.63433333333336</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -842,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -856,19 +818,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>66.31999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="C13" t="n">
-        <v>67.90000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="D13" t="n">
-        <v>67.90000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="E13" t="n">
-        <v>66.31999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="F13" t="n">
-        <v>18.97555228276878</v>
+        <v>18</v>
       </c>
       <c r="G13" t="n">
         <v>66.61950000000003</v>
@@ -881,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -898,19 +856,19 @@
         <v>66.31999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>66.31999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>66.31999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E14" t="n">
         <v>66.31999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>14.4383</v>
+        <v>18.97555228276878</v>
       </c>
       <c r="G14" t="n">
-        <v>66.59983333333336</v>
+        <v>66.61950000000003</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -920,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -937,19 +891,19 @@
         <v>66.31999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>66.31</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D15" t="n">
         <v>66.31999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>66.31</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>293.2551</v>
+        <v>14.4383</v>
       </c>
       <c r="G15" t="n">
-        <v>66.57333333333337</v>
+        <v>66.59983333333336</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -959,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -973,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>67.90000000000001</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>67.90000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="D16" t="n">
-        <v>67.90000000000001</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>67.90000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>293.2551</v>
       </c>
       <c r="G16" t="n">
-        <v>66.59666666666671</v>
+        <v>66.57333333333337</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -998,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1012,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>66.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>66.31</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>66.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>66.31</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>340.96</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>66.5686666666667</v>
+        <v>66.59666666666671</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1037,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1051,19 +993,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>66.31</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C18" t="n">
         <v>66.31</v>
       </c>
       <c r="D18" t="n">
-        <v>66.31</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E18" t="n">
         <v>66.31</v>
       </c>
       <c r="F18" t="n">
-        <v>18</v>
+        <v>340.96</v>
       </c>
       <c r="G18" t="n">
         <v>66.5686666666667</v>
@@ -1076,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1090,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>66.31999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="C19" t="n">
-        <v>67.90000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="D19" t="n">
-        <v>67.90000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="E19" t="n">
-        <v>66.31999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="F19" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>66.60033333333337</v>
+        <v>66.5686666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1115,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1132,19 +1066,19 @@
         <v>66.31999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>66.31999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>66.31999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E20" t="n">
         <v>66.31999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>66.58900000000004</v>
+        <v>66.60033333333337</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1154,11 +1088,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>66.33</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C21" t="n">
         <v>66.31999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>67</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E21" t="n">
         <v>66.31999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>36.98597014925373</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n">
-        <v>66.58466666666671</v>
+        <v>66.58900000000004</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1193,11 +1123,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1210,19 +1136,19 @@
         <v>66.33</v>
       </c>
       <c r="C22" t="n">
-        <v>66.33</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>66.33</v>
+        <v>67</v>
       </c>
       <c r="E22" t="n">
-        <v>66.33</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>18</v>
+        <v>36.98597014925373</v>
       </c>
       <c r="G22" t="n">
-        <v>66.58933333333337</v>
+        <v>66.58466666666671</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1232,11 +1158,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1246,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>67.90000000000001</v>
+        <v>66.33</v>
       </c>
       <c r="C23" t="n">
-        <v>67.98999999999999</v>
+        <v>66.33</v>
       </c>
       <c r="D23" t="n">
-        <v>67.98999999999999</v>
+        <v>66.33</v>
       </c>
       <c r="E23" t="n">
-        <v>67.90000000000001</v>
+        <v>66.33</v>
       </c>
       <c r="F23" t="n">
         <v>18</v>
       </c>
       <c r="G23" t="n">
-        <v>66.62200000000003</v>
+        <v>66.58933333333337</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1271,11 +1193,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1288,19 +1206,19 @@
         <v>67.90000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>66.51000000000001</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="D24" t="n">
+        <v>67.98999999999999</v>
+      </c>
+      <c r="E24" t="n">
         <v>67.90000000000001</v>
       </c>
-      <c r="E24" t="n">
-        <v>66.51000000000001</v>
-      </c>
       <c r="F24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" t="n">
-        <v>66.63000000000004</v>
+        <v>66.62200000000003</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1310,11 +1228,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1324,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>66.51000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C25" t="n">
         <v>66.51000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E25" t="n">
         <v>66.51000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G25" t="n">
-        <v>66.6376666666667</v>
+        <v>66.63000000000004</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1349,11 +1263,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1363,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>66.5</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>66.31999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>66.5</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>66.31999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G26" t="n">
-        <v>66.63300000000004</v>
+        <v>66.6376666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1388,11 +1298,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1402,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>66.31999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="C27" t="n">
         <v>66.31999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>66.31999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="E27" t="n">
         <v>66.31999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G27" t="n">
-        <v>66.62833333333337</v>
+        <v>66.63300000000004</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1427,11 +1333,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1456,7 +1358,7 @@
         <v>18</v>
       </c>
       <c r="G28" t="n">
-        <v>66.63350000000004</v>
+        <v>66.62833333333337</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1466,11 +1368,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1492,10 +1390,10 @@
         <v>66.31999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G29" t="n">
-        <v>66.63633333333338</v>
+        <v>66.63350000000004</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1505,11 +1403,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1519,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>67.98</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>67.98</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>67.98</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>67.98</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>66.65433333333337</v>
+        <v>66.63633333333338</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1544,11 +1438,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1558,36 +1448,36 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
+        <v>67.98</v>
+      </c>
+      <c r="C31" t="n">
+        <v>67.98</v>
+      </c>
+      <c r="D31" t="n">
+        <v>67.98</v>
+      </c>
+      <c r="E31" t="n">
+        <v>67.98</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8</v>
+      </c>
+      <c r="G31" t="n">
+        <v>66.65433333333337</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>66.31999999999999</v>
       </c>
-      <c r="C31" t="n">
+      <c r="K31" t="n">
         <v>66.31999999999999</v>
       </c>
-      <c r="D31" t="n">
-        <v>66.31999999999999</v>
-      </c>
-      <c r="E31" t="n">
-        <v>66.31999999999999</v>
-      </c>
-      <c r="F31" t="n">
-        <v>18</v>
-      </c>
-      <c r="G31" t="n">
-        <v>66.63316666666671</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1597,22 +1487,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>66.33</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>66.33</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>66.33</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>66.33</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F32" t="n">
         <v>18</v>
       </c>
       <c r="G32" t="n">
-        <v>66.61216666666671</v>
+        <v>66.63316666666671</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1621,10 +1511,12 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>66.31999999999999</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M32" t="n">
@@ -1648,10 +1540,10 @@
         <v>66.33</v>
       </c>
       <c r="F33" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G33" t="n">
-        <v>66.59933333333338</v>
+        <v>66.61216666666671</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1660,10 +1552,12 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>66.31999999999999</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -1687,10 +1581,10 @@
         <v>66.33</v>
       </c>
       <c r="F34" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5831666666667</v>
+        <v>66.59933333333338</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1700,11 +1594,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1714,22 +1604,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>67.98</v>
+        <v>66.33</v>
       </c>
       <c r="C35" t="n">
-        <v>67.98</v>
+        <v>66.33</v>
       </c>
       <c r="D35" t="n">
-        <v>67.98</v>
+        <v>66.33</v>
       </c>
       <c r="E35" t="n">
-        <v>67.98</v>
+        <v>66.33</v>
       </c>
       <c r="F35" t="n">
-        <v>469</v>
+        <v>18</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5896666666667</v>
+        <v>66.5831666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1739,11 +1629,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1753,22 +1639,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>67.3</v>
+        <v>67.98</v>
       </c>
       <c r="C36" t="n">
-        <v>66.34</v>
+        <v>67.98</v>
       </c>
       <c r="D36" t="n">
-        <v>67.3</v>
+        <v>67.98</v>
       </c>
       <c r="E36" t="n">
-        <v>66.34</v>
+        <v>67.98</v>
       </c>
       <c r="F36" t="n">
-        <v>976</v>
+        <v>469</v>
       </c>
       <c r="G36" t="n">
-        <v>66.5771666666667</v>
+        <v>66.5896666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1778,11 +1664,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1795,19 +1677,19 @@
         <v>67.3</v>
       </c>
       <c r="C37" t="n">
-        <v>67.3</v>
+        <v>66.34</v>
       </c>
       <c r="D37" t="n">
         <v>67.3</v>
       </c>
       <c r="E37" t="n">
-        <v>67.3</v>
+        <v>66.34</v>
       </c>
       <c r="F37" t="n">
-        <v>8</v>
+        <v>976</v>
       </c>
       <c r="G37" t="n">
-        <v>66.57233333333336</v>
+        <v>66.5771666666667</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1817,11 +1699,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1834,19 +1712,19 @@
         <v>67.3</v>
       </c>
       <c r="C38" t="n">
-        <v>66</v>
+        <v>67.3</v>
       </c>
       <c r="D38" t="n">
         <v>67.3</v>
       </c>
       <c r="E38" t="n">
-        <v>66</v>
+        <v>67.3</v>
       </c>
       <c r="F38" t="n">
-        <v>39902</v>
+        <v>8</v>
       </c>
       <c r="G38" t="n">
-        <v>66.54733333333337</v>
+        <v>66.57233333333336</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1856,11 +1734,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1873,19 +1747,19 @@
         <v>67.3</v>
       </c>
       <c r="C39" t="n">
-        <v>67.3</v>
+        <v>66</v>
       </c>
       <c r="D39" t="n">
         <v>67.3</v>
       </c>
       <c r="E39" t="n">
-        <v>67.3</v>
+        <v>66</v>
       </c>
       <c r="F39" t="n">
-        <v>8</v>
+        <v>39902</v>
       </c>
       <c r="G39" t="n">
-        <v>66.54416666666671</v>
+        <v>66.54733333333337</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1895,11 +1769,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1909,22 +1779,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>67</v>
+        <v>67.3</v>
       </c>
       <c r="C40" t="n">
-        <v>67</v>
+        <v>67.3</v>
       </c>
       <c r="D40" t="n">
-        <v>67</v>
+        <v>67.3</v>
       </c>
       <c r="E40" t="n">
-        <v>67</v>
+        <v>67.3</v>
       </c>
       <c r="F40" t="n">
-        <v>315.238</v>
+        <v>8</v>
       </c>
       <c r="G40" t="n">
-        <v>66.54583333333338</v>
+        <v>66.54416666666671</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1934,11 +1804,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1948,22 +1814,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>66.11</v>
+        <v>67</v>
       </c>
       <c r="C41" t="n">
-        <v>66.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="D41" t="n">
-        <v>66.11</v>
+        <v>67</v>
       </c>
       <c r="E41" t="n">
-        <v>66.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="F41" t="n">
-        <v>250</v>
+        <v>315.238</v>
       </c>
       <c r="G41" t="n">
-        <v>66.53250000000004</v>
+        <v>66.54583333333338</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1973,11 +1839,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1987,22 +1849,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>66.90000000000001</v>
+        <v>66.11</v>
       </c>
       <c r="C42" t="n">
-        <v>66.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>66.98</v>
+        <v>66.11</v>
       </c>
       <c r="E42" t="n">
-        <v>66.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>15080</v>
+        <v>250</v>
       </c>
       <c r="G42" t="n">
-        <v>66.52083333333336</v>
+        <v>66.53250000000004</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2012,11 +1874,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2026,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>66.97</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>66.97</v>
+        <v>66.2</v>
       </c>
       <c r="D43" t="n">
-        <v>66.97</v>
+        <v>66.98</v>
       </c>
       <c r="E43" t="n">
-        <v>66.97</v>
+        <v>66.2</v>
       </c>
       <c r="F43" t="n">
-        <v>8</v>
+        <v>15080</v>
       </c>
       <c r="G43" t="n">
-        <v>66.52200000000002</v>
+        <v>66.52083333333336</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2051,11 +1909,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2065,22 +1919,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>66.2</v>
+        <v>66.97</v>
       </c>
       <c r="C44" t="n">
-        <v>66.2</v>
+        <v>66.97</v>
       </c>
       <c r="D44" t="n">
-        <v>66.2</v>
+        <v>66.97</v>
       </c>
       <c r="E44" t="n">
-        <v>66.2</v>
+        <v>66.97</v>
       </c>
       <c r="F44" t="n">
-        <v>23.9</v>
+        <v>8</v>
       </c>
       <c r="G44" t="n">
-        <v>66.52500000000002</v>
+        <v>66.52200000000002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2090,11 +1944,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2104,22 +1954,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>66.40000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="C45" t="n">
-        <v>66.40000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="D45" t="n">
-        <v>66.40000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="E45" t="n">
-        <v>66.40000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="F45" t="n">
-        <v>349.7725</v>
+        <v>23.9</v>
       </c>
       <c r="G45" t="n">
-        <v>66.53166666666669</v>
+        <v>66.52500000000002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2129,11 +1979,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2155,10 +2001,10 @@
         <v>66.40000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>9</v>
+        <v>349.7725</v>
       </c>
       <c r="G46" t="n">
-        <v>66.54133333333336</v>
+        <v>66.53166666666669</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2168,11 +2014,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2182,22 +2024,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>66.09999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>66.09999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>143.4507</v>
+        <v>9</v>
       </c>
       <c r="G47" t="n">
-        <v>66.54300000000002</v>
+        <v>66.54133333333336</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2207,11 +2049,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2221,22 +2059,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>66.19</v>
+        <v>66.2</v>
       </c>
       <c r="C48" t="n">
-        <v>66.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D48" t="n">
         <v>66.2</v>
       </c>
       <c r="E48" t="n">
-        <v>66.19</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>292.2252</v>
+        <v>143.4507</v>
       </c>
       <c r="G48" t="n">
-        <v>66.54633333333335</v>
+        <v>66.54300000000002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2246,11 +2084,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2260,22 +2094,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>66.19</v>
+      </c>
+      <c r="C49" t="n">
         <v>66.2</v>
       </c>
-      <c r="C49" t="n">
-        <v>66.3</v>
-      </c>
       <c r="D49" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="E49" t="n">
-        <v>66.09999999999999</v>
+        <v>66.19</v>
       </c>
       <c r="F49" t="n">
-        <v>761</v>
+        <v>292.2252</v>
       </c>
       <c r="G49" t="n">
-        <v>66.55166666666669</v>
+        <v>66.54633333333335</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2285,11 +2119,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2299,22 +2129,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="C50" t="n">
-        <v>66.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="D50" t="n">
-        <v>66.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="E50" t="n">
         <v>66.09999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>18</v>
+        <v>761</v>
       </c>
       <c r="G50" t="n">
-        <v>66.53833333333336</v>
+        <v>66.55166666666669</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2324,11 +2154,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2338,22 +2164,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>66.11</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>66.11</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>66.11</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>66.11</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G51" t="n">
-        <v>66.54033333333335</v>
+        <v>66.53833333333336</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2363,11 +2189,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2380,19 +2202,19 @@
         <v>66.11</v>
       </c>
       <c r="C52" t="n">
-        <v>66.09999999999999</v>
+        <v>66.11</v>
       </c>
       <c r="D52" t="n">
         <v>66.11</v>
       </c>
       <c r="E52" t="n">
-        <v>66.09999999999999</v>
+        <v>66.11</v>
       </c>
       <c r="F52" t="n">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="G52" t="n">
-        <v>66.54016666666669</v>
+        <v>66.54033333333335</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2402,11 +2224,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2416,22 +2234,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>66.09999999999999</v>
+        <v>66.11</v>
       </c>
       <c r="C53" t="n">
         <v>66.09999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>66.09999999999999</v>
+        <v>66.11</v>
       </c>
       <c r="E53" t="n">
         <v>66.09999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="G53" t="n">
-        <v>66.54000000000002</v>
+        <v>66.54016666666669</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2441,11 +2259,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2455,22 +2269,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>66.11</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>66.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>66.90000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>66.11</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>4375.95704618834</v>
+        <v>36</v>
       </c>
       <c r="G54" t="n">
-        <v>66.53500000000001</v>
+        <v>66.54000000000002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2480,11 +2294,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2494,10 +2304,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>66.11</v>
+      </c>
+      <c r="C55" t="n">
         <v>66.2</v>
-      </c>
-      <c r="C55" t="n">
-        <v>66.11</v>
       </c>
       <c r="D55" t="n">
         <v>66.90000000000001</v>
@@ -2506,10 +2316,10 @@
         <v>66.11</v>
       </c>
       <c r="F55" t="n">
-        <v>1007.61401838565</v>
+        <v>4375.95704618834</v>
       </c>
       <c r="G55" t="n">
-        <v>66.53350000000002</v>
+        <v>66.53500000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2519,11 +2329,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2533,22 +2339,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>66.90000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="C56" t="n">
-        <v>66.90000000000001</v>
+        <v>66.11</v>
       </c>
       <c r="D56" t="n">
         <v>66.90000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>66.90000000000001</v>
+        <v>66.11</v>
       </c>
       <c r="F56" t="n">
-        <v>8</v>
+        <v>1007.61401838565</v>
       </c>
       <c r="G56" t="n">
-        <v>66.54016666666669</v>
+        <v>66.53350000000002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2558,11 +2364,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2572,22 +2374,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>66.77</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>66.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>66.77</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>66.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>16.8783</v>
+        <v>8</v>
       </c>
       <c r="G57" t="n">
-        <v>66.53516666666668</v>
+        <v>66.54016666666669</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2597,11 +2399,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2611,22 +2409,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>66.8</v>
+        <v>66.77</v>
       </c>
       <c r="C58" t="n">
-        <v>66.8</v>
+        <v>66.2</v>
       </c>
       <c r="D58" t="n">
-        <v>66.8</v>
+        <v>66.77</v>
       </c>
       <c r="E58" t="n">
-        <v>66.8</v>
+        <v>66.2</v>
       </c>
       <c r="F58" t="n">
-        <v>8</v>
+        <v>16.8783</v>
       </c>
       <c r="G58" t="n">
-        <v>66.54183333333336</v>
+        <v>66.53516666666668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2636,11 +2434,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2650,22 +2444,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>66.11</v>
+        <v>66.8</v>
       </c>
       <c r="C59" t="n">
-        <v>66.11</v>
+        <v>66.8</v>
       </c>
       <c r="D59" t="n">
-        <v>66.11</v>
+        <v>66.8</v>
       </c>
       <c r="E59" t="n">
-        <v>66.11</v>
+        <v>66.8</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G59" t="n">
-        <v>66.53700000000002</v>
+        <v>66.54183333333336</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2675,11 +2469,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2689,22 +2479,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>66.09999999999999</v>
+        <v>66.11</v>
       </c>
       <c r="C60" t="n">
-        <v>66.2</v>
+        <v>66.11</v>
       </c>
       <c r="D60" t="n">
-        <v>66.2</v>
+        <v>66.11</v>
       </c>
       <c r="E60" t="n">
-        <v>66.09999999999999</v>
+        <v>66.11</v>
       </c>
       <c r="F60" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>66.53366666666668</v>
+        <v>66.53700000000002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2714,11 +2504,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2728,7 +2514,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>66.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C61" t="n">
         <v>66.2</v>
@@ -2737,13 +2523,13 @@
         <v>66.2</v>
       </c>
       <c r="E61" t="n">
-        <v>66.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="G61" t="n">
-        <v>66.53033333333335</v>
+        <v>66.53366666666668</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2753,11 +2539,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2767,22 +2549,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>66.20999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="C62" t="n">
-        <v>66.20999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="D62" t="n">
-        <v>66.20999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="E62" t="n">
-        <v>66.20999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="F62" t="n">
-        <v>617.5511</v>
+        <v>18</v>
       </c>
       <c r="G62" t="n">
-        <v>66.52716666666667</v>
+        <v>66.53033333333335</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2792,11 +2574,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2809,19 +2587,19 @@
         <v>66.20999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>66.2</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="D63" t="n">
         <v>66.20999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>66.2</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>343.49</v>
+        <v>617.5511</v>
       </c>
       <c r="G63" t="n">
-        <v>66.50616666666667</v>
+        <v>66.52716666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2831,11 +2609,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2845,22 +2619,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>66.2</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C64" t="n">
         <v>66.2</v>
       </c>
       <c r="D64" t="n">
-        <v>66.2</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="E64" t="n">
         <v>66.2</v>
       </c>
       <c r="F64" t="n">
-        <v>18</v>
+        <v>343.49</v>
       </c>
       <c r="G64" t="n">
-        <v>66.50266666666667</v>
+        <v>66.50616666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2870,11 +2644,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2884,22 +2654,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>66.20999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="C65" t="n">
-        <v>66.22</v>
+        <v>66.2</v>
       </c>
       <c r="D65" t="n">
-        <v>66.22</v>
+        <v>66.2</v>
       </c>
       <c r="E65" t="n">
-        <v>66.20999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="F65" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G65" t="n">
-        <v>66.4995</v>
+        <v>66.50266666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2909,11 +2679,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2923,22 +2689,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>66.31</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>66.31</v>
+        <v>66.22</v>
       </c>
       <c r="D66" t="n">
-        <v>66.31</v>
+        <v>66.22</v>
       </c>
       <c r="E66" t="n">
-        <v>66.31</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>384.8787</v>
+        <v>36</v>
       </c>
       <c r="G66" t="n">
-        <v>66.503</v>
+        <v>66.4995</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2948,11 +2714,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2962,22 +2724,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>66.45</v>
+        <v>66.31</v>
       </c>
       <c r="C67" t="n">
         <v>66.31</v>
       </c>
       <c r="D67" t="n">
-        <v>66.48999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="E67" t="n">
         <v>66.31</v>
       </c>
       <c r="F67" t="n">
-        <v>1536</v>
+        <v>384.8787</v>
       </c>
       <c r="G67" t="n">
-        <v>66.50150000000001</v>
+        <v>66.503</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2987,11 +2749,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3001,22 +2759,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>66.45</v>
+      </c>
+      <c r="C68" t="n">
         <v>66.31</v>
       </c>
-      <c r="C68" t="n">
-        <v>66.22</v>
-      </c>
       <c r="D68" t="n">
+        <v>66.48999999999999</v>
+      </c>
+      <c r="E68" t="n">
         <v>66.31</v>
       </c>
-      <c r="E68" t="n">
-        <v>66.22</v>
-      </c>
       <c r="F68" t="n">
-        <v>13393.3593</v>
+        <v>1536</v>
       </c>
       <c r="G68" t="n">
-        <v>66.50516666666667</v>
+        <v>66.50150000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3026,11 +2784,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3040,22 +2794,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>66.22</v>
+        <v>66.31</v>
       </c>
       <c r="C69" t="n">
         <v>66.22</v>
       </c>
       <c r="D69" t="n">
-        <v>66.22</v>
+        <v>66.31</v>
       </c>
       <c r="E69" t="n">
         <v>66.22</v>
       </c>
       <c r="F69" t="n">
-        <v>18</v>
+        <v>13393.3593</v>
       </c>
       <c r="G69" t="n">
-        <v>66.50383333333333</v>
+        <v>66.50516666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3065,11 +2819,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3091,10 +2841,10 @@
         <v>66.22</v>
       </c>
       <c r="F70" t="n">
-        <v>1325.8941</v>
+        <v>18</v>
       </c>
       <c r="G70" t="n">
-        <v>66.50233333333333</v>
+        <v>66.50383333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3104,11 +2854,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3130,10 +2876,10 @@
         <v>66.22</v>
       </c>
       <c r="F71" t="n">
-        <v>72</v>
+        <v>1325.8941</v>
       </c>
       <c r="G71" t="n">
-        <v>66.50099999999999</v>
+        <v>66.50233333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3143,11 +2889,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3157,38 +2899,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>66.23</v>
+        <v>66.22</v>
       </c>
       <c r="C72" t="n">
-        <v>66.23</v>
+        <v>66.22</v>
       </c>
       <c r="D72" t="n">
-        <v>66.23</v>
+        <v>66.22</v>
       </c>
       <c r="E72" t="n">
-        <v>66.23</v>
+        <v>66.22</v>
       </c>
       <c r="F72" t="n">
-        <v>374.983</v>
+        <v>72</v>
       </c>
       <c r="G72" t="n">
-        <v>66.49966666666666</v>
+        <v>66.50099999999999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>66.22</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3201,35 +2937,29 @@
         <v>66.23</v>
       </c>
       <c r="C73" t="n">
-        <v>67.40000000000001</v>
+        <v>66.23</v>
       </c>
       <c r="D73" t="n">
-        <v>67.40000000000001</v>
+        <v>66.23</v>
       </c>
       <c r="E73" t="n">
         <v>66.23</v>
       </c>
       <c r="F73" t="n">
-        <v>5969.378025163205</v>
+        <v>374.983</v>
       </c>
       <c r="G73" t="n">
-        <v>66.49133333333332</v>
+        <v>66.49966666666666</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>66.23</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3239,38 +2969,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>66.3</v>
+        <v>66.23</v>
       </c>
       <c r="C74" t="n">
-        <v>66.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>66.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>66.3</v>
+        <v>66.23</v>
       </c>
       <c r="F74" t="n">
-        <v>18</v>
+        <v>5969.378025163205</v>
       </c>
       <c r="G74" t="n">
-        <v>66.49099999999999</v>
+        <v>66.49133333333332</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>67.40000000000001</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3280,19 +3004,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>66.23</v>
+        <v>66.3</v>
       </c>
       <c r="C75" t="n">
-        <v>66.31</v>
+        <v>66.3</v>
       </c>
       <c r="D75" t="n">
-        <v>66.31</v>
+        <v>66.3</v>
       </c>
       <c r="E75" t="n">
-        <v>66.23</v>
+        <v>66.3</v>
       </c>
       <c r="F75" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G75" t="n">
         <v>66.49099999999999</v>
@@ -3305,11 +3029,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3322,19 +3042,19 @@
         <v>66.23</v>
       </c>
       <c r="C76" t="n">
-        <v>66.23</v>
+        <v>66.31</v>
       </c>
       <c r="D76" t="n">
-        <v>66.23</v>
+        <v>66.31</v>
       </c>
       <c r="E76" t="n">
         <v>66.23</v>
       </c>
       <c r="F76" t="n">
-        <v>765.9395</v>
+        <v>54</v>
       </c>
       <c r="G76" t="n">
-        <v>66.46316666666665</v>
+        <v>66.49099999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3344,11 +3064,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3358,19 +3074,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>66.23999999999999</v>
+        <v>66.23</v>
       </c>
       <c r="C77" t="n">
-        <v>66.31</v>
+        <v>66.23</v>
       </c>
       <c r="D77" t="n">
-        <v>66.31</v>
+        <v>66.23</v>
       </c>
       <c r="E77" t="n">
-        <v>66.23999999999999</v>
+        <v>66.23</v>
       </c>
       <c r="F77" t="n">
-        <v>54</v>
+        <v>765.9395</v>
       </c>
       <c r="G77" t="n">
         <v>66.46316666666665</v>
@@ -3383,11 +3099,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3397,22 +3109,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>67.40000000000001</v>
+        <v>66.23999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>67.40000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="D78" t="n">
-        <v>67.40000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="E78" t="n">
-        <v>67.40000000000001</v>
+        <v>66.23999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="G78" t="n">
-        <v>66.48133333333332</v>
+        <v>66.46316666666665</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3422,11 +3134,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3436,22 +3144,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>66.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>66.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>66.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>66.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G79" t="n">
-        <v>66.45466666666665</v>
+        <v>66.48133333333332</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3461,11 +3169,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3490,7 +3194,7 @@
         <v>18</v>
       </c>
       <c r="G80" t="n">
-        <v>66.45433333333332</v>
+        <v>66.45466666666665</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3500,11 +3204,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3514,22 +3214,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>66.31</v>
+        <v>66.3</v>
       </c>
       <c r="C81" t="n">
-        <v>66.34999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="D81" t="n">
-        <v>66.34999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="E81" t="n">
-        <v>66.31</v>
+        <v>66.3</v>
       </c>
       <c r="F81" t="n">
-        <v>230.0977</v>
+        <v>18</v>
       </c>
       <c r="G81" t="n">
-        <v>66.45483333333331</v>
+        <v>66.45433333333332</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3539,11 +3239,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3553,22 +3249,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>67.79000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="C82" t="n">
-        <v>67.8</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>67.8</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>67.79000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="F82" t="n">
-        <v>1324.5234</v>
+        <v>230.0977</v>
       </c>
       <c r="G82" t="n">
-        <v>66.47933333333332</v>
+        <v>66.45483333333331</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3578,11 +3274,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3592,22 +3284,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>67.89</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>67.89</v>
+        <v>67.8</v>
       </c>
       <c r="D83" t="n">
-        <v>67.89</v>
+        <v>67.8</v>
       </c>
       <c r="E83" t="n">
-        <v>67.89</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>8</v>
+        <v>1324.5234</v>
       </c>
       <c r="G83" t="n">
-        <v>66.47766666666665</v>
+        <v>66.47933333333332</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3617,11 +3309,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3631,22 +3319,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>66.7</v>
+        <v>67.89</v>
       </c>
       <c r="C84" t="n">
-        <v>66.7</v>
+        <v>67.89</v>
       </c>
       <c r="D84" t="n">
-        <v>66.7</v>
+        <v>67.89</v>
       </c>
       <c r="E84" t="n">
-        <v>66.7</v>
+        <v>67.89</v>
       </c>
       <c r="F84" t="n">
-        <v>125.463</v>
+        <v>8</v>
       </c>
       <c r="G84" t="n">
-        <v>66.48083333333332</v>
+        <v>66.47766666666665</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3656,11 +3344,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3670,7 +3354,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>66.3</v>
+        <v>66.7</v>
       </c>
       <c r="C85" t="n">
         <v>66.7</v>
@@ -3679,27 +3363,23 @@
         <v>66.7</v>
       </c>
       <c r="E85" t="n">
-        <v>66.3</v>
+        <v>66.7</v>
       </c>
       <c r="F85" t="n">
-        <v>197</v>
+        <v>125.463</v>
       </c>
       <c r="G85" t="n">
-        <v>66.48399999999998</v>
+        <v>66.48083333333332</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3712,19 +3392,19 @@
         <v>66.3</v>
       </c>
       <c r="C86" t="n">
-        <v>66.3</v>
+        <v>66.7</v>
       </c>
       <c r="D86" t="n">
-        <v>66.3</v>
+        <v>66.7</v>
       </c>
       <c r="E86" t="n">
         <v>66.3</v>
       </c>
       <c r="F86" t="n">
-        <v>860.5236</v>
+        <v>197</v>
       </c>
       <c r="G86" t="n">
-        <v>66.48366666666665</v>
+        <v>66.48399999999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3734,11 +3414,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3751,16 +3427,16 @@
         <v>66.3</v>
       </c>
       <c r="C87" t="n">
-        <v>66.31999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="D87" t="n">
-        <v>66.31999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="E87" t="n">
         <v>66.3</v>
       </c>
       <c r="F87" t="n">
-        <v>133</v>
+        <v>860.5236</v>
       </c>
       <c r="G87" t="n">
         <v>66.48366666666665</v>
@@ -3773,11 +3449,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3787,22 +3459,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>66.33</v>
+        <v>66.3</v>
       </c>
       <c r="C88" t="n">
-        <v>66.7</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>66.7</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>66.33</v>
+        <v>66.3</v>
       </c>
       <c r="F88" t="n">
-        <v>413</v>
+        <v>133</v>
       </c>
       <c r="G88" t="n">
-        <v>66.48999999999997</v>
+        <v>66.48366666666665</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3812,11 +3484,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3826,19 +3494,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>66.31999999999999</v>
+        <v>66.33</v>
       </c>
       <c r="C89" t="n">
-        <v>66.31999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="D89" t="n">
-        <v>66.31999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="E89" t="n">
-        <v>66.31999999999999</v>
+        <v>66.33</v>
       </c>
       <c r="F89" t="n">
-        <v>143.7677</v>
+        <v>413</v>
       </c>
       <c r="G89" t="n">
         <v>66.48999999999997</v>
@@ -3851,11 +3519,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3868,19 +3532,19 @@
         <v>66.31999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>66.33</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>66.33</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E90" t="n">
         <v>66.31999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>36</v>
+        <v>143.7677</v>
       </c>
       <c r="G90" t="n">
-        <v>66.46249999999996</v>
+        <v>66.48999999999997</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3890,11 +3554,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3904,10 +3564,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="C91" t="n">
         <v>66.33</v>
-      </c>
-      <c r="C91" t="n">
-        <v>66.31999999999999</v>
       </c>
       <c r="D91" t="n">
         <v>66.33</v>
@@ -3916,7 +3576,7 @@
         <v>66.31999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="G91" t="n">
         <v>66.46249999999996</v>
@@ -3929,11 +3589,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3946,19 +3602,19 @@
         <v>66.33</v>
       </c>
       <c r="C92" t="n">
-        <v>66.34</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>66.34</v>
+        <v>66.33</v>
       </c>
       <c r="E92" t="n">
-        <v>66.33</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G92" t="n">
-        <v>66.46266666666664</v>
+        <v>66.46249999999996</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3968,11 +3624,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3982,22 +3634,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>66.7</v>
+        <v>66.33</v>
       </c>
       <c r="C93" t="n">
-        <v>67.59999999999999</v>
+        <v>66.34</v>
       </c>
       <c r="D93" t="n">
-        <v>67.59999999999999</v>
+        <v>66.34</v>
       </c>
       <c r="E93" t="n">
-        <v>66.7</v>
+        <v>66.33</v>
       </c>
       <c r="F93" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="G93" t="n">
-        <v>66.48383333333331</v>
+        <v>66.46266666666664</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4007,11 +3659,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4021,59 +3669,57 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>66.34999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="C94" t="n">
-        <v>66.34999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>66.34999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>66.34999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="F94" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="G94" t="n">
-        <v>66.48416666666664</v>
+        <v>66.48383333333331</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>67.59999999999999</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>67.59999999999999</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>67.59999999999999</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>67.59999999999999</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G95" t="n">
-        <v>66.47783333333331</v>
+        <v>66.48416666666664</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4096,19 +3742,19 @@
         <v>67.59999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>67</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D96" t="n">
         <v>67.59999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>67</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>226.4665</v>
+        <v>8</v>
       </c>
       <c r="G96" t="n">
-        <v>66.4888333333333</v>
+        <v>66.47783333333331</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4128,22 +3774,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>66.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>67.59999999999999</v>
+        <v>67</v>
       </c>
       <c r="D97" t="n">
         <v>67.59999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>66.5</v>
+        <v>67</v>
       </c>
       <c r="F97" t="n">
-        <v>694.4475</v>
+        <v>226.4665</v>
       </c>
       <c r="G97" t="n">
-        <v>66.4938333333333</v>
+        <v>66.4888333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4163,22 +3809,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>66.5</v>
+        <v>66.7</v>
       </c>
       <c r="C98" t="n">
-        <v>66.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>66.5</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E98" t="n">
         <v>66.5</v>
       </c>
       <c r="F98" t="n">
-        <v>450</v>
+        <v>694.4475</v>
       </c>
       <c r="G98" t="n">
-        <v>66.50216666666662</v>
+        <v>66.4938333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4201,19 +3847,19 @@
         <v>66.5</v>
       </c>
       <c r="C99" t="n">
-        <v>66.40000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="D99" t="n">
         <v>66.5</v>
       </c>
       <c r="E99" t="n">
-        <v>66.40000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="F99" t="n">
-        <v>10.46</v>
+        <v>450</v>
       </c>
       <c r="G99" t="n">
-        <v>66.48716666666662</v>
+        <v>66.50216666666662</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4233,19 +3879,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>67</v>
+        <v>66.5</v>
       </c>
       <c r="C100" t="n">
-        <v>67</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>67</v>
+        <v>66.5</v>
       </c>
       <c r="E100" t="n">
-        <v>67</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>1200</v>
+        <v>10.46</v>
       </c>
       <c r="G100" t="n">
         <v>66.48716666666662</v>
@@ -4268,22 +3914,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="C101" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="D101" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="E101" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="F101" t="n">
-        <v>225</v>
+        <v>1200</v>
       </c>
       <c r="G101" t="n">
-        <v>66.50049999999996</v>
+        <v>66.48716666666662</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4303,22 +3949,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>66.34999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>66.34999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>14182.0144</v>
+        <v>225</v>
       </c>
       <c r="G102" t="n">
-        <v>66.50299999999997</v>
+        <v>66.50049999999996</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4338,22 +3984,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>66.34999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="C103" t="n">
         <v>66.34999999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>66.34999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="E103" t="n">
         <v>66.34999999999999</v>
       </c>
       <c r="F103" t="n">
-        <v>36</v>
+        <v>14182.0144</v>
       </c>
       <c r="G103" t="n">
-        <v>66.49266666666664</v>
+        <v>66.50299999999997</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4373,22 +4019,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>66.36</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>66.40000000000001</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>66.40000000000001</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>66.36</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>300.669</v>
+        <v>36</v>
       </c>
       <c r="G104" t="n">
-        <v>66.49599999999997</v>
+        <v>66.49266666666664</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4408,7 +4054,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>66.40000000000001</v>
+        <v>66.36</v>
       </c>
       <c r="C105" t="n">
         <v>66.40000000000001</v>
@@ -4417,10 +4063,10 @@
         <v>66.40000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>66.40000000000001</v>
+        <v>66.36</v>
       </c>
       <c r="F105" t="n">
-        <v>18</v>
+        <v>300.669</v>
       </c>
       <c r="G105" t="n">
         <v>66.49599999999997</v>
@@ -4443,22 +4089,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>67.59999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>67.59999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>67.59999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>67.59999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G106" t="n">
-        <v>66.51599999999998</v>
+        <v>66.49599999999997</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4478,22 +4124,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>67</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>67</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>67</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>67</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>190.4149</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>66.53099999999998</v>
+        <v>66.51599999999998</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4525,10 +4171,10 @@
         <v>67</v>
       </c>
       <c r="F108" t="n">
-        <v>36.49</v>
+        <v>190.4149</v>
       </c>
       <c r="G108" t="n">
-        <v>66.54433333333331</v>
+        <v>66.53099999999998</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4548,22 +4194,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="C109" t="n">
-        <v>66.7</v>
+        <v>67</v>
       </c>
       <c r="D109" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="E109" t="n">
-        <v>66.7</v>
+        <v>67</v>
       </c>
       <c r="F109" t="n">
-        <v>60.1615</v>
+        <v>36.49</v>
       </c>
       <c r="G109" t="n">
-        <v>66.55099999999997</v>
+        <v>66.54433333333331</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4583,22 +4229,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C110" t="n">
         <v>66.7</v>
       </c>
       <c r="D110" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E110" t="n">
         <v>66.7</v>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>60.1615</v>
       </c>
       <c r="G110" t="n">
-        <v>66.56099999999996</v>
+        <v>66.55099999999997</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4618,22 +4264,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>67</v>
+        <v>66.7</v>
       </c>
       <c r="C111" t="n">
-        <v>66.5</v>
+        <v>66.7</v>
       </c>
       <c r="D111" t="n">
-        <v>67</v>
+        <v>66.7</v>
       </c>
       <c r="E111" t="n">
-        <v>66.5</v>
+        <v>66.7</v>
       </c>
       <c r="F111" t="n">
-        <v>307.51</v>
+        <v>20</v>
       </c>
       <c r="G111" t="n">
-        <v>66.56749999999997</v>
+        <v>66.56099999999996</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4656,19 +4302,19 @@
         <v>67</v>
       </c>
       <c r="C112" t="n">
-        <v>67</v>
+        <v>66.5</v>
       </c>
       <c r="D112" t="n">
         <v>67</v>
       </c>
       <c r="E112" t="n">
-        <v>67</v>
+        <v>66.5</v>
       </c>
       <c r="F112" t="n">
-        <v>33.5116</v>
+        <v>307.51</v>
       </c>
       <c r="G112" t="n">
-        <v>66.58249999999997</v>
+        <v>66.56749999999997</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4688,22 +4334,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>67.2</v>
+        <v>67</v>
       </c>
       <c r="C113" t="n">
-        <v>67.2</v>
+        <v>67</v>
       </c>
       <c r="D113" t="n">
-        <v>67.2</v>
+        <v>67</v>
       </c>
       <c r="E113" t="n">
-        <v>67.2</v>
+        <v>67</v>
       </c>
       <c r="F113" t="n">
-        <v>19.201</v>
+        <v>33.5116</v>
       </c>
       <c r="G113" t="n">
-        <v>66.6008333333333</v>
+        <v>66.58249999999997</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4723,22 +4369,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>67.01000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="C114" t="n">
-        <v>67.01000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="D114" t="n">
-        <v>67.01000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="E114" t="n">
-        <v>67.01000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="F114" t="n">
-        <v>17.428</v>
+        <v>19.201</v>
       </c>
       <c r="G114" t="n">
-        <v>66.61433333333331</v>
+        <v>66.6008333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4770,10 +4416,10 @@
         <v>67.01000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>1.972</v>
+        <v>17.428</v>
       </c>
       <c r="G115" t="n">
-        <v>66.62933333333331</v>
+        <v>66.61433333333331</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4793,22 +4439,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>67.2</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>67.90000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>67.90000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>67.2</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>8</v>
+        <v>1.972</v>
       </c>
       <c r="G116" t="n">
-        <v>66.64599999999997</v>
+        <v>66.62933333333331</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4828,22 +4474,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>67.3</v>
+        <v>67.2</v>
       </c>
       <c r="C117" t="n">
-        <v>67.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>67.3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E117" t="n">
         <v>67.2</v>
       </c>
       <c r="F117" t="n">
-        <v>279.01</v>
+        <v>8</v>
       </c>
       <c r="G117" t="n">
-        <v>66.66266666666664</v>
+        <v>66.64599999999997</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4863,22 +4509,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>67.11</v>
+        <v>67.3</v>
       </c>
       <c r="C118" t="n">
         <v>67.2</v>
       </c>
       <c r="D118" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E118" t="n">
         <v>67.2</v>
       </c>
-      <c r="E118" t="n">
-        <v>67.05</v>
-      </c>
       <c r="F118" t="n">
-        <v>40.7643</v>
+        <v>279.01</v>
       </c>
       <c r="G118" t="n">
-        <v>66.6693333333333</v>
+        <v>66.66266666666664</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4898,22 +4544,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>67.11</v>
+      </c>
+      <c r="C119" t="n">
         <v>67.2</v>
-      </c>
-      <c r="C119" t="n">
-        <v>66.55</v>
       </c>
       <c r="D119" t="n">
         <v>67.2</v>
       </c>
       <c r="E119" t="n">
-        <v>66.55</v>
+        <v>67.05</v>
       </c>
       <c r="F119" t="n">
-        <v>987.5096</v>
+        <v>40.7643</v>
       </c>
       <c r="G119" t="n">
-        <v>66.67666666666663</v>
+        <v>66.6693333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4936,19 +4582,19 @@
         <v>67.2</v>
       </c>
       <c r="C120" t="n">
-        <v>67.2</v>
+        <v>66.55</v>
       </c>
       <c r="D120" t="n">
         <v>67.2</v>
       </c>
       <c r="E120" t="n">
-        <v>67.2</v>
+        <v>66.55</v>
       </c>
       <c r="F120" t="n">
-        <v>8</v>
+        <v>987.5096</v>
       </c>
       <c r="G120" t="n">
-        <v>66.6933333333333</v>
+        <v>66.67666666666663</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4971,19 +4617,19 @@
         <v>67.2</v>
       </c>
       <c r="C121" t="n">
-        <v>66.7</v>
+        <v>67.2</v>
       </c>
       <c r="D121" t="n">
         <v>67.2</v>
       </c>
       <c r="E121" t="n">
-        <v>66.7</v>
+        <v>67.2</v>
       </c>
       <c r="F121" t="n">
-        <v>51117.2196</v>
+        <v>8</v>
       </c>
       <c r="G121" t="n">
-        <v>66.70166666666664</v>
+        <v>66.6933333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5003,22 +4649,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>67</v>
+        <v>67.2</v>
       </c>
       <c r="C122" t="n">
-        <v>67</v>
+        <v>66.7</v>
       </c>
       <c r="D122" t="n">
-        <v>67</v>
+        <v>67.2</v>
       </c>
       <c r="E122" t="n">
-        <v>67</v>
+        <v>66.7</v>
       </c>
       <c r="F122" t="n">
-        <v>8</v>
+        <v>51117.2196</v>
       </c>
       <c r="G122" t="n">
-        <v>66.7148333333333</v>
+        <v>66.70166666666664</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5038,22 +4684,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>66.56</v>
+        <v>67</v>
       </c>
       <c r="C123" t="n">
-        <v>66.56</v>
+        <v>67</v>
       </c>
       <c r="D123" t="n">
-        <v>66.56</v>
+        <v>67</v>
       </c>
       <c r="E123" t="n">
-        <v>66.56</v>
+        <v>67</v>
       </c>
       <c r="F123" t="n">
-        <v>12.4162</v>
+        <v>8</v>
       </c>
       <c r="G123" t="n">
-        <v>66.7208333333333</v>
+        <v>66.7148333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5085,10 +4731,10 @@
         <v>66.56</v>
       </c>
       <c r="F124" t="n">
-        <v>4647.7768</v>
+        <v>12.4162</v>
       </c>
       <c r="G124" t="n">
-        <v>66.7268333333333</v>
+        <v>66.7208333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5108,22 +4754,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>66.26000000000001</v>
+        <v>66.56</v>
       </c>
       <c r="C125" t="n">
-        <v>66.2</v>
+        <v>66.56</v>
       </c>
       <c r="D125" t="n">
-        <v>66.26000000000001</v>
+        <v>66.56</v>
       </c>
       <c r="E125" t="n">
-        <v>66.2</v>
+        <v>66.56</v>
       </c>
       <c r="F125" t="n">
-        <v>1444.3455</v>
+        <v>4647.7768</v>
       </c>
       <c r="G125" t="n">
-        <v>66.72649999999997</v>
+        <v>66.7268333333333</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5143,22 +4789,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>66.2</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="C126" t="n">
         <v>66.2</v>
       </c>
       <c r="D126" t="n">
-        <v>66.2</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="E126" t="n">
         <v>66.2</v>
       </c>
       <c r="F126" t="n">
-        <v>3268.1459</v>
+        <v>1444.3455</v>
       </c>
       <c r="G126" t="n">
-        <v>66.72466666666664</v>
+        <v>66.72649999999997</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5178,22 +4824,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>66.16</v>
+        <v>66.2</v>
       </c>
       <c r="C127" t="n">
-        <v>66.16</v>
+        <v>66.2</v>
       </c>
       <c r="D127" t="n">
-        <v>66.16</v>
+        <v>66.2</v>
       </c>
       <c r="E127" t="n">
-        <v>66.06</v>
+        <v>66.2</v>
       </c>
       <c r="F127" t="n">
-        <v>13266.7695</v>
+        <v>3268.1459</v>
       </c>
       <c r="G127" t="n">
-        <v>66.72216666666664</v>
+        <v>66.72466666666664</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5213,22 +4859,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>66.2</v>
+        <v>66.16</v>
       </c>
       <c r="C128" t="n">
-        <v>66.2</v>
+        <v>66.16</v>
       </c>
       <c r="D128" t="n">
-        <v>66.2</v>
+        <v>66.16</v>
       </c>
       <c r="E128" t="n">
-        <v>66.2</v>
+        <v>66.06</v>
       </c>
       <c r="F128" t="n">
-        <v>353.6748</v>
+        <v>13266.7695</v>
       </c>
       <c r="G128" t="n">
-        <v>66.72183333333331</v>
+        <v>66.72216666666664</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5248,22 +4894,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>66.79000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="C129" t="n">
-        <v>66.79000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="D129" t="n">
-        <v>66.79000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="E129" t="n">
-        <v>66.79000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="F129" t="n">
-        <v>8</v>
+        <v>353.6748</v>
       </c>
       <c r="G129" t="n">
-        <v>66.73133333333331</v>
+        <v>66.72183333333331</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5283,22 +4929,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>66.2</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>66.16</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>66.2</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>66.16</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="F130" t="n">
-        <v>11215.8811</v>
+        <v>8</v>
       </c>
       <c r="G130" t="n">
-        <v>66.73033333333331</v>
+        <v>66.73133333333331</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5318,22 +4964,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>66.5</v>
+        <v>66.2</v>
       </c>
       <c r="C131" t="n">
-        <v>66.5</v>
+        <v>66.16</v>
       </c>
       <c r="D131" t="n">
-        <v>66.5</v>
+        <v>66.2</v>
       </c>
       <c r="E131" t="n">
-        <v>66.5</v>
+        <v>66.16</v>
       </c>
       <c r="F131" t="n">
-        <v>8</v>
+        <v>11215.8811</v>
       </c>
       <c r="G131" t="n">
-        <v>66.73499999999997</v>
+        <v>66.73033333333331</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5353,22 +4999,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>66.3</v>
+        <v>66.5</v>
       </c>
       <c r="C132" t="n">
-        <v>66.3</v>
+        <v>66.5</v>
       </c>
       <c r="D132" t="n">
-        <v>66.3</v>
+        <v>66.5</v>
       </c>
       <c r="E132" t="n">
-        <v>66.3</v>
+        <v>66.5</v>
       </c>
       <c r="F132" t="n">
-        <v>324.7809</v>
+        <v>8</v>
       </c>
       <c r="G132" t="n">
-        <v>66.73616666666665</v>
+        <v>66.73499999999997</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5400,10 +5046,10 @@
         <v>66.3</v>
       </c>
       <c r="F133" t="n">
-        <v>537.3687</v>
+        <v>324.7809</v>
       </c>
       <c r="G133" t="n">
-        <v>66.71783333333332</v>
+        <v>66.73616666666665</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5426,19 +5072,19 @@
         <v>66.3</v>
       </c>
       <c r="C134" t="n">
-        <v>66.5</v>
+        <v>66.3</v>
       </c>
       <c r="D134" t="n">
-        <v>66.5</v>
+        <v>66.3</v>
       </c>
       <c r="E134" t="n">
         <v>66.3</v>
       </c>
       <c r="F134" t="n">
-        <v>335.209</v>
+        <v>537.3687</v>
       </c>
       <c r="G134" t="n">
-        <v>66.72116666666665</v>
+        <v>66.71783333333332</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5458,22 +5104,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>66.8</v>
+        <v>66.3</v>
       </c>
       <c r="C135" t="n">
-        <v>67.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="D135" t="n">
-        <v>67.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="E135" t="n">
-        <v>66.8</v>
+        <v>66.3</v>
       </c>
       <c r="F135" t="n">
-        <v>774.2198</v>
+        <v>335.209</v>
       </c>
       <c r="G135" t="n">
-        <v>66.73433333333331</v>
+        <v>66.72116666666665</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5493,7 +5139,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="C136" t="n">
         <v>67.09999999999999</v>
@@ -5502,13 +5148,13 @@
         <v>67.09999999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>67</v>
+        <v>66.8</v>
       </c>
       <c r="F136" t="n">
-        <v>431</v>
+        <v>774.2198</v>
       </c>
       <c r="G136" t="n">
-        <v>66.74883333333331</v>
+        <v>66.73433333333331</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5523,6 +5169,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>67</v>
+      </c>
+      <c r="C137" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D137" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="E137" t="n">
+        <v>67</v>
+      </c>
+      <c r="F137" t="n">
+        <v>431</v>
+      </c>
+      <c r="G137" t="n">
+        <v>66.74883333333331</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-23 BackTest FX.xlsx
+++ b/BackTest/2020-01-23 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N147"/>
+  <dimension ref="A1:M176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>66.40000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="C2" t="n">
-        <v>66.40000000000001</v>
+        <v>67.59</v>
       </c>
       <c r="D2" t="n">
-        <v>66.40000000000001</v>
+        <v>67.59</v>
       </c>
       <c r="E2" t="n">
-        <v>66.40000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="F2" t="n">
-        <v>36</v>
+        <v>18.97366474330522</v>
       </c>
       <c r="G2" t="n">
-        <v>66.29266666666668</v>
+        <v>-92374.50105745117</v>
       </c>
       <c r="H2" t="n">
-        <v>66.85033333333335</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>66.40000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>66.40000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>66.40000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>66.40000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>8.9</v>
       </c>
       <c r="G3" t="n">
-        <v>66.31933333333335</v>
+        <v>-92383.40105745116</v>
       </c>
       <c r="H3" t="n">
-        <v>66.83200000000002</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>67.45999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>67.45999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="D4" t="n">
-        <v>67.45999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="E4" t="n">
-        <v>67.45999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="G4" t="n">
-        <v>66.41666666666669</v>
+        <v>-92374.30105745116</v>
       </c>
       <c r="H4" t="n">
-        <v>66.83666666666669</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>66.40000000000001</v>
+        <v>67.59</v>
       </c>
       <c r="C5" t="n">
-        <v>66.41</v>
+        <v>67.59</v>
       </c>
       <c r="D5" t="n">
-        <v>66.41</v>
+        <v>67.59</v>
       </c>
       <c r="E5" t="n">
-        <v>66.40000000000001</v>
+        <v>67.59</v>
       </c>
       <c r="F5" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>66.44533333333335</v>
+        <v>-92365.30105745116</v>
       </c>
       <c r="H5" t="n">
-        <v>66.81016666666669</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>66.41</v>
+        <v>67.58</v>
       </c>
       <c r="C6" t="n">
-        <v>66.41</v>
+        <v>67.09</v>
       </c>
       <c r="D6" t="n">
-        <v>66.41</v>
+        <v>67.58</v>
       </c>
       <c r="E6" t="n">
-        <v>66.41</v>
+        <v>67.09</v>
       </c>
       <c r="F6" t="n">
-        <v>2383.245</v>
+        <v>25.4</v>
       </c>
       <c r="G6" t="n">
-        <v>66.41266666666669</v>
+        <v>-92390.70105745115</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79200000000002</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66.40000000000001</v>
+        <v>67.09</v>
       </c>
       <c r="C7" t="n">
-        <v>66.09999999999999</v>
+        <v>67.59</v>
       </c>
       <c r="D7" t="n">
-        <v>66.40000000000001</v>
+        <v>67.59</v>
       </c>
       <c r="E7" t="n">
-        <v>66.09999999999999</v>
+        <v>67.09</v>
       </c>
       <c r="F7" t="n">
-        <v>5182.0782</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>66.42000000000003</v>
+        <v>-92380.70105745115</v>
       </c>
       <c r="H7" t="n">
-        <v>66.76216666666669</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66.09999999999999</v>
+        <v>67.58</v>
       </c>
       <c r="C8" t="n">
-        <v>66.40000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="D8" t="n">
-        <v>66.40000000000001</v>
+        <v>67.58</v>
       </c>
       <c r="E8" t="n">
-        <v>66</v>
+        <v>67.5</v>
       </c>
       <c r="F8" t="n">
-        <v>27104.8468</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>66.43933333333337</v>
+        <v>-92398.70105745115</v>
       </c>
       <c r="H8" t="n">
-        <v>66.73733333333335</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66.09999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>66</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>66.09999999999999</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>66</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>1699</v>
+        <v>25.6818</v>
       </c>
       <c r="G9" t="n">
-        <v>66.43200000000004</v>
+        <v>-92424.38285745116</v>
       </c>
       <c r="H9" t="n">
-        <v>66.70583333333336</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>66.19</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>66.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>66.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>66.19</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>1342.5345</v>
+        <v>173.6797</v>
       </c>
       <c r="G10" t="n">
-        <v>66.41866666666671</v>
+        <v>-92598.06255745115</v>
       </c>
       <c r="H10" t="n">
-        <v>66.67750000000004</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>66.3</v>
+        <v>66.91</v>
       </c>
       <c r="C11" t="n">
-        <v>66.31</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>66.31</v>
+        <v>66.91</v>
       </c>
       <c r="E11" t="n">
-        <v>66.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>54</v>
+        <v>233.4903</v>
       </c>
       <c r="G11" t="n">
-        <v>66.42600000000003</v>
+        <v>-92598.06255745115</v>
       </c>
       <c r="H11" t="n">
-        <v>66.66100000000003</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>66.31</v>
+        <v>66.91</v>
       </c>
       <c r="C12" t="n">
-        <v>66.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>67.90000000000001</v>
+        <v>66.91</v>
       </c>
       <c r="E12" t="n">
-        <v>66.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>1021.816298438881</v>
+        <v>186.6594</v>
       </c>
       <c r="G12" t="n">
-        <v>66.41266666666669</v>
+        <v>-92598.06255745115</v>
       </c>
       <c r="H12" t="n">
-        <v>66.63433333333336</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>66.31</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>66.31</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>66.31</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>66.31</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="G13" t="n">
-        <v>66.40000000000003</v>
+        <v>-92598.06255745115</v>
       </c>
       <c r="H13" t="n">
-        <v>66.61950000000003</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>66.31999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>67.90000000000001</v>
+        <v>66.02</v>
       </c>
       <c r="D14" t="n">
-        <v>67.90000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>66.31999999999999</v>
+        <v>66.02</v>
       </c>
       <c r="F14" t="n">
-        <v>18.97555228276878</v>
+        <v>2461.8317</v>
       </c>
       <c r="G14" t="n">
-        <v>66.50000000000004</v>
+        <v>-95059.89425745115</v>
       </c>
       <c r="H14" t="n">
-        <v>66.61950000000003</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>66.31999999999999</v>
+        <v>66.02</v>
       </c>
       <c r="C15" t="n">
-        <v>66.31999999999999</v>
+        <v>66</v>
       </c>
       <c r="D15" t="n">
-        <v>66.31999999999999</v>
+        <v>66.02</v>
       </c>
       <c r="E15" t="n">
-        <v>66.31999999999999</v>
+        <v>66</v>
       </c>
       <c r="F15" t="n">
-        <v>14.4383</v>
+        <v>1509.6223</v>
       </c>
       <c r="G15" t="n">
-        <v>66.4946666666667</v>
+        <v>-96569.51655745115</v>
       </c>
       <c r="H15" t="n">
-        <v>66.59983333333336</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>66.31999999999999</v>
+        <v>66</v>
       </c>
       <c r="C16" t="n">
-        <v>66.31</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>66.31999999999999</v>
+        <v>66</v>
       </c>
       <c r="E16" t="n">
-        <v>66.31</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>293.2551</v>
+        <v>1093.2124</v>
       </c>
       <c r="G16" t="n">
-        <v>66.48866666666672</v>
+        <v>-97662.72895745115</v>
       </c>
       <c r="H16" t="n">
-        <v>66.57333333333337</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>67.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="C17" t="n">
-        <v>67.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="D17" t="n">
-        <v>67.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="E17" t="n">
-        <v>67.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>13.456</v>
       </c>
       <c r="G17" t="n">
-        <v>66.58866666666671</v>
+        <v>-97649.27295745115</v>
       </c>
       <c r="H17" t="n">
-        <v>66.59666666666671</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>66.40000000000001</v>
+        <v>66.78</v>
       </c>
       <c r="C18" t="n">
-        <v>66.31</v>
+        <v>66</v>
       </c>
       <c r="D18" t="n">
-        <v>66.40000000000001</v>
+        <v>66.78</v>
       </c>
       <c r="E18" t="n">
-        <v>66.31</v>
+        <v>66</v>
       </c>
       <c r="F18" t="n">
-        <v>340.96</v>
+        <v>92.2773</v>
       </c>
       <c r="G18" t="n">
-        <v>66.58266666666673</v>
+        <v>-97649.27295745115</v>
       </c>
       <c r="H18" t="n">
-        <v>66.5686666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>66.31</v>
+        <v>66</v>
       </c>
       <c r="C19" t="n">
-        <v>66.31</v>
+        <v>65.98</v>
       </c>
       <c r="D19" t="n">
-        <v>66.31</v>
+        <v>66</v>
       </c>
       <c r="E19" t="n">
-        <v>66.31</v>
+        <v>65.98</v>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" t="n">
-        <v>66.50600000000006</v>
+        <v>-97668.27295745115</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5686666666667</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>66.31999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>67.90000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>67.90000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>66.31999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>66.60533333333339</v>
+        <v>-97660.27295745115</v>
       </c>
       <c r="H20" t="n">
-        <v>66.60033333333337</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>66.31999999999999</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>66.31999999999999</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>66.31999999999999</v>
+        <v>66</v>
       </c>
       <c r="E21" t="n">
-        <v>66.31999999999999</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>18</v>
+        <v>110.3688</v>
       </c>
       <c r="G21" t="n">
-        <v>66.5993333333334</v>
+        <v>-97770.64175745114</v>
       </c>
       <c r="H21" t="n">
-        <v>66.58900000000004</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>66.33</v>
+        <v>66.11</v>
       </c>
       <c r="C22" t="n">
-        <v>66.31999999999999</v>
+        <v>66.11</v>
       </c>
       <c r="D22" t="n">
-        <v>67</v>
+        <v>66.11</v>
       </c>
       <c r="E22" t="n">
-        <v>66.31999999999999</v>
+        <v>66.11</v>
       </c>
       <c r="F22" t="n">
-        <v>36.98597014925373</v>
+        <v>10.7296</v>
       </c>
       <c r="G22" t="n">
-        <v>66.61400000000008</v>
+        <v>-97759.91215745114</v>
       </c>
       <c r="H22" t="n">
-        <v>66.58466666666671</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>66.33</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>66.33</v>
+        <v>66.11</v>
       </c>
       <c r="D23" t="n">
-        <v>66.33</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>66.33</v>
+        <v>66.11</v>
       </c>
       <c r="F23" t="n">
-        <v>18</v>
+        <v>33.59</v>
       </c>
       <c r="G23" t="n">
-        <v>66.60933333333341</v>
+        <v>-97759.91215745114</v>
       </c>
       <c r="H23" t="n">
-        <v>66.58933333333337</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>67.90000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="C24" t="n">
-        <v>67.98999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="D24" t="n">
-        <v>67.98999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="E24" t="n">
-        <v>67.90000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="F24" t="n">
-        <v>18</v>
+        <v>59.16</v>
       </c>
       <c r="G24" t="n">
-        <v>66.74200000000006</v>
+        <v>-97700.75215745113</v>
       </c>
       <c r="H24" t="n">
-        <v>66.62200000000003</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>67.90000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="D25" t="n">
-        <v>67.90000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="F25" t="n">
-        <v>19</v>
+        <v>152.8422</v>
       </c>
       <c r="G25" t="n">
-        <v>66.75600000000007</v>
+        <v>-97853.59435745113</v>
       </c>
       <c r="H25" t="n">
-        <v>66.63000000000004</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>66.51000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="C26" t="n">
-        <v>66.51000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="D26" t="n">
-        <v>66.51000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="E26" t="n">
-        <v>66.51000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="F26" t="n">
-        <v>18</v>
+        <v>68.22669999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>66.76933333333341</v>
+        <v>-97785.36765745113</v>
       </c>
       <c r="H26" t="n">
-        <v>66.6376666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1391,33 +1311,30 @@
         <v>66.5</v>
       </c>
       <c r="C27" t="n">
-        <v>66.31999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="D27" t="n">
         <v>66.5</v>
       </c>
       <c r="E27" t="n">
-        <v>66.31999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="F27" t="n">
-        <v>36</v>
+        <v>1.7733</v>
       </c>
       <c r="G27" t="n">
-        <v>66.77066666666674</v>
+        <v>-97785.36765745113</v>
       </c>
       <c r="H27" t="n">
-        <v>66.63300000000004</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>66.31999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>66.31999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>66.31999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>66.31999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>18</v>
+        <v>49.4534</v>
       </c>
       <c r="G28" t="n">
-        <v>66.7713333333334</v>
+        <v>-97834.82105745113</v>
       </c>
       <c r="H28" t="n">
-        <v>66.62833333333337</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>66.31999999999999</v>
+        <v>66.12</v>
       </c>
       <c r="C29" t="n">
-        <v>66.31999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>66.31999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>66.31999999999999</v>
+        <v>66.12</v>
       </c>
       <c r="F29" t="n">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="G29" t="n">
-        <v>66.66600000000007</v>
+        <v>-97834.82105745113</v>
       </c>
       <c r="H29" t="n">
-        <v>66.63350000000004</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>66.31999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>66.31999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>66.31999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>66.31999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>36</v>
+        <v>121.4534</v>
       </c>
       <c r="G30" t="n">
-        <v>66.66600000000008</v>
+        <v>-97834.82105745113</v>
       </c>
       <c r="H30" t="n">
-        <v>66.63633333333338</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>67.98</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>67.98</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>67.98</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>67.98</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G31" t="n">
-        <v>66.77733333333342</v>
+        <v>-97834.82105745113</v>
       </c>
       <c r="H31" t="n">
-        <v>66.65433333333337</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>66.31999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>66.31999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>66.31999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>66.31999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F32" t="n">
         <v>18</v>
       </c>
       <c r="G32" t="n">
-        <v>66.67200000000008</v>
+        <v>-97834.82105745113</v>
       </c>
       <c r="H32" t="n">
-        <v>66.63316666666671</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>66.33</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>66.33</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>66.33</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>66.33</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G33" t="n">
-        <v>66.67333333333342</v>
+        <v>-97826.82105745113</v>
       </c>
       <c r="H33" t="n">
-        <v>66.61216666666671</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>66.33</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>66.33</v>
+        <v>66.41</v>
       </c>
       <c r="D34" t="n">
-        <v>66.33</v>
+        <v>66.41</v>
       </c>
       <c r="E34" t="n">
-        <v>66.33</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F34" t="n">
         <v>36</v>
       </c>
       <c r="G34" t="n">
-        <v>66.67466666666675</v>
+        <v>-97862.82105745113</v>
       </c>
       <c r="H34" t="n">
-        <v>66.59933333333338</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>66.33</v>
+        <v>66.41</v>
       </c>
       <c r="C35" t="n">
-        <v>66.33</v>
+        <v>66.41</v>
       </c>
       <c r="D35" t="n">
-        <v>66.33</v>
+        <v>66.41</v>
       </c>
       <c r="E35" t="n">
-        <v>66.33</v>
+        <v>66.41</v>
       </c>
       <c r="F35" t="n">
-        <v>18</v>
+        <v>2383.245</v>
       </c>
       <c r="G35" t="n">
-        <v>66.57000000000008</v>
+        <v>-97862.82105745113</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5831666666667</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>67.98</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>67.98</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>67.98</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>67.98</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>469</v>
+        <v>5182.0782</v>
       </c>
       <c r="G36" t="n">
-        <v>66.68066666666674</v>
+        <v>-103044.8992574511</v>
       </c>
       <c r="H36" t="n">
-        <v>66.5896666666667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>67.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>66.34</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>67.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>66.34</v>
+        <v>66</v>
       </c>
       <c r="F37" t="n">
-        <v>976</v>
+        <v>27104.8468</v>
       </c>
       <c r="G37" t="n">
-        <v>66.68200000000007</v>
+        <v>-75940.05245745114</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5771666666667</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>67.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>67.3</v>
+        <v>66</v>
       </c>
       <c r="D38" t="n">
-        <v>67.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>67.3</v>
+        <v>66</v>
       </c>
       <c r="F38" t="n">
-        <v>8</v>
+        <v>1699</v>
       </c>
       <c r="G38" t="n">
-        <v>66.74666666666674</v>
+        <v>-77639.05245745114</v>
       </c>
       <c r="H38" t="n">
-        <v>66.57233333333336</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>67.3</v>
+        <v>66.19</v>
       </c>
       <c r="C39" t="n">
-        <v>66</v>
+        <v>66.3</v>
       </c>
       <c r="D39" t="n">
-        <v>67.3</v>
+        <v>66.3</v>
       </c>
       <c r="E39" t="n">
-        <v>66</v>
+        <v>66.19</v>
       </c>
       <c r="F39" t="n">
-        <v>39902</v>
+        <v>1342.5345</v>
       </c>
       <c r="G39" t="n">
-        <v>66.61400000000008</v>
+        <v>-76296.51795745114</v>
       </c>
       <c r="H39" t="n">
-        <v>66.54733333333337</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>67.3</v>
+        <v>66.3</v>
       </c>
       <c r="C40" t="n">
-        <v>67.3</v>
+        <v>66.31</v>
       </c>
       <c r="D40" t="n">
-        <v>67.3</v>
+        <v>66.31</v>
       </c>
       <c r="E40" t="n">
-        <v>67.3</v>
+        <v>66.3</v>
       </c>
       <c r="F40" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="G40" t="n">
-        <v>66.66666666666674</v>
+        <v>-76242.51795745114</v>
       </c>
       <c r="H40" t="n">
-        <v>66.54416666666671</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="C41" t="n">
-        <v>67</v>
+        <v>66.3</v>
       </c>
       <c r="D41" t="n">
-        <v>67</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>67</v>
+        <v>66.3</v>
       </c>
       <c r="F41" t="n">
-        <v>315.238</v>
+        <v>1021.816298438881</v>
       </c>
       <c r="G41" t="n">
-        <v>66.69933333333341</v>
+        <v>-77264.33425589002</v>
       </c>
       <c r="H41" t="n">
-        <v>66.54583333333338</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>66.11</v>
+        <v>66.31</v>
       </c>
       <c r="C42" t="n">
-        <v>66.09999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="D42" t="n">
-        <v>66.11</v>
+        <v>66.31</v>
       </c>
       <c r="E42" t="n">
-        <v>66.09999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="F42" t="n">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="G42" t="n">
-        <v>66.68466666666674</v>
+        <v>-77246.33425589002</v>
       </c>
       <c r="H42" t="n">
-        <v>66.53250000000004</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>66.90000000000001</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>66.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>66.98</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>66.2</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>15080</v>
+        <v>18.97555228276878</v>
       </c>
       <c r="G43" t="n">
-        <v>66.67666666666675</v>
+        <v>-77227.35870360726</v>
       </c>
       <c r="H43" t="n">
-        <v>66.52083333333336</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>66.97</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>66.97</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>66.97</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>66.97</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>8</v>
+        <v>14.4383</v>
       </c>
       <c r="G44" t="n">
-        <v>66.72000000000008</v>
+        <v>-77241.79700360725</v>
       </c>
       <c r="H44" t="n">
-        <v>66.52200000000002</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>66.2</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>66.2</v>
+        <v>66.31</v>
       </c>
       <c r="D45" t="n">
-        <v>66.2</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>66.2</v>
+        <v>66.31</v>
       </c>
       <c r="F45" t="n">
-        <v>23.9</v>
+        <v>293.2551</v>
       </c>
       <c r="G45" t="n">
-        <v>66.71200000000009</v>
+        <v>-77535.05210360725</v>
       </c>
       <c r="H45" t="n">
-        <v>66.52500000000002</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>66.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>66.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>66.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>66.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>349.7725</v>
+        <v>8</v>
       </c>
       <c r="G46" t="n">
-        <v>66.60666666666677</v>
+        <v>-77527.05210360725</v>
       </c>
       <c r="H46" t="n">
-        <v>66.53166666666669</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2151,33 +2011,30 @@
         <v>66.40000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>66.40000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="D47" t="n">
         <v>66.40000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>66.40000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="F47" t="n">
-        <v>9</v>
+        <v>340.96</v>
       </c>
       <c r="G47" t="n">
-        <v>66.61200000000011</v>
+        <v>-77868.01210360725</v>
       </c>
       <c r="H47" t="n">
-        <v>66.54133333333336</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>66.2</v>
+        <v>66.31</v>
       </c>
       <c r="C48" t="n">
-        <v>66.09999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="D48" t="n">
-        <v>66.2</v>
+        <v>66.31</v>
       </c>
       <c r="E48" t="n">
-        <v>66.09999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="F48" t="n">
-        <v>143.4507</v>
+        <v>18</v>
       </c>
       <c r="G48" t="n">
-        <v>66.59666666666676</v>
+        <v>-77868.01210360725</v>
       </c>
       <c r="H48" t="n">
-        <v>66.54300000000002</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>66.19</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>66.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>66.2</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>66.19</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>292.2252</v>
+        <v>26</v>
       </c>
       <c r="G49" t="n">
-        <v>66.58800000000009</v>
+        <v>-77842.01210360725</v>
       </c>
       <c r="H49" t="n">
-        <v>66.54633333333335</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>66.2</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>66.3</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>66.3</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>66.09999999999999</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>761</v>
+        <v>18</v>
       </c>
       <c r="G50" t="n">
-        <v>66.5860000000001</v>
+        <v>-77860.01210360725</v>
       </c>
       <c r="H50" t="n">
-        <v>66.55166666666669</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>66.09999999999999</v>
+        <v>66.33</v>
       </c>
       <c r="C51" t="n">
-        <v>66.09999999999999</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>66.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="E51" t="n">
-        <v>66.09999999999999</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>18</v>
+        <v>36.98597014925373</v>
       </c>
       <c r="G51" t="n">
-        <v>66.46066666666677</v>
+        <v>-77860.01210360725</v>
       </c>
       <c r="H51" t="n">
-        <v>66.53833333333336</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>66.11</v>
+        <v>66.33</v>
       </c>
       <c r="C52" t="n">
-        <v>66.11</v>
+        <v>66.33</v>
       </c>
       <c r="D52" t="n">
-        <v>66.11</v>
+        <v>66.33</v>
       </c>
       <c r="E52" t="n">
-        <v>66.11</v>
+        <v>66.33</v>
       </c>
       <c r="F52" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G52" t="n">
-        <v>66.44533333333342</v>
+        <v>-77842.01210360725</v>
       </c>
       <c r="H52" t="n">
-        <v>66.54033333333335</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>66.11</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>66.09999999999999</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>66.11</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>66.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="G53" t="n">
-        <v>66.36533333333342</v>
+        <v>-77824.01210360725</v>
       </c>
       <c r="H53" t="n">
-        <v>66.54016666666669</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>66.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>66.09999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>66.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>66.09999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G54" t="n">
-        <v>66.37200000000009</v>
+        <v>-77843.01210360725</v>
       </c>
       <c r="H54" t="n">
-        <v>66.54000000000002</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>66.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>66.2</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>66.90000000000001</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>66.11</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>4375.95704618834</v>
+        <v>18</v>
       </c>
       <c r="G55" t="n">
-        <v>66.29866666666676</v>
+        <v>-77843.01210360725</v>
       </c>
       <c r="H55" t="n">
-        <v>66.53500000000001</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>66.2</v>
+        <v>66.5</v>
       </c>
       <c r="C56" t="n">
-        <v>66.11</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>66.90000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="E56" t="n">
-        <v>66.11</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>1007.61401838565</v>
+        <v>36</v>
       </c>
       <c r="G56" t="n">
-        <v>66.23933333333342</v>
+        <v>-77879.01210360725</v>
       </c>
       <c r="H56" t="n">
-        <v>66.53350000000002</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>66.90000000000001</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>66.90000000000001</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>66.90000000000001</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>66.90000000000001</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G57" t="n">
-        <v>66.29266666666676</v>
+        <v>-77879.01210360725</v>
       </c>
       <c r="H57" t="n">
-        <v>66.54016666666669</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>66.77</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>66.2</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>66.77</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>66.2</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>16.8783</v>
+        <v>18</v>
       </c>
       <c r="G58" t="n">
-        <v>66.29266666666675</v>
+        <v>-77879.01210360725</v>
       </c>
       <c r="H58" t="n">
-        <v>66.53516666666668</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>66.8</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>66.8</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>66.8</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>66.8</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G59" t="n">
-        <v>66.28133333333341</v>
+        <v>-77879.01210360725</v>
       </c>
       <c r="H59" t="n">
-        <v>66.54183333333336</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>66.11</v>
+        <v>67.98</v>
       </c>
       <c r="C60" t="n">
-        <v>66.11</v>
+        <v>67.98</v>
       </c>
       <c r="D60" t="n">
-        <v>66.11</v>
+        <v>67.98</v>
       </c>
       <c r="E60" t="n">
-        <v>66.11</v>
+        <v>67.98</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G60" t="n">
-        <v>66.27533333333341</v>
+        <v>-77871.01210360725</v>
       </c>
       <c r="H60" t="n">
-        <v>66.53700000000002</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>66.09999999999999</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>66.2</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>66.2</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>66.09999999999999</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="G61" t="n">
-        <v>66.26200000000007</v>
+        <v>-77889.01210360725</v>
       </c>
       <c r="H61" t="n">
-        <v>66.53366666666668</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>66.2</v>
+        <v>66.33</v>
       </c>
       <c r="C62" t="n">
-        <v>66.2</v>
+        <v>66.33</v>
       </c>
       <c r="D62" t="n">
-        <v>66.2</v>
+        <v>66.33</v>
       </c>
       <c r="E62" t="n">
-        <v>66.2</v>
+        <v>66.33</v>
       </c>
       <c r="F62" t="n">
         <v>18</v>
       </c>
       <c r="G62" t="n">
-        <v>66.24866666666674</v>
+        <v>-77871.01210360725</v>
       </c>
       <c r="H62" t="n">
-        <v>66.53033333333335</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>66.20999999999999</v>
+        <v>66.33</v>
       </c>
       <c r="C63" t="n">
-        <v>66.20999999999999</v>
+        <v>66.33</v>
       </c>
       <c r="D63" t="n">
-        <v>66.20999999999999</v>
+        <v>66.33</v>
       </c>
       <c r="E63" t="n">
-        <v>66.20999999999999</v>
+        <v>66.33</v>
       </c>
       <c r="F63" t="n">
-        <v>617.5511</v>
+        <v>36</v>
       </c>
       <c r="G63" t="n">
-        <v>66.25600000000006</v>
+        <v>-77871.01210360725</v>
       </c>
       <c r="H63" t="n">
-        <v>66.52716666666667</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>66.20999999999999</v>
+        <v>66.33</v>
       </c>
       <c r="C64" t="n">
-        <v>66.2</v>
+        <v>66.33</v>
       </c>
       <c r="D64" t="n">
-        <v>66.20999999999999</v>
+        <v>66.33</v>
       </c>
       <c r="E64" t="n">
-        <v>66.2</v>
+        <v>66.33</v>
       </c>
       <c r="F64" t="n">
-        <v>343.49</v>
+        <v>18</v>
       </c>
       <c r="G64" t="n">
-        <v>66.25600000000006</v>
+        <v>-77871.01210360725</v>
       </c>
       <c r="H64" t="n">
-        <v>66.50616666666667</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>66.2</v>
+        <v>67.98</v>
       </c>
       <c r="C65" t="n">
-        <v>66.2</v>
+        <v>67.98</v>
       </c>
       <c r="D65" t="n">
-        <v>66.2</v>
+        <v>67.98</v>
       </c>
       <c r="E65" t="n">
-        <v>66.2</v>
+        <v>67.98</v>
       </c>
       <c r="F65" t="n">
-        <v>18</v>
+        <v>469</v>
       </c>
       <c r="G65" t="n">
-        <v>66.2493333333334</v>
+        <v>-77402.01210360725</v>
       </c>
       <c r="H65" t="n">
-        <v>66.50266666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>66.20999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="C66" t="n">
-        <v>66.22</v>
+        <v>66.34</v>
       </c>
       <c r="D66" t="n">
-        <v>66.22</v>
+        <v>67.3</v>
       </c>
       <c r="E66" t="n">
-        <v>66.20999999999999</v>
+        <v>66.34</v>
       </c>
       <c r="F66" t="n">
-        <v>36</v>
+        <v>976</v>
       </c>
       <c r="G66" t="n">
-        <v>66.25733333333339</v>
+        <v>-78378.01210360725</v>
       </c>
       <c r="H66" t="n">
-        <v>66.4995</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>66.31</v>
+        <v>67.3</v>
       </c>
       <c r="C67" t="n">
-        <v>66.31</v>
+        <v>67.3</v>
       </c>
       <c r="D67" t="n">
-        <v>66.31</v>
+        <v>67.3</v>
       </c>
       <c r="E67" t="n">
-        <v>66.31</v>
+        <v>67.3</v>
       </c>
       <c r="F67" t="n">
-        <v>384.8787</v>
+        <v>8</v>
       </c>
       <c r="G67" t="n">
-        <v>66.27066666666673</v>
+        <v>-78370.01210360725</v>
       </c>
       <c r="H67" t="n">
-        <v>66.503</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>66.45</v>
+        <v>67.3</v>
       </c>
       <c r="C68" t="n">
-        <v>66.31</v>
+        <v>66</v>
       </c>
       <c r="D68" t="n">
-        <v>66.48999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="E68" t="n">
-        <v>66.31</v>
+        <v>66</v>
       </c>
       <c r="F68" t="n">
-        <v>1536</v>
+        <v>39902</v>
       </c>
       <c r="G68" t="n">
-        <v>66.28466666666674</v>
+        <v>-118272.0121036073</v>
       </c>
       <c r="H68" t="n">
-        <v>66.50150000000001</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>66.31</v>
+        <v>67.3</v>
       </c>
       <c r="C69" t="n">
-        <v>66.22</v>
+        <v>67.3</v>
       </c>
       <c r="D69" t="n">
-        <v>66.31</v>
+        <v>67.3</v>
       </c>
       <c r="E69" t="n">
-        <v>66.22</v>
+        <v>67.3</v>
       </c>
       <c r="F69" t="n">
-        <v>13393.3593</v>
+        <v>8</v>
       </c>
       <c r="G69" t="n">
-        <v>66.29266666666673</v>
+        <v>-118264.0121036073</v>
       </c>
       <c r="H69" t="n">
-        <v>66.50516666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>66.22</v>
+        <v>67</v>
       </c>
       <c r="C70" t="n">
-        <v>66.22</v>
+        <v>67</v>
       </c>
       <c r="D70" t="n">
-        <v>66.22</v>
+        <v>67</v>
       </c>
       <c r="E70" t="n">
-        <v>66.22</v>
+        <v>67</v>
       </c>
       <c r="F70" t="n">
-        <v>18</v>
+        <v>315.238</v>
       </c>
       <c r="G70" t="n">
-        <v>66.29400000000005</v>
+        <v>-118579.2501036072</v>
       </c>
       <c r="H70" t="n">
-        <v>66.50383333333333</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>66.22</v>
+        <v>66.11</v>
       </c>
       <c r="C71" t="n">
-        <v>66.22</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>66.22</v>
+        <v>66.11</v>
       </c>
       <c r="E71" t="n">
-        <v>66.22</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>1325.8941</v>
+        <v>250</v>
       </c>
       <c r="G71" t="n">
-        <v>66.30133333333339</v>
+        <v>-118829.2501036072</v>
       </c>
       <c r="H71" t="n">
-        <v>66.50233333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>66.22</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>66.22</v>
+        <v>66.2</v>
       </c>
       <c r="D72" t="n">
-        <v>66.22</v>
+        <v>66.98</v>
       </c>
       <c r="E72" t="n">
-        <v>66.22</v>
+        <v>66.2</v>
       </c>
       <c r="F72" t="n">
-        <v>72</v>
+        <v>15080</v>
       </c>
       <c r="G72" t="n">
-        <v>66.25600000000004</v>
+        <v>-103749.2501036072</v>
       </c>
       <c r="H72" t="n">
-        <v>66.50099999999999</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>66.23</v>
+        <v>66.97</v>
       </c>
       <c r="C73" t="n">
-        <v>66.23</v>
+        <v>66.97</v>
       </c>
       <c r="D73" t="n">
-        <v>66.23</v>
+        <v>66.97</v>
       </c>
       <c r="E73" t="n">
-        <v>66.23</v>
+        <v>66.97</v>
       </c>
       <c r="F73" t="n">
-        <v>374.983</v>
+        <v>8</v>
       </c>
       <c r="G73" t="n">
-        <v>66.25800000000004</v>
+        <v>-103741.2501036072</v>
       </c>
       <c r="H73" t="n">
-        <v>66.49966666666666</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>66.23</v>
+        <v>66.2</v>
       </c>
       <c r="C74" t="n">
-        <v>67.40000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="D74" t="n">
-        <v>67.40000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="E74" t="n">
-        <v>66.23</v>
+        <v>66.2</v>
       </c>
       <c r="F74" t="n">
-        <v>5969.378025163205</v>
+        <v>23.9</v>
       </c>
       <c r="G74" t="n">
-        <v>66.29800000000004</v>
+        <v>-103765.1501036072</v>
       </c>
       <c r="H74" t="n">
-        <v>66.49133333333332</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>66.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>66.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>66.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>66.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>18</v>
+        <v>349.7725</v>
       </c>
       <c r="G75" t="n">
-        <v>66.31066666666671</v>
+        <v>-103415.3776036072</v>
       </c>
       <c r="H75" t="n">
-        <v>66.49099999999999</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>66.23</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>66.31</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>66.31</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>66.23</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="G76" t="n">
-        <v>66.31800000000004</v>
+        <v>-103415.3776036072</v>
       </c>
       <c r="H76" t="n">
-        <v>66.49099999999999</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>66.23</v>
+        <v>66.2</v>
       </c>
       <c r="C77" t="n">
-        <v>66.23</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>66.23</v>
+        <v>66.2</v>
       </c>
       <c r="E77" t="n">
-        <v>66.23</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>765.9395</v>
+        <v>143.4507</v>
       </c>
       <c r="G77" t="n">
-        <v>66.32000000000004</v>
+        <v>-103558.8283036072</v>
       </c>
       <c r="H77" t="n">
-        <v>66.46316666666665</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>66.23999999999999</v>
+        <v>66.19</v>
       </c>
       <c r="C78" t="n">
-        <v>66.31</v>
+        <v>66.2</v>
       </c>
       <c r="D78" t="n">
-        <v>66.31</v>
+        <v>66.2</v>
       </c>
       <c r="E78" t="n">
-        <v>66.23999999999999</v>
+        <v>66.19</v>
       </c>
       <c r="F78" t="n">
-        <v>54</v>
+        <v>292.2252</v>
       </c>
       <c r="G78" t="n">
-        <v>66.3266666666667</v>
+        <v>-103266.6031036072</v>
       </c>
       <c r="H78" t="n">
-        <v>66.46316666666665</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>67.40000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="C79" t="n">
-        <v>67.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="D79" t="n">
-        <v>67.40000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="E79" t="n">
-        <v>67.40000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>8</v>
+        <v>761</v>
       </c>
       <c r="G79" t="n">
-        <v>66.40666666666671</v>
+        <v>-102505.6031036072</v>
       </c>
       <c r="H79" t="n">
-        <v>66.48133333333332</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>66.2</v>
       </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3169,37 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F80" t="n">
         <v>18</v>
       </c>
       <c r="G80" t="n">
-        <v>66.41333333333337</v>
+        <v>-102523.6031036072</v>
       </c>
       <c r="H80" t="n">
-        <v>66.45466666666665</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3208,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>66.3</v>
+        <v>66.11</v>
       </c>
       <c r="C81" t="n">
-        <v>66.3</v>
+        <v>66.11</v>
       </c>
       <c r="D81" t="n">
-        <v>66.3</v>
+        <v>66.11</v>
       </c>
       <c r="E81" t="n">
-        <v>66.3</v>
+        <v>66.11</v>
       </c>
       <c r="F81" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G81" t="n">
-        <v>66.4186666666667</v>
+        <v>-102487.6031036072</v>
       </c>
       <c r="H81" t="n">
-        <v>66.45433333333332</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3249,37 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>66.31</v>
+        <v>66.11</v>
       </c>
       <c r="C82" t="n">
-        <v>66.34999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>66.34999999999999</v>
+        <v>66.11</v>
       </c>
       <c r="E82" t="n">
-        <v>66.31</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>230.0977</v>
+        <v>132</v>
       </c>
       <c r="G82" t="n">
-        <v>66.42133333333337</v>
+        <v>-102619.6031036072</v>
       </c>
       <c r="H82" t="n">
-        <v>66.45483333333331</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3288,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>67.79000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>67.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>67.8</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>67.79000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>1324.5234</v>
+        <v>36</v>
       </c>
       <c r="G83" t="n">
-        <v>66.5206666666667</v>
+        <v>-102619.6031036072</v>
       </c>
       <c r="H83" t="n">
-        <v>66.47933333333332</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3327,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>67.89</v>
+        <v>66.11</v>
       </c>
       <c r="C84" t="n">
-        <v>67.89</v>
+        <v>66.2</v>
       </c>
       <c r="D84" t="n">
-        <v>67.89</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>67.89</v>
+        <v>66.11</v>
       </c>
       <c r="F84" t="n">
-        <v>8</v>
+        <v>4375.95704618834</v>
       </c>
       <c r="G84" t="n">
-        <v>66.63200000000003</v>
+        <v>-98243.6460574189</v>
       </c>
       <c r="H84" t="n">
-        <v>66.47766666666665</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3366,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>66.7</v>
+        <v>66.2</v>
       </c>
       <c r="C85" t="n">
-        <v>66.7</v>
+        <v>66.11</v>
       </c>
       <c r="D85" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>66.7</v>
+        <v>66.11</v>
       </c>
       <c r="F85" t="n">
-        <v>125.463</v>
+        <v>1007.61401838565</v>
       </c>
       <c r="G85" t="n">
-        <v>66.66400000000003</v>
+        <v>-99251.26007580454</v>
       </c>
       <c r="H85" t="n">
-        <v>66.48083333333332</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3405,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>66.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>66.7</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>66.3</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>197</v>
+        <v>8</v>
       </c>
       <c r="G86" t="n">
-        <v>66.69600000000004</v>
+        <v>-99243.26007580454</v>
       </c>
       <c r="H86" t="n">
-        <v>66.48399999999998</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3444,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>66.3</v>
+        <v>66.77</v>
       </c>
       <c r="C87" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="D87" t="n">
-        <v>66.3</v>
+        <v>66.77</v>
       </c>
       <c r="E87" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="F87" t="n">
-        <v>860.5236</v>
+        <v>16.8783</v>
       </c>
       <c r="G87" t="n">
-        <v>66.70133333333337</v>
+        <v>-99260.13837580454</v>
       </c>
       <c r="H87" t="n">
-        <v>66.48366666666665</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3483,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>66.3</v>
+        <v>66.8</v>
       </c>
       <c r="C88" t="n">
-        <v>66.31999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="D88" t="n">
-        <v>66.31999999999999</v>
+        <v>66.8</v>
       </c>
       <c r="E88" t="n">
-        <v>66.3</v>
+        <v>66.8</v>
       </c>
       <c r="F88" t="n">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="G88" t="n">
-        <v>66.70733333333335</v>
+        <v>-99252.13837580454</v>
       </c>
       <c r="H88" t="n">
-        <v>66.48366666666665</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3522,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>66.33</v>
+        <v>66.11</v>
       </c>
       <c r="C89" t="n">
-        <v>66.7</v>
+        <v>66.11</v>
       </c>
       <c r="D89" t="n">
-        <v>66.7</v>
+        <v>66.11</v>
       </c>
       <c r="E89" t="n">
-        <v>66.33</v>
+        <v>66.11</v>
       </c>
       <c r="F89" t="n">
-        <v>413</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>66.6606666666667</v>
+        <v>-99253.13837580454</v>
       </c>
       <c r="H89" t="n">
-        <v>66.48999999999997</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3561,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>66.31999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>66.31999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="D90" t="n">
-        <v>66.31999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="E90" t="n">
-        <v>66.31999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>143.7677</v>
+        <v>53</v>
       </c>
       <c r="G90" t="n">
-        <v>66.66200000000003</v>
+        <v>-99200.13837580454</v>
       </c>
       <c r="H90" t="n">
-        <v>66.48999999999997</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3600,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>66.31999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="C91" t="n">
-        <v>66.33</v>
+        <v>66.2</v>
       </c>
       <c r="D91" t="n">
-        <v>66.33</v>
+        <v>66.2</v>
       </c>
       <c r="E91" t="n">
-        <v>66.31999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="F91" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G91" t="n">
-        <v>66.66333333333337</v>
+        <v>-99200.13837580454</v>
       </c>
       <c r="H91" t="n">
-        <v>66.46249999999996</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3639,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>66.33</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>66.31999999999999</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>66.33</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>66.31999999999999</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>72</v>
+        <v>617.5511</v>
       </c>
       <c r="G92" t="n">
-        <v>66.66933333333336</v>
+        <v>-98582.58727580454</v>
       </c>
       <c r="H92" t="n">
-        <v>66.46249999999996</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3678,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>66.33</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>66.34</v>
+        <v>66.2</v>
       </c>
       <c r="D93" t="n">
-        <v>66.34</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>66.33</v>
+        <v>66.2</v>
       </c>
       <c r="F93" t="n">
-        <v>36</v>
+        <v>343.49</v>
       </c>
       <c r="G93" t="n">
-        <v>66.67133333333337</v>
+        <v>-98926.07727580455</v>
       </c>
       <c r="H93" t="n">
-        <v>66.46266666666664</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,40 +3717,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>66.7</v>
+        <v>66.2</v>
       </c>
       <c r="C94" t="n">
-        <v>67.59999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="D94" t="n">
-        <v>67.59999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="E94" t="n">
-        <v>66.7</v>
+        <v>66.2</v>
       </c>
       <c r="F94" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="G94" t="n">
-        <v>66.68466666666669</v>
+        <v>-98926.07727580455</v>
       </c>
       <c r="H94" t="n">
-        <v>66.48383333333331</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>66.34</v>
-      </c>
-      <c r="L94" t="n">
-        <v>66.34</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3976,42 +3756,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>66.34999999999999</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>66.34999999999999</v>
+        <v>66.22</v>
       </c>
       <c r="D95" t="n">
-        <v>66.34999999999999</v>
+        <v>66.22</v>
       </c>
       <c r="E95" t="n">
-        <v>66.34999999999999</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G95" t="n">
-        <v>66.68800000000003</v>
+        <v>-98890.07727580455</v>
       </c>
       <c r="H95" t="n">
-        <v>66.48416666666664</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>66.34</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4020,42 +3795,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>67.59999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="C96" t="n">
-        <v>67.59999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="D96" t="n">
-        <v>67.59999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="E96" t="n">
-        <v>67.59999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="F96" t="n">
-        <v>8</v>
+        <v>384.8787</v>
       </c>
       <c r="G96" t="n">
-        <v>66.77466666666669</v>
+        <v>-98505.19857580455</v>
       </c>
       <c r="H96" t="n">
-        <v>66.47783333333331</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>66.34</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4064,36 +3834,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>67.59999999999999</v>
+        <v>66.45</v>
       </c>
       <c r="C97" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="D97" t="n">
-        <v>67.59999999999999</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="F97" t="n">
-        <v>226.4665</v>
+        <v>1536</v>
       </c>
       <c r="G97" t="n">
-        <v>66.81800000000003</v>
+        <v>-98505.19857580455</v>
       </c>
       <c r="H97" t="n">
-        <v>66.4888333333333</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4102,36 +3873,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>66.7</v>
+        <v>66.31</v>
       </c>
       <c r="C98" t="n">
-        <v>67.59999999999999</v>
+        <v>66.22</v>
       </c>
       <c r="D98" t="n">
-        <v>67.59999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="E98" t="n">
-        <v>66.5</v>
+        <v>66.22</v>
       </c>
       <c r="F98" t="n">
-        <v>694.4475</v>
+        <v>13393.3593</v>
       </c>
       <c r="G98" t="n">
-        <v>66.80466666666669</v>
+        <v>-111898.5578758045</v>
       </c>
       <c r="H98" t="n">
-        <v>66.4938333333333</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4140,36 +3912,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>66.5</v>
+        <v>66.22</v>
       </c>
       <c r="C99" t="n">
-        <v>66.5</v>
+        <v>66.22</v>
       </c>
       <c r="D99" t="n">
-        <v>66.5</v>
+        <v>66.22</v>
       </c>
       <c r="E99" t="n">
-        <v>66.5</v>
+        <v>66.22</v>
       </c>
       <c r="F99" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
       <c r="G99" t="n">
-        <v>66.71200000000003</v>
+        <v>-111898.5578758045</v>
       </c>
       <c r="H99" t="n">
-        <v>66.50216666666662</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,36 +3951,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>66.5</v>
+        <v>66.22</v>
       </c>
       <c r="C100" t="n">
-        <v>66.40000000000001</v>
+        <v>66.22</v>
       </c>
       <c r="D100" t="n">
-        <v>66.5</v>
+        <v>66.22</v>
       </c>
       <c r="E100" t="n">
-        <v>66.40000000000001</v>
+        <v>66.22</v>
       </c>
       <c r="F100" t="n">
-        <v>10.46</v>
+        <v>1325.8941</v>
       </c>
       <c r="G100" t="n">
-        <v>66.69200000000002</v>
+        <v>-111898.5578758045</v>
       </c>
       <c r="H100" t="n">
-        <v>66.48716666666662</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4216,36 +3990,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>67</v>
+        <v>66.22</v>
       </c>
       <c r="C101" t="n">
-        <v>67</v>
+        <v>66.22</v>
       </c>
       <c r="D101" t="n">
-        <v>67</v>
+        <v>66.22</v>
       </c>
       <c r="E101" t="n">
-        <v>67</v>
+        <v>66.22</v>
       </c>
       <c r="F101" t="n">
-        <v>1200</v>
+        <v>72</v>
       </c>
       <c r="G101" t="n">
-        <v>66.71200000000002</v>
+        <v>-111898.5578758045</v>
       </c>
       <c r="H101" t="n">
-        <v>66.48716666666662</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4254,36 +4029,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>66.90000000000001</v>
+        <v>66.23</v>
       </c>
       <c r="C102" t="n">
-        <v>66.90000000000001</v>
+        <v>66.23</v>
       </c>
       <c r="D102" t="n">
-        <v>66.90000000000001</v>
+        <v>66.23</v>
       </c>
       <c r="E102" t="n">
-        <v>66.90000000000001</v>
+        <v>66.23</v>
       </c>
       <c r="F102" t="n">
-        <v>225</v>
+        <v>374.983</v>
       </c>
       <c r="G102" t="n">
-        <v>66.75200000000002</v>
+        <v>-111523.5748758046</v>
       </c>
       <c r="H102" t="n">
-        <v>66.50049999999996</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4292,36 +4068,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>66.7</v>
+        <v>66.23</v>
       </c>
       <c r="C103" t="n">
-        <v>66.34999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>66.7</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>66.34999999999999</v>
+        <v>66.23</v>
       </c>
       <c r="F103" t="n">
-        <v>14182.0144</v>
+        <v>5969.378025163205</v>
       </c>
       <c r="G103" t="n">
-        <v>66.75400000000003</v>
+        <v>-105554.1968506413</v>
       </c>
       <c r="H103" t="n">
-        <v>66.50299999999997</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4330,36 +4107,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>66.34999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="C104" t="n">
-        <v>66.34999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="D104" t="n">
-        <v>66.34999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="E104" t="n">
-        <v>66.34999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="F104" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G104" t="n">
-        <v>66.73066666666668</v>
+        <v>-105572.1968506413</v>
       </c>
       <c r="H104" t="n">
-        <v>66.49266666666664</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,36 +4146,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>66.36</v>
+        <v>66.23</v>
       </c>
       <c r="C105" t="n">
-        <v>66.40000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="D105" t="n">
-        <v>66.40000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="E105" t="n">
-        <v>66.36</v>
+        <v>66.23</v>
       </c>
       <c r="F105" t="n">
-        <v>300.669</v>
+        <v>54</v>
       </c>
       <c r="G105" t="n">
-        <v>66.73600000000003</v>
+        <v>-105518.1968506413</v>
       </c>
       <c r="H105" t="n">
-        <v>66.49599999999997</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4406,36 +4185,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>66.40000000000001</v>
+        <v>66.23</v>
       </c>
       <c r="C106" t="n">
-        <v>66.40000000000001</v>
+        <v>66.23</v>
       </c>
       <c r="D106" t="n">
-        <v>66.40000000000001</v>
+        <v>66.23</v>
       </c>
       <c r="E106" t="n">
-        <v>66.40000000000001</v>
+        <v>66.23</v>
       </c>
       <c r="F106" t="n">
-        <v>18</v>
+        <v>765.9395</v>
       </c>
       <c r="G106" t="n">
-        <v>66.7406666666667</v>
+        <v>-106284.1363506413</v>
       </c>
       <c r="H106" t="n">
-        <v>66.49599999999997</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4444,36 +4224,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>67.59999999999999</v>
+        <v>66.23999999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>67.59999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="D107" t="n">
-        <v>67.59999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="E107" t="n">
-        <v>67.59999999999999</v>
+        <v>66.23999999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="G107" t="n">
-        <v>66.82600000000004</v>
+        <v>-106230.1363506413</v>
       </c>
       <c r="H107" t="n">
-        <v>66.51599999999998</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4482,36 +4263,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>67</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>67</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>67</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>67</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>190.4149</v>
+        <v>8</v>
       </c>
       <c r="G108" t="n">
-        <v>66.87000000000003</v>
+        <v>-106222.1363506413</v>
       </c>
       <c r="H108" t="n">
-        <v>66.53099999999998</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4520,36 +4302,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>67</v>
+        <v>66.3</v>
       </c>
       <c r="C109" t="n">
-        <v>67</v>
+        <v>66.3</v>
       </c>
       <c r="D109" t="n">
-        <v>67</v>
+        <v>66.3</v>
       </c>
       <c r="E109" t="n">
-        <v>67</v>
+        <v>66.3</v>
       </c>
       <c r="F109" t="n">
-        <v>36.49</v>
+        <v>18</v>
       </c>
       <c r="G109" t="n">
-        <v>66.83000000000004</v>
+        <v>-106240.1363506413</v>
       </c>
       <c r="H109" t="n">
-        <v>66.54433333333331</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,36 +4341,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>66.90000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="C110" t="n">
-        <v>66.7</v>
+        <v>66.3</v>
       </c>
       <c r="D110" t="n">
-        <v>66.90000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="E110" t="n">
-        <v>66.7</v>
+        <v>66.3</v>
       </c>
       <c r="F110" t="n">
-        <v>60.1615</v>
+        <v>18</v>
       </c>
       <c r="G110" t="n">
-        <v>66.85333333333337</v>
+        <v>-106240.1363506413</v>
       </c>
       <c r="H110" t="n">
-        <v>66.55099999999997</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,36 +4380,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>66.7</v>
+        <v>66.31</v>
       </c>
       <c r="C111" t="n">
-        <v>66.7</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>66.7</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>66.7</v>
+        <v>66.31</v>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>230.0977</v>
       </c>
       <c r="G111" t="n">
-        <v>66.79333333333336</v>
+        <v>-106010.0386506413</v>
       </c>
       <c r="H111" t="n">
-        <v>66.56099999999996</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4634,36 +4419,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>67</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>66.5</v>
+        <v>67.8</v>
       </c>
       <c r="D112" t="n">
-        <v>67</v>
+        <v>67.8</v>
       </c>
       <c r="E112" t="n">
-        <v>66.5</v>
+        <v>67.79000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>307.51</v>
+        <v>1324.5234</v>
       </c>
       <c r="G112" t="n">
-        <v>66.76000000000003</v>
+        <v>-104685.5152506413</v>
       </c>
       <c r="H112" t="n">
-        <v>66.56749999999997</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4672,36 +4458,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>67</v>
+        <v>67.89</v>
       </c>
       <c r="C113" t="n">
-        <v>67</v>
+        <v>67.89</v>
       </c>
       <c r="D113" t="n">
-        <v>67</v>
+        <v>67.89</v>
       </c>
       <c r="E113" t="n">
-        <v>67</v>
+        <v>67.89</v>
       </c>
       <c r="F113" t="n">
-        <v>33.5116</v>
+        <v>8</v>
       </c>
       <c r="G113" t="n">
-        <v>66.72000000000004</v>
+        <v>-104677.5152506413</v>
       </c>
       <c r="H113" t="n">
-        <v>66.58249999999997</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4710,36 +4497,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="C114" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="D114" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="E114" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="F114" t="n">
-        <v>19.201</v>
+        <v>125.463</v>
       </c>
       <c r="G114" t="n">
-        <v>66.76666666666669</v>
+        <v>-104802.9782506413</v>
       </c>
       <c r="H114" t="n">
-        <v>66.6008333333333</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4748,36 +4536,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>67.01000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="C115" t="n">
-        <v>67.01000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="D115" t="n">
-        <v>67.01000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="E115" t="n">
-        <v>67.01000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="F115" t="n">
-        <v>17.428</v>
+        <v>197</v>
       </c>
       <c r="G115" t="n">
-        <v>66.80733333333336</v>
+        <v>-104802.9782506413</v>
       </c>
       <c r="H115" t="n">
-        <v>66.61433333333331</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4786,36 +4575,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>67.01000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="C116" t="n">
-        <v>67.01000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="D116" t="n">
-        <v>67.01000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="E116" t="n">
-        <v>67.01000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="F116" t="n">
-        <v>1.972</v>
+        <v>860.5236</v>
       </c>
       <c r="G116" t="n">
-        <v>66.80800000000004</v>
+        <v>-105663.5018506413</v>
       </c>
       <c r="H116" t="n">
-        <v>66.62933333333331</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4824,36 +4614,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>67.2</v>
+        <v>66.3</v>
       </c>
       <c r="C117" t="n">
-        <v>67.90000000000001</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>67.90000000000001</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>67.2</v>
+        <v>66.3</v>
       </c>
       <c r="F117" t="n">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="G117" t="n">
-        <v>66.87466666666671</v>
+        <v>-105530.5018506413</v>
       </c>
       <c r="H117" t="n">
-        <v>66.64599999999997</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4862,36 +4653,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>67.3</v>
+        <v>66.33</v>
       </c>
       <c r="C118" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="D118" t="n">
-        <v>67.3</v>
+        <v>66.7</v>
       </c>
       <c r="E118" t="n">
-        <v>67.2</v>
+        <v>66.33</v>
       </c>
       <c r="F118" t="n">
-        <v>279.01</v>
+        <v>413</v>
       </c>
       <c r="G118" t="n">
-        <v>66.93133333333337</v>
+        <v>-105117.5018506413</v>
       </c>
       <c r="H118" t="n">
-        <v>66.66266666666664</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4900,36 +4692,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>67.11</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>67.2</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>67.2</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>67.05</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>40.7643</v>
+        <v>143.7677</v>
       </c>
       <c r="G119" t="n">
-        <v>66.98800000000003</v>
+        <v>-105261.2695506413</v>
       </c>
       <c r="H119" t="n">
-        <v>66.6693333333333</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4938,36 +4731,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>67.2</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>66.55</v>
+        <v>66.33</v>
       </c>
       <c r="D120" t="n">
-        <v>67.2</v>
+        <v>66.33</v>
       </c>
       <c r="E120" t="n">
-        <v>66.55</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>987.5096</v>
+        <v>36</v>
       </c>
       <c r="G120" t="n">
-        <v>66.99800000000003</v>
+        <v>-105225.2695506413</v>
       </c>
       <c r="H120" t="n">
-        <v>66.67666666666663</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4976,36 +4770,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>67.2</v>
+        <v>66.33</v>
       </c>
       <c r="C121" t="n">
-        <v>67.2</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>67.2</v>
+        <v>66.33</v>
       </c>
       <c r="E121" t="n">
-        <v>67.2</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="G121" t="n">
-        <v>67.05133333333337</v>
+        <v>-105297.2695506413</v>
       </c>
       <c r="H121" t="n">
-        <v>66.6933333333333</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,36 +4809,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>67.2</v>
+        <v>66.33</v>
       </c>
       <c r="C122" t="n">
-        <v>66.7</v>
+        <v>66.34</v>
       </c>
       <c r="D122" t="n">
-        <v>67.2</v>
+        <v>66.34</v>
       </c>
       <c r="E122" t="n">
-        <v>66.7</v>
+        <v>66.33</v>
       </c>
       <c r="F122" t="n">
-        <v>51117.2196</v>
+        <v>36</v>
       </c>
       <c r="G122" t="n">
-        <v>66.99133333333336</v>
+        <v>-105261.2695506413</v>
       </c>
       <c r="H122" t="n">
-        <v>66.70166666666664</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5052,36 +4848,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>67</v>
+        <v>66.7</v>
       </c>
       <c r="C123" t="n">
-        <v>67</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>67</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>67</v>
+        <v>66.7</v>
       </c>
       <c r="F123" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="G123" t="n">
-        <v>66.99133333333336</v>
+        <v>-104261.2695506413</v>
       </c>
       <c r="H123" t="n">
-        <v>66.7148333333333</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5090,36 +4887,37 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>66.56</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>66.56</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>66.56</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>66.56</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>12.4162</v>
+        <v>18</v>
       </c>
       <c r="G124" t="n">
-        <v>66.96200000000002</v>
+        <v>-104279.2695506413</v>
       </c>
       <c r="H124" t="n">
-        <v>66.7208333333333</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5128,36 +4926,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>66.56</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>66.56</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>66.56</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>66.56</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F125" t="n">
-        <v>4647.7768</v>
+        <v>8</v>
       </c>
       <c r="G125" t="n">
-        <v>66.95266666666667</v>
+        <v>-104271.2695506413</v>
       </c>
       <c r="H125" t="n">
-        <v>66.7268333333333</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5166,36 +4965,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>66.26000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>66.2</v>
+        <v>67</v>
       </c>
       <c r="D126" t="n">
-        <v>66.26000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>66.2</v>
+        <v>67</v>
       </c>
       <c r="F126" t="n">
-        <v>1444.3455</v>
+        <v>226.4665</v>
       </c>
       <c r="G126" t="n">
-        <v>66.91933333333334</v>
+        <v>-104497.7360506413</v>
       </c>
       <c r="H126" t="n">
-        <v>66.72649999999997</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5204,36 +5004,37 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>66.2</v>
+        <v>66.7</v>
       </c>
       <c r="C127" t="n">
-        <v>66.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>66.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>66.2</v>
+        <v>66.5</v>
       </c>
       <c r="F127" t="n">
-        <v>3268.1459</v>
+        <v>694.4475</v>
       </c>
       <c r="G127" t="n">
-        <v>66.89933333333335</v>
+        <v>-103803.2885506413</v>
       </c>
       <c r="H127" t="n">
-        <v>66.72466666666664</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,36 +5043,37 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>66.16</v>
+        <v>66.5</v>
       </c>
       <c r="C128" t="n">
-        <v>66.16</v>
+        <v>66.5</v>
       </c>
       <c r="D128" t="n">
-        <v>66.16</v>
+        <v>66.5</v>
       </c>
       <c r="E128" t="n">
-        <v>66.06</v>
+        <v>66.5</v>
       </c>
       <c r="F128" t="n">
-        <v>13266.7695</v>
+        <v>450</v>
       </c>
       <c r="G128" t="n">
-        <v>66.84333333333335</v>
+        <v>-104253.2885506413</v>
       </c>
       <c r="H128" t="n">
-        <v>66.72216666666664</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5280,36 +5082,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>66.2</v>
+        <v>66.5</v>
       </c>
       <c r="C129" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D129" t="n">
-        <v>66.2</v>
+        <v>66.5</v>
       </c>
       <c r="E129" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>353.6748</v>
+        <v>10.46</v>
       </c>
       <c r="G129" t="n">
-        <v>66.77666666666669</v>
+        <v>-104263.7485506413</v>
       </c>
       <c r="H129" t="n">
-        <v>66.72183333333331</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5318,36 +5121,37 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>66.79000000000001</v>
+        <v>67</v>
       </c>
       <c r="C130" t="n">
-        <v>66.79000000000001</v>
+        <v>67</v>
       </c>
       <c r="D130" t="n">
-        <v>66.79000000000001</v>
+        <v>67</v>
       </c>
       <c r="E130" t="n">
-        <v>66.79000000000001</v>
+        <v>67</v>
       </c>
       <c r="F130" t="n">
-        <v>8</v>
+        <v>1200</v>
       </c>
       <c r="G130" t="n">
-        <v>66.76200000000001</v>
+        <v>-103063.7485506413</v>
       </c>
       <c r="H130" t="n">
-        <v>66.73133333333331</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5356,36 +5160,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>66.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>66.16</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>66.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>66.16</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F131" t="n">
-        <v>11215.8811</v>
+        <v>225</v>
       </c>
       <c r="G131" t="n">
-        <v>66.70533333333336</v>
+        <v>-103288.7485506413</v>
       </c>
       <c r="H131" t="n">
-        <v>66.73033333333331</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5394,36 +5199,37 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>66.5</v>
+        <v>66.7</v>
       </c>
       <c r="C132" t="n">
-        <v>66.5</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>66.5</v>
+        <v>66.7</v>
       </c>
       <c r="E132" t="n">
-        <v>66.5</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="F132" t="n">
-        <v>8</v>
+        <v>14182.0144</v>
       </c>
       <c r="G132" t="n">
-        <v>66.61200000000002</v>
+        <v>-117470.7629506413</v>
       </c>
       <c r="H132" t="n">
-        <v>66.73499999999997</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5432,36 +5238,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>66.3</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>66.3</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>66.3</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>66.3</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>324.7809</v>
+        <v>36</v>
       </c>
       <c r="G133" t="n">
-        <v>66.55200000000004</v>
+        <v>-117470.7629506413</v>
       </c>
       <c r="H133" t="n">
-        <v>66.73616666666665</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5470,36 +5277,39 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>66.3</v>
+        <v>66.36</v>
       </c>
       <c r="C134" t="n">
-        <v>66.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>66.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>66.3</v>
+        <v>66.36</v>
       </c>
       <c r="F134" t="n">
-        <v>537.3687</v>
+        <v>300.669</v>
       </c>
       <c r="G134" t="n">
-        <v>66.49200000000002</v>
+        <v>-117170.0939506413</v>
       </c>
       <c r="H134" t="n">
-        <v>66.71783333333332</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5508,36 +5318,37 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>66.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>66.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>66.5</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>66.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F135" t="n">
-        <v>335.209</v>
+        <v>18</v>
       </c>
       <c r="G135" t="n">
-        <v>66.48866666666669</v>
+        <v>-117170.0939506413</v>
       </c>
       <c r="H135" t="n">
-        <v>66.72116666666665</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5546,36 +5357,39 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>66.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>67.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>67.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>66.8</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="F136" t="n">
-        <v>774.2198</v>
+        <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>66.48200000000001</v>
+        <v>-117160.0939506413</v>
       </c>
       <c r="H136" t="n">
-        <v>66.73433333333331</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5587,33 +5401,34 @@
         <v>67</v>
       </c>
       <c r="C137" t="n">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="D137" t="n">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="E137" t="n">
         <v>67</v>
       </c>
       <c r="F137" t="n">
-        <v>431</v>
+        <v>190.4149</v>
       </c>
       <c r="G137" t="n">
-        <v>66.50866666666667</v>
+        <v>-117350.5088506413</v>
       </c>
       <c r="H137" t="n">
-        <v>66.74883333333331</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5622,36 +5437,37 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>66.5</v>
+        <v>67</v>
       </c>
       <c r="C138" t="n">
-        <v>66.5</v>
+        <v>67</v>
       </c>
       <c r="D138" t="n">
-        <v>66.5</v>
+        <v>67</v>
       </c>
       <c r="E138" t="n">
-        <v>66.5</v>
+        <v>67</v>
       </c>
       <c r="F138" t="n">
-        <v>139.5563</v>
+        <v>36.49</v>
       </c>
       <c r="G138" t="n">
-        <v>66.47533333333334</v>
+        <v>-117350.5088506413</v>
       </c>
       <c r="H138" t="n">
-        <v>66.75199999999998</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5660,36 +5476,37 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>66.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>66.5</v>
+        <v>66.7</v>
       </c>
       <c r="D139" t="n">
-        <v>66.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>66.5</v>
+        <v>66.7</v>
       </c>
       <c r="F139" t="n">
-        <v>6.1867</v>
+        <v>60.1615</v>
       </c>
       <c r="G139" t="n">
-        <v>66.47133333333335</v>
+        <v>-117410.6703506413</v>
       </c>
       <c r="H139" t="n">
-        <v>66.73699999999998</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,36 +5515,37 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>67.09999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="C140" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="D140" t="n">
-        <v>67.2</v>
+        <v>66.7</v>
       </c>
       <c r="E140" t="n">
-        <v>67.09999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="F140" t="n">
-        <v>5007.0101</v>
+        <v>20</v>
       </c>
       <c r="G140" t="n">
-        <v>66.51400000000002</v>
+        <v>-117410.6703506413</v>
       </c>
       <c r="H140" t="n">
-        <v>66.75199999999997</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5736,36 +5554,37 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="C141" t="n">
-        <v>67.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="D141" t="n">
-        <v>67.09999999999999</v>
+        <v>67</v>
       </c>
       <c r="E141" t="n">
-        <v>67.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="F141" t="n">
-        <v>36</v>
+        <v>307.51</v>
       </c>
       <c r="G141" t="n">
-        <v>66.57400000000001</v>
+        <v>-117718.1803506413</v>
       </c>
       <c r="H141" t="n">
-        <v>66.7653333333333</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5774,36 +5593,37 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>67.2</v>
+        <v>67</v>
       </c>
       <c r="C142" t="n">
-        <v>67.2</v>
+        <v>67</v>
       </c>
       <c r="D142" t="n">
-        <v>67.2</v>
+        <v>67</v>
       </c>
       <c r="E142" t="n">
-        <v>67.2</v>
+        <v>67</v>
       </c>
       <c r="F142" t="n">
-        <v>201.2826</v>
+        <v>33.5116</v>
       </c>
       <c r="G142" t="n">
-        <v>66.64066666666668</v>
+        <v>-117684.6687506413</v>
       </c>
       <c r="H142" t="n">
-        <v>66.77949999999996</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5824,24 +5644,25 @@
         <v>67.2</v>
       </c>
       <c r="F143" t="n">
-        <v>342.8558</v>
+        <v>19.201</v>
       </c>
       <c r="G143" t="n">
-        <v>66.71000000000001</v>
+        <v>-117665.4677506413</v>
       </c>
       <c r="H143" t="n">
-        <v>66.76949999999995</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>1</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5850,36 +5671,37 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>67.12</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C144" t="n">
-        <v>67.11</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D144" t="n">
-        <v>67.12</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E144" t="n">
-        <v>67.11</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="F144" t="n">
-        <v>4516.5723</v>
+        <v>17.428</v>
       </c>
       <c r="G144" t="n">
-        <v>66.77066666666668</v>
+        <v>-117682.8957506413</v>
       </c>
       <c r="H144" t="n">
-        <v>66.75649999999996</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5888,36 +5710,37 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>67.2</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C145" t="n">
-        <v>67.09999999999999</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D145" t="n">
-        <v>67.2</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E145" t="n">
-        <v>67.09999999999999</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="F145" t="n">
-        <v>11939.2891</v>
+        <v>1.972</v>
       </c>
       <c r="G145" t="n">
-        <v>66.79133333333334</v>
+        <v>-117682.8957506413</v>
       </c>
       <c r="H145" t="n">
-        <v>66.76316666666663</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,36 +5749,37 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>67.09999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="C146" t="n">
-        <v>67.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D146" t="n">
-        <v>67.09999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E146" t="n">
-        <v>67.09999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="F146" t="n">
         <v>8</v>
       </c>
       <c r="G146" t="n">
-        <v>66.854</v>
+        <v>-117674.8957506413</v>
       </c>
       <c r="H146" t="n">
-        <v>66.7698333333333</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5964,36 +5788,1174 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C147" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E147" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>279.01</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-117953.9057506413</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>67.11</v>
+      </c>
+      <c r="C148" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>67.05</v>
+      </c>
+      <c r="F148" t="n">
+        <v>40.7643</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-117953.9057506413</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>66.55</v>
+      </c>
+      <c r="D149" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>66.55</v>
+      </c>
+      <c r="F149" t="n">
+        <v>987.5096</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-118941.4153506413</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>8</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-118933.4153506413</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C151" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D151" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E151" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>51117.2196</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-170050.6349506413</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>67</v>
+      </c>
+      <c r="C152" t="n">
+        <v>67</v>
+      </c>
+      <c r="D152" t="n">
+        <v>67</v>
+      </c>
+      <c r="E152" t="n">
+        <v>67</v>
+      </c>
+      <c r="F152" t="n">
+        <v>8</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-170042.6349506413</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="C153" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="D153" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="E153" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="F153" t="n">
+        <v>12.4162</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-170055.0511506413</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="C154" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="D154" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="E154" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4647.7768</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-170055.0511506413</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="C155" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="E155" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1444.3455</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-171499.3966506413</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="C156" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D156" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E156" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3268.1459</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-171499.3966506413</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="C157" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="D157" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="E157" t="n">
+        <v>66.06</v>
+      </c>
+      <c r="F157" t="n">
+        <v>13266.7695</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-184766.1661506413</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="C158" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D158" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E158" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F158" t="n">
+        <v>353.6748</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-184412.4913506413</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>66.79000000000001</v>
+      </c>
+      <c r="C159" t="n">
+        <v>66.79000000000001</v>
+      </c>
+      <c r="D159" t="n">
+        <v>66.79000000000001</v>
+      </c>
+      <c r="E159" t="n">
+        <v>66.79000000000001</v>
+      </c>
+      <c r="F159" t="n">
+        <v>8</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-184404.4913506413</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="C160" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="D160" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E160" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="F160" t="n">
+        <v>11215.8811</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-195620.3724506413</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C161" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D161" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>8</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-195612.3724506413</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C162" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D162" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E162" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F162" t="n">
+        <v>324.7809</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-195937.1533506413</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C163" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D163" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E163" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F163" t="n">
+        <v>537.3687</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-195937.1533506413</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C164" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F164" t="n">
+        <v>335.209</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-195601.9443506413</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C165" t="n">
         <v>67.09999999999999</v>
       </c>
-      <c r="C147" t="n">
+      <c r="D165" t="n">
         <v>67.09999999999999</v>
       </c>
-      <c r="D147" t="n">
+      <c r="E165" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F165" t="n">
+        <v>774.2198</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-194827.7245506413</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>67</v>
+      </c>
+      <c r="C166" t="n">
         <v>67.09999999999999</v>
       </c>
-      <c r="E147" t="n">
+      <c r="D166" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="E166" t="n">
+        <v>67</v>
+      </c>
+      <c r="F166" t="n">
+        <v>431</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-194827.7245506413</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C167" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E167" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>139.5563</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-194967.2808506413</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C168" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D168" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E168" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F168" t="n">
+        <v>6.1867</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-194967.2808506413</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C169" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D169" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F169" t="n">
+        <v>5007.0101</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-189960.2707506413</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C170" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D170" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="E170" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F170" t="n">
+        <v>36</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-189996.2707506413</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C171" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D171" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E171" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F171" t="n">
+        <v>201.2826</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-189794.9881506413</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D172" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E172" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>342.8558</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-189794.9881506413</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>67.12</v>
+      </c>
+      <c r="C173" t="n">
+        <v>67.11</v>
+      </c>
+      <c r="D173" t="n">
+        <v>67.12</v>
+      </c>
+      <c r="E173" t="n">
+        <v>67.11</v>
+      </c>
+      <c r="F173" t="n">
+        <v>4516.5723</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-194311.5604506413</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D174" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E174" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F174" t="n">
+        <v>11939.2891</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-206250.8495506413</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C175" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D175" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="E175" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F175" t="n">
+        <v>8</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-206250.8495506413</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C176" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D176" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="E176" t="n">
         <v>67.09</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F176" t="n">
         <v>1204.8385</v>
       </c>
-      <c r="G147" t="n">
-        <v>66.89400000000001</v>
-      </c>
-      <c r="H147" t="n">
-        <v>66.78316666666663</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="G176" t="n">
+        <v>-206250.8495506413</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-23 BackTest FX.xlsx
+++ b/BackTest/2020-01-23 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>66.31999999999999</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>66.31999999999999</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>66.31999999999999</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>66.31999999999999</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>14.4383</v>
+        <v>853.2037</v>
       </c>
       <c r="G2" t="n">
-        <v>-77241.79700360725</v>
+        <v>-45831.39394447522</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>66.31999999999999</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>66.31</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
-        <v>66.31999999999999</v>
+        <v>68</v>
       </c>
       <c r="E3" t="n">
-        <v>66.31</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>293.2551</v>
+        <v>672.517787</v>
       </c>
       <c r="G3" t="n">
-        <v>-77535.05210360725</v>
+        <v>-45158.87615747522</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>67.90000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="C4" t="n">
-        <v>67.90000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="D4" t="n">
-        <v>67.90000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="E4" t="n">
-        <v>67.90000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>-77527.05210360725</v>
+        <v>-45173.87615747522</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>66.40000000000001</v>
+        <v>67.89</v>
       </c>
       <c r="C5" t="n">
-        <v>66.31</v>
+        <v>67.89</v>
       </c>
       <c r="D5" t="n">
-        <v>66.40000000000001</v>
+        <v>67.89</v>
       </c>
       <c r="E5" t="n">
-        <v>66.31</v>
+        <v>67.89</v>
       </c>
       <c r="F5" t="n">
-        <v>340.96</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>-77868.01210360725</v>
+        <v>-45165.87615747522</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>66.31</v>
+        <v>67.89</v>
       </c>
       <c r="C6" t="n">
-        <v>66.31</v>
+        <v>67.89</v>
       </c>
       <c r="D6" t="n">
-        <v>66.31</v>
+        <v>67.89</v>
       </c>
       <c r="E6" t="n">
-        <v>66.31</v>
+        <v>67.89</v>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>7.5135</v>
       </c>
       <c r="G6" t="n">
-        <v>-77868.01210360725</v>
+        <v>-45165.87615747522</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66.31999999999999</v>
+        <v>67.88</v>
       </c>
       <c r="C7" t="n">
-        <v>67.90000000000001</v>
+        <v>67.89</v>
       </c>
       <c r="D7" t="n">
-        <v>67.90000000000001</v>
+        <v>67.89</v>
       </c>
       <c r="E7" t="n">
-        <v>66.31999999999999</v>
+        <v>67.88</v>
       </c>
       <c r="F7" t="n">
-        <v>26</v>
+        <v>23.99663966710856</v>
       </c>
       <c r="G7" t="n">
-        <v>-77842.01210360725</v>
+        <v>-45165.87615747522</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66.31999999999999</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>66.31999999999999</v>
+        <v>68</v>
       </c>
       <c r="D8" t="n">
-        <v>66.31999999999999</v>
+        <v>68</v>
       </c>
       <c r="E8" t="n">
-        <v>66.31999999999999</v>
+        <v>67.18000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>19997.94060002407</v>
       </c>
       <c r="G8" t="n">
-        <v>-77860.01210360725</v>
+        <v>-25167.93555745115</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66.33</v>
+        <v>67.3</v>
       </c>
       <c r="C9" t="n">
-        <v>66.31999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>67.3</v>
       </c>
       <c r="E9" t="n">
-        <v>66.31999999999999</v>
+        <v>67.3</v>
       </c>
       <c r="F9" t="n">
-        <v>36.98597014925373</v>
+        <v>2354</v>
       </c>
       <c r="G9" t="n">
-        <v>-77860.01210360725</v>
+        <v>-27521.93555745115</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>66.33</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>66.33</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>66.33</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>66.33</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>-77842.01210360725</v>
+        <v>-27513.93555745115</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>67.90000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="C11" t="n">
-        <v>67.98999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="D11" t="n">
-        <v>67.98999999999999</v>
+        <v>67.2</v>
       </c>
       <c r="E11" t="n">
-        <v>67.90000000000001</v>
+        <v>67.2</v>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>483</v>
       </c>
       <c r="G11" t="n">
-        <v>-77824.01210360725</v>
+        <v>-27996.93555745115</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -801,25 +801,25 @@
         <v>67.90000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>66.51000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D12" t="n">
         <v>67.90000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>66.51000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-77843.01210360725</v>
+        <v>-27986.93555745115</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>66.51000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>443</v>
       </c>
       <c r="G13" t="n">
-        <v>-77843.01210360725</v>
+        <v>-28429.93555745115</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>66.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>66.31999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>66.5</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>66.31999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>36</v>
+        <v>1318.8682</v>
       </c>
       <c r="G14" t="n">
-        <v>-77879.01210360725</v>
+        <v>-27111.06735745115</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>66.31999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C15" t="n">
-        <v>66.31999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="D15" t="n">
-        <v>66.31999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E15" t="n">
-        <v>66.31999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>6218.9783</v>
       </c>
       <c r="G15" t="n">
-        <v>-77879.01210360725</v>
+        <v>-33330.04565745115</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>66.31999999999999</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>66.31999999999999</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>66.31999999999999</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>66.31999999999999</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
-        <v>-77879.01210360725</v>
+        <v>-33322.04565745115</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>66.31999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="C17" t="n">
-        <v>66.31999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="D17" t="n">
-        <v>66.31999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="E17" t="n">
-        <v>66.31999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="F17" t="n">
-        <v>36</v>
+        <v>324</v>
       </c>
       <c r="G17" t="n">
-        <v>-77879.01210360725</v>
+        <v>-33646.04565745115</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>67.98</v>
+        <v>66.31</v>
       </c>
       <c r="C18" t="n">
-        <v>67.98</v>
+        <v>66</v>
       </c>
       <c r="D18" t="n">
-        <v>67.98</v>
+        <v>66.31</v>
       </c>
       <c r="E18" t="n">
-        <v>67.98</v>
+        <v>66</v>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>25454.7381</v>
       </c>
       <c r="G18" t="n">
-        <v>-77871.01210360725</v>
+        <v>-59100.78375745115</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>66.31999999999999</v>
+        <v>67</v>
       </c>
       <c r="C19" t="n">
-        <v>66.31999999999999</v>
+        <v>67</v>
       </c>
       <c r="D19" t="n">
-        <v>66.31999999999999</v>
+        <v>67</v>
       </c>
       <c r="E19" t="n">
-        <v>66.31999999999999</v>
+        <v>67</v>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>-77889.01210360725</v>
+        <v>-59092.78375745115</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>66.33</v>
+        <v>66.58</v>
       </c>
       <c r="C20" t="n">
-        <v>66.33</v>
+        <v>66.58</v>
       </c>
       <c r="D20" t="n">
-        <v>66.33</v>
+        <v>66.58</v>
       </c>
       <c r="E20" t="n">
-        <v>66.33</v>
+        <v>66.58</v>
       </c>
       <c r="F20" t="n">
-        <v>18</v>
+        <v>224.8834</v>
       </c>
       <c r="G20" t="n">
-        <v>-77871.01210360725</v>
+        <v>-59317.66715745115</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>66.33</v>
+        <v>66.11</v>
       </c>
       <c r="C21" t="n">
-        <v>66.33</v>
+        <v>66.05</v>
       </c>
       <c r="D21" t="n">
-        <v>66.33</v>
+        <v>66.11</v>
       </c>
       <c r="E21" t="n">
-        <v>66.33</v>
+        <v>66.05</v>
       </c>
       <c r="F21" t="n">
-        <v>36</v>
+        <v>13154.8149</v>
       </c>
       <c r="G21" t="n">
-        <v>-77871.01210360725</v>
+        <v>-72472.48205745115</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>66.33</v>
+        <v>66.03</v>
       </c>
       <c r="C22" t="n">
-        <v>66.33</v>
+        <v>66.03</v>
       </c>
       <c r="D22" t="n">
-        <v>66.33</v>
+        <v>66.03</v>
       </c>
       <c r="E22" t="n">
-        <v>66.33</v>
+        <v>66.03</v>
       </c>
       <c r="F22" t="n">
-        <v>18</v>
+        <v>224.8834</v>
       </c>
       <c r="G22" t="n">
-        <v>-77871.01210360725</v>
+        <v>-72697.36545745116</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>67.98</v>
+        <v>66.03</v>
       </c>
       <c r="C23" t="n">
-        <v>67.98</v>
+        <v>66.03</v>
       </c>
       <c r="D23" t="n">
-        <v>67.98</v>
+        <v>66.03</v>
       </c>
       <c r="E23" t="n">
-        <v>67.98</v>
+        <v>66.03</v>
       </c>
       <c r="F23" t="n">
-        <v>469</v>
+        <v>7106.531</v>
       </c>
       <c r="G23" t="n">
-        <v>-77402.01210360725</v>
+        <v>-72697.36545745116</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>67.3</v>
+        <v>66.05</v>
       </c>
       <c r="C24" t="n">
-        <v>66.34</v>
+        <v>66.05</v>
       </c>
       <c r="D24" t="n">
-        <v>67.3</v>
+        <v>66.05</v>
       </c>
       <c r="E24" t="n">
-        <v>66.34</v>
+        <v>66.05</v>
       </c>
       <c r="F24" t="n">
-        <v>976</v>
+        <v>955</v>
       </c>
       <c r="G24" t="n">
-        <v>-78378.01210360725</v>
+        <v>-71742.36545745116</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>67.3</v>
+        <v>66.05</v>
       </c>
       <c r="C25" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>67.3</v>
+        <v>66.05</v>
       </c>
       <c r="F25" t="n">
-        <v>8</v>
+        <v>8.1493</v>
       </c>
       <c r="G25" t="n">
-        <v>-78370.01210360725</v>
+        <v>-71734.21615745116</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>66</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>66</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>39902</v>
+        <v>8770.3469</v>
       </c>
       <c r="G26" t="n">
-        <v>-118272.0121036073</v>
+        <v>-71734.21615745116</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>67.3</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>67.3</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>67.3</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>8</v>
+        <v>31193.7863</v>
       </c>
       <c r="G27" t="n">
-        <v>-118264.0121036073</v>
+        <v>-102928.0024574512</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>67</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>67</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>67</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>67</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>315.238</v>
+        <v>3776.5005</v>
       </c>
       <c r="G28" t="n">
-        <v>-118579.2501036072</v>
+        <v>-99151.50195745117</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>66.11</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>66.09999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>66.11</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>66.09999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>250</v>
+        <v>6769.0009</v>
       </c>
       <c r="G29" t="n">
-        <v>-118829.2501036072</v>
+        <v>-92382.50105745117</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>66.90000000000001</v>
+        <v>67.59</v>
       </c>
       <c r="C30" t="n">
-        <v>66.2</v>
+        <v>67.59</v>
       </c>
       <c r="D30" t="n">
-        <v>66.98</v>
+        <v>67.59</v>
       </c>
       <c r="E30" t="n">
-        <v>66.2</v>
+        <v>67.59</v>
       </c>
       <c r="F30" t="n">
-        <v>15080</v>
+        <v>8</v>
       </c>
       <c r="G30" t="n">
-        <v>-103749.2501036072</v>
+        <v>-92374.50105745117</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>66.97</v>
+        <v>66.91</v>
       </c>
       <c r="C31" t="n">
-        <v>66.97</v>
+        <v>67.59</v>
       </c>
       <c r="D31" t="n">
-        <v>66.97</v>
+        <v>67.59</v>
       </c>
       <c r="E31" t="n">
-        <v>66.97</v>
+        <v>66.91</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>18.97366474330522</v>
       </c>
       <c r="G31" t="n">
-        <v>-103741.2501036072</v>
+        <v>-92374.50105745117</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>66.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>66.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>66.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>66.2</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>23.9</v>
+        <v>8.9</v>
       </c>
       <c r="G32" t="n">
-        <v>-103765.1501036072</v>
+        <v>-92383.40105745116</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>66.40000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>66.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="D33" t="n">
-        <v>66.40000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="E33" t="n">
-        <v>66.40000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>349.7725</v>
+        <v>9.1</v>
       </c>
       <c r="G33" t="n">
-        <v>-103415.3776036072</v>
+        <v>-92374.30105745116</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>66.40000000000001</v>
+        <v>67.59</v>
       </c>
       <c r="C34" t="n">
-        <v>66.40000000000001</v>
+        <v>67.59</v>
       </c>
       <c r="D34" t="n">
-        <v>66.40000000000001</v>
+        <v>67.59</v>
       </c>
       <c r="E34" t="n">
-        <v>66.40000000000001</v>
+        <v>67.59</v>
       </c>
       <c r="F34" t="n">
         <v>9</v>
       </c>
       <c r="G34" t="n">
-        <v>-103415.3776036072</v>
+        <v>-92365.30105745116</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>66.2</v>
+        <v>67.58</v>
       </c>
       <c r="C35" t="n">
-        <v>66.09999999999999</v>
+        <v>67.09</v>
       </c>
       <c r="D35" t="n">
-        <v>66.2</v>
+        <v>67.58</v>
       </c>
       <c r="E35" t="n">
-        <v>66.09999999999999</v>
+        <v>67.09</v>
       </c>
       <c r="F35" t="n">
-        <v>143.4507</v>
+        <v>25.4</v>
       </c>
       <c r="G35" t="n">
-        <v>-103558.8283036072</v>
+        <v>-92390.70105745115</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>66.19</v>
+        <v>67.09</v>
       </c>
       <c r="C36" t="n">
-        <v>66.2</v>
+        <v>67.59</v>
       </c>
       <c r="D36" t="n">
-        <v>66.2</v>
+        <v>67.59</v>
       </c>
       <c r="E36" t="n">
-        <v>66.19</v>
+        <v>67.09</v>
       </c>
       <c r="F36" t="n">
-        <v>292.2252</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>-103266.6031036072</v>
+        <v>-92380.70105745115</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>66.2</v>
+        <v>67.58</v>
       </c>
       <c r="C37" t="n">
-        <v>66.3</v>
+        <v>67.5</v>
       </c>
       <c r="D37" t="n">
-        <v>66.3</v>
+        <v>67.58</v>
       </c>
       <c r="E37" t="n">
-        <v>66.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F37" t="n">
-        <v>761</v>
+        <v>18</v>
       </c>
       <c r="G37" t="n">
-        <v>-102505.6031036072</v>
+        <v>-92398.70105745115</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>66.09999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>66.09999999999999</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>66.09999999999999</v>
+        <v>67.48999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>66.09999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>18</v>
+        <v>25.6818</v>
       </c>
       <c r="G38" t="n">
-        <v>-102523.6031036072</v>
+        <v>-92424.38285745116</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>66.11</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>66.11</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>66.11</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>66.11</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>36</v>
+        <v>173.6797</v>
       </c>
       <c r="G39" t="n">
-        <v>-102487.6031036072</v>
+        <v>-92598.06255745115</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>66.11</v>
+        <v>66.91</v>
       </c>
       <c r="C40" t="n">
-        <v>66.09999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>66.11</v>
+        <v>66.91</v>
       </c>
       <c r="E40" t="n">
-        <v>66.09999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>132</v>
+        <v>233.4903</v>
       </c>
       <c r="G40" t="n">
-        <v>-102619.6031036072</v>
+        <v>-92598.06255745115</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>66.09999999999999</v>
+        <v>66.91</v>
       </c>
       <c r="C41" t="n">
-        <v>66.09999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>66.09999999999999</v>
+        <v>66.91</v>
       </c>
       <c r="E41" t="n">
-        <v>66.09999999999999</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>36</v>
+        <v>186.6594</v>
       </c>
       <c r="G41" t="n">
-        <v>-102619.6031036072</v>
+        <v>-92598.06255745115</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>66.11</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>66.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D42" t="n">
         <v>66.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>66.11</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>4375.95704618834</v>
+        <v>60</v>
       </c>
       <c r="G42" t="n">
-        <v>-98243.6460574189</v>
+        <v>-92598.06255745115</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>66.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>66.11</v>
+        <v>66.02</v>
       </c>
       <c r="D43" t="n">
         <v>66.90000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>66.11</v>
+        <v>66.02</v>
       </c>
       <c r="F43" t="n">
-        <v>1007.61401838565</v>
+        <v>2461.8317</v>
       </c>
       <c r="G43" t="n">
-        <v>-99251.26007580454</v>
+        <v>-95059.89425745115</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>66.90000000000001</v>
+        <v>66.02</v>
       </c>
       <c r="C44" t="n">
-        <v>66.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="D44" t="n">
-        <v>66.90000000000001</v>
+        <v>66.02</v>
       </c>
       <c r="E44" t="n">
-        <v>66.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="F44" t="n">
-        <v>8</v>
+        <v>1509.6223</v>
       </c>
       <c r="G44" t="n">
-        <v>-99243.26007580454</v>
+        <v>-96569.51655745115</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>66.77</v>
+        <v>66</v>
       </c>
       <c r="C45" t="n">
-        <v>66.2</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>66.77</v>
+        <v>66</v>
       </c>
       <c r="E45" t="n">
-        <v>66.2</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>16.8783</v>
+        <v>1093.2124</v>
       </c>
       <c r="G45" t="n">
-        <v>-99260.13837580454</v>
+        <v>-97662.72895745115</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>66.8</v>
+        <v>66</v>
       </c>
       <c r="C46" t="n">
-        <v>66.8</v>
+        <v>66</v>
       </c>
       <c r="D46" t="n">
-        <v>66.8</v>
+        <v>66</v>
       </c>
       <c r="E46" t="n">
-        <v>66.8</v>
+        <v>66</v>
       </c>
       <c r="F46" t="n">
-        <v>8</v>
+        <v>13.456</v>
       </c>
       <c r="G46" t="n">
-        <v>-99252.13837580454</v>
+        <v>-97649.27295745115</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>66.11</v>
+        <v>66.78</v>
       </c>
       <c r="C47" t="n">
-        <v>66.11</v>
+        <v>66</v>
       </c>
       <c r="D47" t="n">
-        <v>66.11</v>
+        <v>66.78</v>
       </c>
       <c r="E47" t="n">
-        <v>66.11</v>
+        <v>66</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>92.2773</v>
       </c>
       <c r="G47" t="n">
-        <v>-99253.13837580454</v>
+        <v>-97649.27295745115</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>66.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="C48" t="n">
-        <v>66.2</v>
+        <v>65.98</v>
       </c>
       <c r="D48" t="n">
-        <v>66.2</v>
+        <v>66</v>
       </c>
       <c r="E48" t="n">
-        <v>66.09999999999999</v>
+        <v>65.98</v>
       </c>
       <c r="F48" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G48" t="n">
-        <v>-99200.13837580454</v>
+        <v>-97668.27295745115</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>66.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>66.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>66.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>66.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G49" t="n">
-        <v>-99200.13837580454</v>
+        <v>-97660.27295745115</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>66.20999999999999</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>66.20999999999999</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>66.20999999999999</v>
+        <v>66</v>
       </c>
       <c r="E50" t="n">
-        <v>66.20999999999999</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>617.5511</v>
+        <v>110.3688</v>
       </c>
       <c r="G50" t="n">
-        <v>-98582.58727580454</v>
+        <v>-97770.64175745114</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>66.20999999999999</v>
+        <v>66.11</v>
       </c>
       <c r="C51" t="n">
-        <v>66.2</v>
+        <v>66.11</v>
       </c>
       <c r="D51" t="n">
-        <v>66.20999999999999</v>
+        <v>66.11</v>
       </c>
       <c r="E51" t="n">
-        <v>66.2</v>
+        <v>66.11</v>
       </c>
       <c r="F51" t="n">
-        <v>343.49</v>
+        <v>10.7296</v>
       </c>
       <c r="G51" t="n">
-        <v>-98926.07727580455</v>
+        <v>-97759.91215745114</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>66.2</v>
+        <v>66.11</v>
       </c>
       <c r="D52" t="n">
-        <v>66.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>66.2</v>
+        <v>66.11</v>
       </c>
       <c r="F52" t="n">
-        <v>18</v>
+        <v>33.59</v>
       </c>
       <c r="G52" t="n">
-        <v>-98926.07727580455</v>
+        <v>-97759.91215745114</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>66.20999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="C53" t="n">
-        <v>66.22</v>
+        <v>66.5</v>
       </c>
       <c r="D53" t="n">
-        <v>66.22</v>
+        <v>66.5</v>
       </c>
       <c r="E53" t="n">
-        <v>66.20999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="F53" t="n">
-        <v>36</v>
+        <v>59.16</v>
       </c>
       <c r="G53" t="n">
-        <v>-98890.07727580455</v>
+        <v>-97700.75215745113</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>66.31</v>
+        <v>66.5</v>
       </c>
       <c r="C54" t="n">
-        <v>66.31</v>
+        <v>66.2</v>
       </c>
       <c r="D54" t="n">
-        <v>66.31</v>
+        <v>66.5</v>
       </c>
       <c r="E54" t="n">
-        <v>66.31</v>
+        <v>66.2</v>
       </c>
       <c r="F54" t="n">
-        <v>384.8787</v>
+        <v>152.8422</v>
       </c>
       <c r="G54" t="n">
-        <v>-98505.19857580455</v>
+        <v>-97853.59435745113</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>66.45</v>
+        <v>66.5</v>
       </c>
       <c r="C55" t="n">
-        <v>66.31</v>
+        <v>66.5</v>
       </c>
       <c r="D55" t="n">
-        <v>66.48999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="E55" t="n">
-        <v>66.31</v>
+        <v>66.5</v>
       </c>
       <c r="F55" t="n">
-        <v>1536</v>
+        <v>68.22669999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>-98505.19857580455</v>
+        <v>-97785.36765745113</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>66.31</v>
+        <v>66.5</v>
       </c>
       <c r="C56" t="n">
-        <v>66.22</v>
+        <v>66.5</v>
       </c>
       <c r="D56" t="n">
-        <v>66.31</v>
+        <v>66.5</v>
       </c>
       <c r="E56" t="n">
-        <v>66.22</v>
+        <v>66.5</v>
       </c>
       <c r="F56" t="n">
-        <v>13393.3593</v>
+        <v>1.7733</v>
       </c>
       <c r="G56" t="n">
-        <v>-111898.5578758045</v>
+        <v>-97785.36765745113</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>66.22</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>66.22</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>66.22</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>66.22</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>18</v>
+        <v>49.4534</v>
       </c>
       <c r="G57" t="n">
-        <v>-111898.5578758045</v>
+        <v>-97834.82105745113</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>66.22</v>
+        <v>66.12</v>
       </c>
       <c r="C58" t="n">
-        <v>66.22</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>66.22</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>66.22</v>
+        <v>66.12</v>
       </c>
       <c r="F58" t="n">
-        <v>1325.8941</v>
+        <v>176</v>
       </c>
       <c r="G58" t="n">
-        <v>-111898.5578758045</v>
+        <v>-97834.82105745113</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>66.22</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>66.22</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>66.22</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>66.22</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>72</v>
+        <v>121.4534</v>
       </c>
       <c r="G59" t="n">
-        <v>-111898.5578758045</v>
+        <v>-97834.82105745113</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>66.23</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>66.23</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>66.23</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>66.23</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>374.983</v>
+        <v>36</v>
       </c>
       <c r="G60" t="n">
-        <v>-111523.5748758046</v>
+        <v>-97834.82105745113</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>66.23</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>67.40000000000001</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>67.40000000000001</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>66.23</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>5969.378025163205</v>
+        <v>18</v>
       </c>
       <c r="G61" t="n">
-        <v>-105554.1968506413</v>
+        <v>-97834.82105745113</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>66.3</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>66.3</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>66.3</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>66.3</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G62" t="n">
-        <v>-105572.1968506413</v>
+        <v>-97826.82105745113</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>66.23</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>66.31</v>
+        <v>66.41</v>
       </c>
       <c r="D63" t="n">
-        <v>66.31</v>
+        <v>66.41</v>
       </c>
       <c r="E63" t="n">
-        <v>66.23</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="G63" t="n">
-        <v>-105518.1968506413</v>
+        <v>-97862.82105745113</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>66.23</v>
+        <v>66.41</v>
       </c>
       <c r="C64" t="n">
-        <v>66.23</v>
+        <v>66.41</v>
       </c>
       <c r="D64" t="n">
-        <v>66.23</v>
+        <v>66.41</v>
       </c>
       <c r="E64" t="n">
-        <v>66.23</v>
+        <v>66.41</v>
       </c>
       <c r="F64" t="n">
-        <v>765.9395</v>
+        <v>2383.245</v>
       </c>
       <c r="G64" t="n">
-        <v>-106284.1363506413</v>
+        <v>-97862.82105745113</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>66.23999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>66.31</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>66.31</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>66.23999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>54</v>
+        <v>5182.0782</v>
       </c>
       <c r="G65" t="n">
-        <v>-106230.1363506413</v>
+        <v>-103044.8992574511</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>67.40000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>67.40000000000001</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>67.40000000000001</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>67.40000000000001</v>
+        <v>66</v>
       </c>
       <c r="F66" t="n">
-        <v>8</v>
+        <v>27104.8468</v>
       </c>
       <c r="G66" t="n">
-        <v>-106222.1363506413</v>
+        <v>-75940.05245745114</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>66.3</v>
+        <v>66</v>
       </c>
       <c r="D67" t="n">
-        <v>66.3</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>66.3</v>
+        <v>66</v>
       </c>
       <c r="F67" t="n">
-        <v>18</v>
+        <v>1699</v>
       </c>
       <c r="G67" t="n">
-        <v>-106240.1363506413</v>
+        <v>-77639.05245745114</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,7 +2814,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>66.3</v>
+        <v>66.19</v>
       </c>
       <c r="C68" t="n">
         <v>66.3</v>
@@ -2823,13 +2823,13 @@
         <v>66.3</v>
       </c>
       <c r="E68" t="n">
-        <v>66.3</v>
+        <v>66.19</v>
       </c>
       <c r="F68" t="n">
-        <v>18</v>
+        <v>1342.5345</v>
       </c>
       <c r="G68" t="n">
-        <v>-106240.1363506413</v>
+        <v>-76296.51795745114</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>66.31</v>
+        <v>66.3</v>
       </c>
       <c r="C69" t="n">
-        <v>66.34999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="D69" t="n">
-        <v>66.34999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="E69" t="n">
-        <v>66.31</v>
+        <v>66.3</v>
       </c>
       <c r="F69" t="n">
-        <v>230.0977</v>
+        <v>54</v>
       </c>
       <c r="G69" t="n">
-        <v>-106010.0386506413</v>
+        <v>-76242.51795745114</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>67.79000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="C70" t="n">
-        <v>67.8</v>
+        <v>66.3</v>
       </c>
       <c r="D70" t="n">
-        <v>67.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>67.79000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="F70" t="n">
-        <v>1324.5234</v>
+        <v>1021.816298438881</v>
       </c>
       <c r="G70" t="n">
-        <v>-104685.5152506413</v>
+        <v>-77264.33425589002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>67.89</v>
+        <v>66.31</v>
       </c>
       <c r="C71" t="n">
-        <v>67.89</v>
+        <v>66.31</v>
       </c>
       <c r="D71" t="n">
-        <v>67.89</v>
+        <v>66.31</v>
       </c>
       <c r="E71" t="n">
-        <v>67.89</v>
+        <v>66.31</v>
       </c>
       <c r="F71" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G71" t="n">
-        <v>-104677.5152506413</v>
+        <v>-77246.33425589002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>66.7</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>66.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>66.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>66.7</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>125.463</v>
+        <v>18.97555228276878</v>
       </c>
       <c r="G72" t="n">
-        <v>-104802.9782506413</v>
+        <v>-77227.35870360726</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>66.3</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>66.7</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>66.7</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>66.3</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>197</v>
+        <v>14.4383</v>
       </c>
       <c r="G73" t="n">
-        <v>-104802.9782506413</v>
+        <v>-77241.79700360725</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>66.3</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>66.3</v>
+        <v>66.31</v>
       </c>
       <c r="D74" t="n">
-        <v>66.3</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>66.3</v>
+        <v>66.31</v>
       </c>
       <c r="F74" t="n">
-        <v>860.5236</v>
+        <v>293.2551</v>
       </c>
       <c r="G74" t="n">
-        <v>-105663.5018506413</v>
+        <v>-77535.05210360725</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,31 +3066,35 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>66.3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>66.31999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>66.31999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>66.3</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="G75" t="n">
-        <v>-105530.5018506413</v>
+        <v>-77527.05210360725</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K75" t="n">
+        <v>66.31</v>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
@@ -3102,22 +3106,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>66.33</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>66.7</v>
+        <v>66.31</v>
       </c>
       <c r="D76" t="n">
-        <v>66.7</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>66.33</v>
+        <v>66.31</v>
       </c>
       <c r="F76" t="n">
-        <v>413</v>
+        <v>340.96</v>
       </c>
       <c r="G76" t="n">
-        <v>-105117.5018506413</v>
+        <v>-77868.01210360725</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3126,8 +3130,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3138,22 +3148,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>66.31999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="C77" t="n">
-        <v>66.31999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="D77" t="n">
-        <v>66.31999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="E77" t="n">
-        <v>66.31999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="F77" t="n">
-        <v>143.7677</v>
+        <v>18</v>
       </c>
       <c r="G77" t="n">
-        <v>-105261.2695506413</v>
+        <v>-77868.01210360725</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3162,8 +3172,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3177,19 +3193,19 @@
         <v>66.31999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>66.33</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>66.33</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E78" t="n">
         <v>66.31999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G78" t="n">
-        <v>-105225.2695506413</v>
+        <v>-77842.01210360725</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3198,8 +3214,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3210,22 +3232,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>66.33</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C79" t="n">
         <v>66.31999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>66.33</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E79" t="n">
         <v>66.31999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G79" t="n">
-        <v>-105297.2695506413</v>
+        <v>-77860.01210360725</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3234,8 +3256,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3249,19 +3277,19 @@
         <v>66.33</v>
       </c>
       <c r="C80" t="n">
-        <v>66.34</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>66.34</v>
+        <v>67</v>
       </c>
       <c r="E80" t="n">
-        <v>66.33</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>36</v>
+        <v>36.98597014925373</v>
       </c>
       <c r="G80" t="n">
-        <v>-105261.2695506413</v>
+        <v>-77860.01210360725</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3270,8 +3298,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3282,22 +3316,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>66.7</v>
+        <v>66.33</v>
       </c>
       <c r="C81" t="n">
-        <v>67.59999999999999</v>
+        <v>66.33</v>
       </c>
       <c r="D81" t="n">
-        <v>67.59999999999999</v>
+        <v>66.33</v>
       </c>
       <c r="E81" t="n">
-        <v>66.7</v>
+        <v>66.33</v>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="G81" t="n">
-        <v>-104261.2695506413</v>
+        <v>-77842.01210360725</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3306,8 +3340,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3318,22 +3358,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>66.34999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>66.34999999999999</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>66.34999999999999</v>
+        <v>67.98999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>66.34999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F82" t="n">
         <v>18</v>
       </c>
       <c r="G82" t="n">
-        <v>-104279.2695506413</v>
+        <v>-77824.01210360725</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3342,8 +3382,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3354,22 +3400,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>67.59999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>67.59999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>67.59999999999999</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>67.59999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G83" t="n">
-        <v>-104271.2695506413</v>
+        <v>-77843.01210360725</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3378,8 +3424,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3390,22 +3442,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>67.59999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>67</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>67.59999999999999</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>67</v>
+        <v>66.51000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>226.4665</v>
+        <v>18</v>
       </c>
       <c r="G84" t="n">
-        <v>-104497.7360506413</v>
+        <v>-77843.01210360725</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3414,8 +3466,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3426,22 +3484,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>66.7</v>
+        <v>66.5</v>
       </c>
       <c r="C85" t="n">
-        <v>67.59999999999999</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>67.59999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="E85" t="n">
-        <v>66.5</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>694.4475</v>
+        <v>36</v>
       </c>
       <c r="G85" t="n">
-        <v>-103803.2885506413</v>
+        <v>-77879.01210360725</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3450,8 +3508,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3462,22 +3526,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>66.5</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>66.5</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>66.5</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>66.5</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>450</v>
+        <v>18</v>
       </c>
       <c r="G86" t="n">
-        <v>-104253.2885506413</v>
+        <v>-77879.01210360725</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3486,8 +3550,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3498,22 +3568,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>66.5</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C87" t="n">
-        <v>66.40000000000001</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>66.5</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>66.40000000000001</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>10.46</v>
+        <v>18</v>
       </c>
       <c r="G87" t="n">
-        <v>-104263.7485506413</v>
+        <v>-77879.01210360725</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3522,8 +3592,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3534,22 +3610,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>67</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>67</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>67</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>67</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>1200</v>
+        <v>36</v>
       </c>
       <c r="G88" t="n">
-        <v>-103063.7485506413</v>
+        <v>-77879.01210360725</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3558,8 +3634,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3570,22 +3652,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>66.90000000000001</v>
+        <v>67.98</v>
       </c>
       <c r="C89" t="n">
-        <v>66.90000000000001</v>
+        <v>67.98</v>
       </c>
       <c r="D89" t="n">
-        <v>66.90000000000001</v>
+        <v>67.98</v>
       </c>
       <c r="E89" t="n">
-        <v>66.90000000000001</v>
+        <v>67.98</v>
       </c>
       <c r="F89" t="n">
-        <v>225</v>
+        <v>8</v>
       </c>
       <c r="G89" t="n">
-        <v>-103288.7485506413</v>
+        <v>-77871.01210360725</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3594,8 +3676,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3606,22 +3694,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>66.7</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="C90" t="n">
-        <v>66.34999999999999</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>66.7</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>66.34999999999999</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>14182.0144</v>
+        <v>18</v>
       </c>
       <c r="G90" t="n">
-        <v>-117470.7629506413</v>
+        <v>-77889.01210360725</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3630,8 +3718,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3642,22 +3736,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>66.34999999999999</v>
+        <v>66.33</v>
       </c>
       <c r="C91" t="n">
-        <v>66.34999999999999</v>
+        <v>66.33</v>
       </c>
       <c r="D91" t="n">
-        <v>66.34999999999999</v>
+        <v>66.33</v>
       </c>
       <c r="E91" t="n">
-        <v>66.34999999999999</v>
+        <v>66.33</v>
       </c>
       <c r="F91" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G91" t="n">
-        <v>-117470.7629506413</v>
+        <v>-77871.01210360725</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3666,8 +3760,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3678,22 +3778,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>66.36</v>
+        <v>66.33</v>
       </c>
       <c r="C92" t="n">
-        <v>66.40000000000001</v>
+        <v>66.33</v>
       </c>
       <c r="D92" t="n">
-        <v>66.40000000000001</v>
+        <v>66.33</v>
       </c>
       <c r="E92" t="n">
-        <v>66.36</v>
+        <v>66.33</v>
       </c>
       <c r="F92" t="n">
-        <v>300.669</v>
+        <v>36</v>
       </c>
       <c r="G92" t="n">
-        <v>-117170.0939506413</v>
+        <v>-77871.01210360725</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3702,8 +3802,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3714,22 +3820,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>66.40000000000001</v>
+        <v>66.33</v>
       </c>
       <c r="C93" t="n">
-        <v>66.40000000000001</v>
+        <v>66.33</v>
       </c>
       <c r="D93" t="n">
-        <v>66.40000000000001</v>
+        <v>66.33</v>
       </c>
       <c r="E93" t="n">
-        <v>66.40000000000001</v>
+        <v>66.33</v>
       </c>
       <c r="F93" t="n">
         <v>18</v>
       </c>
       <c r="G93" t="n">
-        <v>-117170.0939506413</v>
+        <v>-77871.01210360725</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3738,8 +3844,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3750,22 +3862,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>67.59999999999999</v>
+        <v>67.98</v>
       </c>
       <c r="C94" t="n">
-        <v>67.59999999999999</v>
+        <v>67.98</v>
       </c>
       <c r="D94" t="n">
-        <v>67.59999999999999</v>
+        <v>67.98</v>
       </c>
       <c r="E94" t="n">
-        <v>67.59999999999999</v>
+        <v>67.98</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>469</v>
       </c>
       <c r="G94" t="n">
-        <v>-117160.0939506413</v>
+        <v>-77402.01210360725</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3774,8 +3886,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3786,22 +3904,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>67</v>
+        <v>67.3</v>
       </c>
       <c r="C95" t="n">
-        <v>67</v>
+        <v>66.34</v>
       </c>
       <c r="D95" t="n">
-        <v>67</v>
+        <v>67.3</v>
       </c>
       <c r="E95" t="n">
-        <v>67</v>
+        <v>66.34</v>
       </c>
       <c r="F95" t="n">
-        <v>190.4149</v>
+        <v>976</v>
       </c>
       <c r="G95" t="n">
-        <v>-117350.5088506413</v>
+        <v>-78378.01210360725</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3810,8 +3928,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3822,22 +3946,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>67</v>
+        <v>67.3</v>
       </c>
       <c r="C96" t="n">
-        <v>67</v>
+        <v>67.3</v>
       </c>
       <c r="D96" t="n">
-        <v>67</v>
+        <v>67.3</v>
       </c>
       <c r="E96" t="n">
-        <v>67</v>
+        <v>67.3</v>
       </c>
       <c r="F96" t="n">
-        <v>36.49</v>
+        <v>8</v>
       </c>
       <c r="G96" t="n">
-        <v>-117350.5088506413</v>
+        <v>-78370.01210360725</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3846,8 +3970,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3858,22 +3988,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>66.90000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="C97" t="n">
-        <v>66.7</v>
+        <v>66</v>
       </c>
       <c r="D97" t="n">
-        <v>66.90000000000001</v>
+        <v>67.3</v>
       </c>
       <c r="E97" t="n">
-        <v>66.7</v>
+        <v>66</v>
       </c>
       <c r="F97" t="n">
-        <v>60.1615</v>
+        <v>39902</v>
       </c>
       <c r="G97" t="n">
-        <v>-117410.6703506413</v>
+        <v>-118272.0121036073</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3882,8 +4012,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3894,22 +4030,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>66.7</v>
+        <v>67.3</v>
       </c>
       <c r="C98" t="n">
-        <v>66.7</v>
+        <v>67.3</v>
       </c>
       <c r="D98" t="n">
-        <v>66.7</v>
+        <v>67.3</v>
       </c>
       <c r="E98" t="n">
-        <v>66.7</v>
+        <v>67.3</v>
       </c>
       <c r="F98" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G98" t="n">
-        <v>-117410.6703506413</v>
+        <v>-118264.0121036073</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3918,8 +4054,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3933,19 +4075,19 @@
         <v>67</v>
       </c>
       <c r="C99" t="n">
-        <v>66.5</v>
+        <v>67</v>
       </c>
       <c r="D99" t="n">
         <v>67</v>
       </c>
       <c r="E99" t="n">
-        <v>66.5</v>
+        <v>67</v>
       </c>
       <c r="F99" t="n">
-        <v>307.51</v>
+        <v>315.238</v>
       </c>
       <c r="G99" t="n">
-        <v>-117718.1803506413</v>
+        <v>-118579.2501036072</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3954,8 +4096,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3966,22 +4114,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>67</v>
+        <v>66.11</v>
       </c>
       <c r="C100" t="n">
-        <v>67</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>67</v>
+        <v>66.11</v>
       </c>
       <c r="E100" t="n">
-        <v>67</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F100" t="n">
-        <v>33.5116</v>
+        <v>250</v>
       </c>
       <c r="G100" t="n">
-        <v>-117684.6687506413</v>
+        <v>-118829.2501036072</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3990,8 +4138,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4002,22 +4156,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>67.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>67.2</v>
+        <v>66.2</v>
       </c>
       <c r="D101" t="n">
-        <v>67.2</v>
+        <v>66.98</v>
       </c>
       <c r="E101" t="n">
-        <v>67.2</v>
+        <v>66.2</v>
       </c>
       <c r="F101" t="n">
-        <v>19.201</v>
+        <v>15080</v>
       </c>
       <c r="G101" t="n">
-        <v>-117665.4677506413</v>
+        <v>-103749.2501036072</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4026,8 +4180,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +4198,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>67.01000000000001</v>
+        <v>66.97</v>
       </c>
       <c r="C102" t="n">
-        <v>67.01000000000001</v>
+        <v>66.97</v>
       </c>
       <c r="D102" t="n">
-        <v>67.01000000000001</v>
+        <v>66.97</v>
       </c>
       <c r="E102" t="n">
-        <v>67.01000000000001</v>
+        <v>66.97</v>
       </c>
       <c r="F102" t="n">
-        <v>17.428</v>
+        <v>8</v>
       </c>
       <c r="G102" t="n">
-        <v>-117682.8957506413</v>
+        <v>-103741.2501036072</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4062,8 +4222,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4074,22 +4240,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>67.01000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="C103" t="n">
-        <v>67.01000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="D103" t="n">
-        <v>67.01000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="E103" t="n">
-        <v>67.01000000000001</v>
+        <v>66.2</v>
       </c>
       <c r="F103" t="n">
-        <v>1.972</v>
+        <v>23.9</v>
       </c>
       <c r="G103" t="n">
-        <v>-117682.8957506413</v>
+        <v>-103765.1501036072</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4098,8 +4264,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4110,22 +4282,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>67.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>67.90000000000001</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>67.90000000000001</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>67.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F104" t="n">
-        <v>8</v>
+        <v>349.7725</v>
       </c>
       <c r="G104" t="n">
-        <v>-117674.8957506413</v>
+        <v>-103415.3776036072</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4134,8 +4306,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4146,22 +4324,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>67.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>67.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>67.3</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>67.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F105" t="n">
-        <v>279.01</v>
+        <v>9</v>
       </c>
       <c r="G105" t="n">
-        <v>-117953.9057506413</v>
+        <v>-103415.3776036072</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4170,8 +4348,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4182,22 +4366,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>67.11</v>
+        <v>66.2</v>
       </c>
       <c r="C106" t="n">
-        <v>67.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>67.2</v>
+        <v>66.2</v>
       </c>
       <c r="E106" t="n">
-        <v>67.05</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>40.7643</v>
+        <v>143.4507</v>
       </c>
       <c r="G106" t="n">
-        <v>-117953.9057506413</v>
+        <v>-103558.8283036072</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4206,8 +4390,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4218,22 +4408,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>67.2</v>
+        <v>66.19</v>
       </c>
       <c r="C107" t="n">
-        <v>66.55</v>
+        <v>66.2</v>
       </c>
       <c r="D107" t="n">
-        <v>67.2</v>
+        <v>66.2</v>
       </c>
       <c r="E107" t="n">
-        <v>66.55</v>
+        <v>66.19</v>
       </c>
       <c r="F107" t="n">
-        <v>987.5096</v>
+        <v>292.2252</v>
       </c>
       <c r="G107" t="n">
-        <v>-118941.4153506413</v>
+        <v>-103266.6031036072</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4242,8 +4432,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4254,22 +4450,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>67.2</v>
+        <v>66.2</v>
       </c>
       <c r="C108" t="n">
-        <v>67.2</v>
+        <v>66.3</v>
       </c>
       <c r="D108" t="n">
-        <v>67.2</v>
+        <v>66.3</v>
       </c>
       <c r="E108" t="n">
-        <v>67.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F108" t="n">
-        <v>8</v>
+        <v>761</v>
       </c>
       <c r="G108" t="n">
-        <v>-118933.4153506413</v>
+        <v>-102505.6031036072</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4278,8 +4474,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4290,22 +4492,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>67.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>66.7</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>67.2</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>66.7</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>51117.2196</v>
+        <v>18</v>
       </c>
       <c r="G109" t="n">
-        <v>-170050.6349506413</v>
+        <v>-102523.6031036072</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4314,8 +4516,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4326,22 +4534,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>67</v>
+        <v>66.11</v>
       </c>
       <c r="C110" t="n">
-        <v>67</v>
+        <v>66.11</v>
       </c>
       <c r="D110" t="n">
-        <v>67</v>
+        <v>66.11</v>
       </c>
       <c r="E110" t="n">
-        <v>67</v>
+        <v>66.11</v>
       </c>
       <c r="F110" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G110" t="n">
-        <v>-170042.6349506413</v>
+        <v>-102487.6031036072</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4350,8 +4558,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4362,22 +4576,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>66.56</v>
+        <v>66.11</v>
       </c>
       <c r="C111" t="n">
-        <v>66.56</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>66.56</v>
+        <v>66.11</v>
       </c>
       <c r="E111" t="n">
-        <v>66.56</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>12.4162</v>
+        <v>132</v>
       </c>
       <c r="G111" t="n">
-        <v>-170055.0511506413</v>
+        <v>-102619.6031036072</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4386,8 +4600,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4398,22 +4618,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>66.56</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>66.56</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>66.56</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>66.56</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>4647.7768</v>
+        <v>36</v>
       </c>
       <c r="G112" t="n">
-        <v>-170055.0511506413</v>
+        <v>-102619.6031036072</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4422,8 +4642,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4434,22 +4660,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>66.26000000000001</v>
+        <v>66.11</v>
       </c>
       <c r="C113" t="n">
         <v>66.2</v>
       </c>
       <c r="D113" t="n">
-        <v>66.26000000000001</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>66.2</v>
+        <v>66.11</v>
       </c>
       <c r="F113" t="n">
-        <v>1444.3455</v>
+        <v>4375.95704618834</v>
       </c>
       <c r="G113" t="n">
-        <v>-171499.3966506413</v>
+        <v>-98243.6460574189</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4458,8 +4684,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4473,19 +4705,19 @@
         <v>66.2</v>
       </c>
       <c r="C114" t="n">
-        <v>66.2</v>
+        <v>66.11</v>
       </c>
       <c r="D114" t="n">
-        <v>66.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>66.2</v>
+        <v>66.11</v>
       </c>
       <c r="F114" t="n">
-        <v>3268.1459</v>
+        <v>1007.61401838565</v>
       </c>
       <c r="G114" t="n">
-        <v>-171499.3966506413</v>
+        <v>-99251.26007580454</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4494,8 +4726,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4506,22 +4744,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>66.16</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>66.16</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>66.16</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>66.06</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>13266.7695</v>
+        <v>8</v>
       </c>
       <c r="G115" t="n">
-        <v>-184766.1661506413</v>
+        <v>-99243.26007580454</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4530,8 +4768,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4542,22 +4786,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>66.2</v>
+        <v>66.77</v>
       </c>
       <c r="C116" t="n">
         <v>66.2</v>
       </c>
       <c r="D116" t="n">
-        <v>66.2</v>
+        <v>66.77</v>
       </c>
       <c r="E116" t="n">
         <v>66.2</v>
       </c>
       <c r="F116" t="n">
-        <v>353.6748</v>
+        <v>16.8783</v>
       </c>
       <c r="G116" t="n">
-        <v>-184412.4913506413</v>
+        <v>-99260.13837580454</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4566,8 +4810,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4578,22 +4828,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>66.79000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="C117" t="n">
-        <v>66.79000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="D117" t="n">
-        <v>66.79000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="E117" t="n">
-        <v>66.79000000000001</v>
+        <v>66.8</v>
       </c>
       <c r="F117" t="n">
         <v>8</v>
       </c>
       <c r="G117" t="n">
-        <v>-184404.4913506413</v>
+        <v>-99252.13837580454</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4602,8 +4852,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4614,22 +4870,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>66.2</v>
+        <v>66.11</v>
       </c>
       <c r="C118" t="n">
-        <v>66.16</v>
+        <v>66.11</v>
       </c>
       <c r="D118" t="n">
-        <v>66.2</v>
+        <v>66.11</v>
       </c>
       <c r="E118" t="n">
-        <v>66.16</v>
+        <v>66.11</v>
       </c>
       <c r="F118" t="n">
-        <v>11215.8811</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>-195620.3724506413</v>
+        <v>-99253.13837580454</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4638,8 +4894,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4650,22 +4912,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>66.5</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>66.5</v>
+        <v>66.2</v>
       </c>
       <c r="D119" t="n">
-        <v>66.5</v>
+        <v>66.2</v>
       </c>
       <c r="E119" t="n">
-        <v>66.5</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F119" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="G119" t="n">
-        <v>-195612.3724506413</v>
+        <v>-99200.13837580454</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4674,8 +4936,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4686,22 +4954,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="C120" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="D120" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="E120" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="F120" t="n">
-        <v>324.7809</v>
+        <v>18</v>
       </c>
       <c r="G120" t="n">
-        <v>-195937.1533506413</v>
+        <v>-99200.13837580454</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4710,8 +4978,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4722,22 +4996,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>66.3</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>66.3</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>66.3</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>66.3</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="F121" t="n">
-        <v>537.3687</v>
+        <v>617.5511</v>
       </c>
       <c r="G121" t="n">
-        <v>-195937.1533506413</v>
+        <v>-98582.58727580454</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4746,8 +5020,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4758,22 +5038,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>66.3</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>66.5</v>
+        <v>66.2</v>
       </c>
       <c r="D122" t="n">
-        <v>66.5</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>66.3</v>
+        <v>66.2</v>
       </c>
       <c r="F122" t="n">
-        <v>335.209</v>
+        <v>343.49</v>
       </c>
       <c r="G122" t="n">
-        <v>-195601.9443506413</v>
+        <v>-98926.07727580455</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4782,8 +5062,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4794,36 +5080,38 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>66.8</v>
+        <v>66.2</v>
       </c>
       <c r="C123" t="n">
-        <v>67.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="D123" t="n">
-        <v>67.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="E123" t="n">
-        <v>66.8</v>
+        <v>66.2</v>
       </c>
       <c r="F123" t="n">
-        <v>774.2198</v>
+        <v>18</v>
       </c>
       <c r="G123" t="n">
-        <v>-194827.7245506413</v>
+        <v>-98926.07727580455</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>66.5</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="L123" t="inlineStr"/>
+        <v>66.31</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4834,22 +5122,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>67</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>67.09999999999999</v>
+        <v>66.22</v>
       </c>
       <c r="D124" t="n">
-        <v>67.09999999999999</v>
+        <v>66.22</v>
       </c>
       <c r="E124" t="n">
-        <v>67</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>431</v>
+        <v>36</v>
       </c>
       <c r="G124" t="n">
-        <v>-194827.7245506413</v>
+        <v>-98890.07727580455</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4859,11 +5147,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>66.5</v>
+        <v>66.31</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M124" t="n">
@@ -4876,22 +5164,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>66.5</v>
+        <v>66.31</v>
       </c>
       <c r="C125" t="n">
-        <v>66.5</v>
+        <v>66.31</v>
       </c>
       <c r="D125" t="n">
-        <v>66.5</v>
+        <v>66.31</v>
       </c>
       <c r="E125" t="n">
-        <v>66.5</v>
+        <v>66.31</v>
       </c>
       <c r="F125" t="n">
-        <v>139.5563</v>
+        <v>384.8787</v>
       </c>
       <c r="G125" t="n">
-        <v>-194967.2808506413</v>
+        <v>-98505.19857580455</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4901,11 +5189,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>66.5</v>
+        <v>66.31</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M125" t="n">
@@ -4918,36 +5206,38 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>66.5</v>
+        <v>66.45</v>
       </c>
       <c r="C126" t="n">
-        <v>66.5</v>
+        <v>66.31</v>
       </c>
       <c r="D126" t="n">
-        <v>66.5</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>66.5</v>
+        <v>66.31</v>
       </c>
       <c r="F126" t="n">
-        <v>6.1867</v>
+        <v>1536</v>
       </c>
       <c r="G126" t="n">
-        <v>-194967.2808506413</v>
+        <v>-98505.19857580455</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>66.5</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="L126" t="inlineStr"/>
+        <v>66.31</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4958,38 +5248,36 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>67.09999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="C127" t="n">
-        <v>67.2</v>
+        <v>66.22</v>
       </c>
       <c r="D127" t="n">
-        <v>67.2</v>
+        <v>66.31</v>
       </c>
       <c r="E127" t="n">
-        <v>67.09999999999999</v>
+        <v>66.22</v>
       </c>
       <c r="F127" t="n">
-        <v>5007.0101</v>
+        <v>13393.3593</v>
       </c>
       <c r="G127" t="n">
-        <v>-189960.2707506413</v>
+        <v>-111898.5578758045</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>66.5</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>66.5</v>
+        <v>66.31</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M127" t="n">
@@ -5002,38 +5290,36 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>67.09999999999999</v>
+        <v>66.22</v>
       </c>
       <c r="C128" t="n">
-        <v>67.09999999999999</v>
+        <v>66.22</v>
       </c>
       <c r="D128" t="n">
-        <v>67.09999999999999</v>
+        <v>66.22</v>
       </c>
       <c r="E128" t="n">
-        <v>67.09999999999999</v>
+        <v>66.22</v>
       </c>
       <c r="F128" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G128" t="n">
-        <v>-189996.2707506413</v>
+        <v>-111898.5578758045</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>67.2</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>66.5</v>
+        <v>66.31</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M128" t="n">
@@ -5046,36 +5332,38 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>67.2</v>
+        <v>66.22</v>
       </c>
       <c r="C129" t="n">
-        <v>67.2</v>
+        <v>66.22</v>
       </c>
       <c r="D129" t="n">
-        <v>67.2</v>
+        <v>66.22</v>
       </c>
       <c r="E129" t="n">
-        <v>67.2</v>
+        <v>66.22</v>
       </c>
       <c r="F129" t="n">
-        <v>201.2826</v>
+        <v>1325.8941</v>
       </c>
       <c r="G129" t="n">
-        <v>-189794.9881506413</v>
+        <v>-111898.5578758045</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>67.09999999999999</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="L129" t="inlineStr"/>
+        <v>66.31</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5086,38 +5374,36 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>67.2</v>
+        <v>66.22</v>
       </c>
       <c r="C130" t="n">
-        <v>67.2</v>
+        <v>66.22</v>
       </c>
       <c r="D130" t="n">
-        <v>67.2</v>
+        <v>66.22</v>
       </c>
       <c r="E130" t="n">
-        <v>67.2</v>
+        <v>66.22</v>
       </c>
       <c r="F130" t="n">
-        <v>342.8558</v>
+        <v>72</v>
       </c>
       <c r="G130" t="n">
-        <v>-189794.9881506413</v>
+        <v>-111898.5578758045</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>67.2</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>67.09999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M130" t="n">
@@ -5130,38 +5416,36 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>67.12</v>
+        <v>66.23</v>
       </c>
       <c r="C131" t="n">
-        <v>67.11</v>
+        <v>66.23</v>
       </c>
       <c r="D131" t="n">
-        <v>67.12</v>
+        <v>66.23</v>
       </c>
       <c r="E131" t="n">
-        <v>67.11</v>
+        <v>66.23</v>
       </c>
       <c r="F131" t="n">
-        <v>4516.5723</v>
+        <v>374.983</v>
       </c>
       <c r="G131" t="n">
-        <v>-194311.5604506413</v>
+        <v>-111523.5748758046</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>67.2</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>67.09999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M131" t="n">
@@ -5174,38 +5458,36 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>67.2</v>
+        <v>66.23</v>
       </c>
       <c r="C132" t="n">
-        <v>67.09999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>67.2</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>67.09999999999999</v>
+        <v>66.23</v>
       </c>
       <c r="F132" t="n">
-        <v>11939.2891</v>
+        <v>5969.378025163205</v>
       </c>
       <c r="G132" t="n">
-        <v>-206250.8495506413</v>
+        <v>-105554.1968506413</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>67.11</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>67.09999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M132" t="n">
@@ -5218,34 +5500,32 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>67.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="C133" t="n">
-        <v>67.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="D133" t="n">
-        <v>67.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="E133" t="n">
-        <v>67.09999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="F133" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G133" t="n">
-        <v>-206250.8495506413</v>
+        <v>-105572.1968506413</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>67.09999999999999</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>67.09999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5262,44 +5542,3072 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>66.23</v>
+      </c>
+      <c r="C134" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="D134" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="E134" t="n">
+        <v>66.23</v>
+      </c>
+      <c r="F134" t="n">
+        <v>54</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-105518.1968506413</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>66.23</v>
+      </c>
+      <c r="C135" t="n">
+        <v>66.23</v>
+      </c>
+      <c r="D135" t="n">
+        <v>66.23</v>
+      </c>
+      <c r="E135" t="n">
+        <v>66.23</v>
+      </c>
+      <c r="F135" t="n">
+        <v>765.9395</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-106284.1363506413</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>66.23999999999999</v>
+      </c>
+      <c r="C136" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="D136" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="E136" t="n">
+        <v>66.23999999999999</v>
+      </c>
+      <c r="F136" t="n">
+        <v>54</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-106230.1363506413</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="C137" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="D137" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="E137" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="F137" t="n">
+        <v>8</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-106222.1363506413</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D138" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E138" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F138" t="n">
+        <v>18</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-106240.1363506413</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C139" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D139" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E139" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F139" t="n">
+        <v>18</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-106240.1363506413</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="C140" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="D140" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="E140" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="F140" t="n">
+        <v>230.0977</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-106010.0386506413</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>67.79000000000001</v>
+      </c>
+      <c r="C141" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>67.79000000000001</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1324.5234</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-104685.5152506413</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>67.89</v>
+      </c>
+      <c r="C142" t="n">
+        <v>67.89</v>
+      </c>
+      <c r="D142" t="n">
+        <v>67.89</v>
+      </c>
+      <c r="E142" t="n">
+        <v>67.89</v>
+      </c>
+      <c r="F142" t="n">
+        <v>8</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-104677.5152506413</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C143" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D143" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E143" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F143" t="n">
+        <v>125.463</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-104802.9782506413</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D144" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F144" t="n">
+        <v>197</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-104802.9782506413</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C145" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D145" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E145" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>860.5236</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-105663.5018506413</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="D146" t="n">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="E146" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>133</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-105530.5018506413</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>66.33</v>
+      </c>
+      <c r="C147" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D147" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>66.33</v>
+      </c>
+      <c r="F147" t="n">
+        <v>413</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-105117.5018506413</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="C148" t="n">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="D148" t="n">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="E148" t="n">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="F148" t="n">
+        <v>143.7677</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-105261.2695506413</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="C149" t="n">
+        <v>66.33</v>
+      </c>
+      <c r="D149" t="n">
+        <v>66.33</v>
+      </c>
+      <c r="E149" t="n">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="F149" t="n">
+        <v>36</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-105225.2695506413</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>66.33</v>
+      </c>
+      <c r="C150" t="n">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="D150" t="n">
+        <v>66.33</v>
+      </c>
+      <c r="E150" t="n">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="F150" t="n">
+        <v>72</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-105297.2695506413</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>66.33</v>
+      </c>
+      <c r="C151" t="n">
+        <v>66.34</v>
+      </c>
+      <c r="D151" t="n">
+        <v>66.34</v>
+      </c>
+      <c r="E151" t="n">
+        <v>66.33</v>
+      </c>
+      <c r="F151" t="n">
+        <v>36</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-105261.2695506413</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C152" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D152" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E152" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-104261.2695506413</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>66.34</v>
+      </c>
+      <c r="K152" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="C153" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="D153" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="E153" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="F153" t="n">
+        <v>18</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-104279.2695506413</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C154" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D154" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E154" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F154" t="n">
+        <v>8</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-104271.2695506413</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="K154" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C155" t="n">
+        <v>67</v>
+      </c>
+      <c r="D155" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E155" t="n">
+        <v>67</v>
+      </c>
+      <c r="F155" t="n">
+        <v>226.4665</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-104497.7360506413</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C156" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D156" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E156" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F156" t="n">
+        <v>694.4475</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-103803.2885506413</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C157" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>450</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-104253.2885506413</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="K157" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C158" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="D158" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E158" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10.46</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-104263.7485506413</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K158" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>67</v>
+      </c>
+      <c r="C159" t="n">
+        <v>67</v>
+      </c>
+      <c r="D159" t="n">
+        <v>67</v>
+      </c>
+      <c r="E159" t="n">
+        <v>67</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-103063.7485506413</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="K159" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C160" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D160" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E160" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="F160" t="n">
+        <v>225</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-103288.7485506413</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>67</v>
+      </c>
+      <c r="K160" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C161" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="D161" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E161" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="F161" t="n">
+        <v>14182.0144</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-117470.7629506413</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="K161" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="C162" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="D162" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="E162" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="F162" t="n">
+        <v>36</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-117470.7629506413</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="K162" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>66.36</v>
+      </c>
+      <c r="C163" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="D163" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="E163" t="n">
+        <v>66.36</v>
+      </c>
+      <c r="F163" t="n">
+        <v>300.669</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-117170.0939506413</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="K163" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="C164" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="D164" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="E164" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="F164" t="n">
+        <v>18</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-117170.0939506413</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="K164" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="C165" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="D165" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="E165" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="F165" t="n">
+        <v>10</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-117160.0939506413</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="K165" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>67</v>
+      </c>
+      <c r="C166" t="n">
+        <v>67</v>
+      </c>
+      <c r="D166" t="n">
+        <v>67</v>
+      </c>
+      <c r="E166" t="n">
+        <v>67</v>
+      </c>
+      <c r="F166" t="n">
+        <v>190.4149</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-117350.5088506413</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>67</v>
+      </c>
+      <c r="C167" t="n">
+        <v>67</v>
+      </c>
+      <c r="D167" t="n">
+        <v>67</v>
+      </c>
+      <c r="E167" t="n">
+        <v>67</v>
+      </c>
+      <c r="F167" t="n">
+        <v>36.49</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-117350.5088506413</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="C168" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D168" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="E168" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F168" t="n">
+        <v>60.1615</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-117410.6703506413</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C169" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D169" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="E169" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F169" t="n">
+        <v>20</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-117410.6703506413</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>67</v>
+      </c>
+      <c r="C170" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D170" t="n">
+        <v>67</v>
+      </c>
+      <c r="E170" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>307.51</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-117718.1803506413</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="K170" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>67</v>
+      </c>
+      <c r="C171" t="n">
+        <v>67</v>
+      </c>
+      <c r="D171" t="n">
+        <v>67</v>
+      </c>
+      <c r="E171" t="n">
+        <v>67</v>
+      </c>
+      <c r="F171" t="n">
+        <v>33.5116</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-117684.6687506413</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K171" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D172" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E172" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>19.201</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-117665.4677506413</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>67</v>
+      </c>
+      <c r="K172" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="C173" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="D173" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="E173" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="F173" t="n">
+        <v>17.428</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-117682.8957506413</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="C174" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="D174" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="E174" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1.972</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-117682.8957506413</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="K174" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C175" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="D175" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="E175" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F175" t="n">
+        <v>8</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-117674.8957506413</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>67.01000000000001</v>
+      </c>
+      <c r="K175" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C176" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D176" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="E176" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F176" t="n">
+        <v>279.01</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-117953.9057506413</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>67.11</v>
+      </c>
+      <c r="C177" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E177" t="n">
+        <v>67.05</v>
+      </c>
+      <c r="F177" t="n">
+        <v>40.7643</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-117953.9057506413</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C178" t="n">
+        <v>66.55</v>
+      </c>
+      <c r="D178" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E178" t="n">
+        <v>66.55</v>
+      </c>
+      <c r="F178" t="n">
+        <v>987.5096</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-118941.4153506413</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C179" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D179" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E179" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F179" t="n">
+        <v>8</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-118933.4153506413</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C180" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="D180" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E180" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="F180" t="n">
+        <v>51117.2196</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-170050.6349506413</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>67</v>
+      </c>
+      <c r="C181" t="n">
+        <v>67</v>
+      </c>
+      <c r="D181" t="n">
+        <v>67</v>
+      </c>
+      <c r="E181" t="n">
+        <v>67</v>
+      </c>
+      <c r="F181" t="n">
+        <v>8</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-170042.6349506413</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="C182" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="D182" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="E182" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="F182" t="n">
+        <v>12.4162</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-170055.0511506413</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="C183" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="D183" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="E183" t="n">
+        <v>66.56</v>
+      </c>
+      <c r="F183" t="n">
+        <v>4647.7768</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-170055.0511506413</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="C184" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="E184" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1444.3455</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-171499.3966506413</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D185" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E185" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F185" t="n">
+        <v>3268.1459</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-171499.3966506413</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="C186" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="D186" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="E186" t="n">
+        <v>66.06</v>
+      </c>
+      <c r="F186" t="n">
+        <v>13266.7695</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-184766.1661506413</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="C187" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D187" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E187" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F187" t="n">
+        <v>353.6748</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-184412.4913506413</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>66.79000000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>66.79000000000001</v>
+      </c>
+      <c r="D188" t="n">
+        <v>66.79000000000001</v>
+      </c>
+      <c r="E188" t="n">
+        <v>66.79000000000001</v>
+      </c>
+      <c r="F188" t="n">
+        <v>8</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-184404.4913506413</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="C189" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="D189" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="F189" t="n">
+        <v>11215.8811</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-195620.3724506413</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C190" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D190" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E190" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F190" t="n">
+        <v>8</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-195612.3724506413</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C191" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D191" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E191" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F191" t="n">
+        <v>324.7809</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-195937.1533506413</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C192" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D192" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E192" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F192" t="n">
+        <v>537.3687</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-195937.1533506413</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="K192" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C193" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D193" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E193" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>335.209</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-195601.9443506413</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="C194" t="n">
         <v>67.09999999999999</v>
       </c>
-      <c r="C134" t="n">
+      <c r="D194" t="n">
         <v>67.09999999999999</v>
       </c>
-      <c r="D134" t="n">
+      <c r="E194" t="n">
+        <v>66.8</v>
+      </c>
+      <c r="F194" t="n">
+        <v>774.2198</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-194827.7245506413</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K194" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>67</v>
+      </c>
+      <c r="C195" t="n">
         <v>67.09999999999999</v>
       </c>
-      <c r="E134" t="n">
+      <c r="D195" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="E195" t="n">
+        <v>67</v>
+      </c>
+      <c r="F195" t="n">
+        <v>431</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-194827.7245506413</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C196" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D196" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E196" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F196" t="n">
+        <v>139.5563</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-194967.2808506413</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="K196" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="C197" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="D197" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="E197" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F197" t="n">
+        <v>6.1867</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-194967.2808506413</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K197" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C198" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E198" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F198" t="n">
+        <v>5007.0101</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-189960.2707506413</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="K198" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C199" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D199" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="E199" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F199" t="n">
+        <v>36</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-189996.2707506413</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="K199" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C200" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D200" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E200" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F200" t="n">
+        <v>201.2826</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-189794.9881506413</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="K200" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C201" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D201" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E201" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="F201" t="n">
+        <v>342.8558</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-189794.9881506413</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="K201" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>67.12</v>
+      </c>
+      <c r="C202" t="n">
+        <v>67.11</v>
+      </c>
+      <c r="D202" t="n">
+        <v>67.12</v>
+      </c>
+      <c r="E202" t="n">
+        <v>67.11</v>
+      </c>
+      <c r="F202" t="n">
+        <v>4516.5723</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-194311.5604506413</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="C203" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D203" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="E203" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F203" t="n">
+        <v>11939.2891</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-206250.8495506413</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C204" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D204" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="E204" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="F204" t="n">
+        <v>8</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-206250.8495506413</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="D205" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="E205" t="n">
         <v>67.09</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F205" t="n">
         <v>1204.8385</v>
       </c>
-      <c r="G134" t="n">
+      <c r="G205" t="n">
         <v>-206250.8495506413</v>
       </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="K134" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-23 BackTest FX.xlsx
+++ b/BackTest/2020-01-23 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>-45165.87615747522</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-45165.87615747522</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-25167.93555745115</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-27521.93555745115</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-27513.93555745115</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-27996.93555745115</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-27986.93555745115</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-28429.93555745115</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-33330.04565745115</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-33322.04565745115</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-72472.48205745115</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-72697.36545745116</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-71742.36545745116</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -2761,10 +2761,14 @@
         <v>-77227.35870360726</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="J72" t="n">
+        <v>66.31</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2794,11 +2798,19 @@
         <v>-77241.79700360725</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="J73" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +2842,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +2881,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +2920,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +2959,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +2998,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3037,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3076,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3115,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3154,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3193,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3232,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3271,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3310,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3349,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3388,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3427,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3466,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3505,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3544,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3583,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3619,19 @@
         <v>-77402.01210360725</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>66.33</v>
+      </c>
+      <c r="J94" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3663,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3702,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3741,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3780,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +3819,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +3858,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +3897,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3936,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +3975,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4014,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4053,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4092,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4131,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4170,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4209,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4248,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4287,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4326,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4365,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4404,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4443,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4482,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4521,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4560,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4599,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4638,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4677,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4716,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4755,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4794,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4833,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4872,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4911,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +4950,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4989,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +5028,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5067,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5106,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5145,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5184,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5223,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5262,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5301,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5340,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5379,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5418,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5457,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5496,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5535,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5574,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5613,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5652,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5691,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5730,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5769,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5808,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5844,19 @@
         <v>-105261.2695506413</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="J151" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5401,15 +5885,19 @@
         <v>-104261.2695506413</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>66.34</v>
       </c>
       <c r="J152" t="n">
-        <v>66.34</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
+        <v>66.31</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,15 +5926,17 @@
         <v>-104279.2695506413</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>67.59999999999999</v>
+      </c>
       <c r="J153" t="n">
-        <v>66.34</v>
+        <v>66.31</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -5477,15 +5967,17 @@
         <v>-104271.2695506413</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>66.34999999999999</v>
+      </c>
       <c r="J154" t="n">
-        <v>66.34</v>
+        <v>66.31</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -5519,8 +6011,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5549,11 +6047,19 @@
         <v>-103803.2885506413</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>67</v>
+      </c>
+      <c r="J156" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5582,11 +6088,19 @@
         <v>-104253.2885506413</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="J157" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5618,8 +6132,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5648,11 +6168,19 @@
         <v>-103063.7485506413</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="J159" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5681,15 +6209,19 @@
         <v>-103288.7485506413</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>67</v>
       </c>
       <c r="J160" t="n">
-        <v>67</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
+        <v>66.31</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5718,17 +6250,17 @@
         <v>-117470.7629506413</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>66.90000000000001</v>
       </c>
       <c r="J161" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -5759,11 +6291,13 @@
         <v>-117470.7629506413</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>66.34999999999999</v>
+      </c>
       <c r="J162" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5798,11 +6332,13 @@
         <v>-117170.0939506413</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>66.34999999999999</v>
+      </c>
       <c r="J163" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -5837,13 +6373,13 @@
         <v>-117170.0939506413</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>66.40000000000001</v>
       </c>
       <c r="J164" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -5878,11 +6414,13 @@
         <v>-117160.0939506413</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>66.40000000000001</v>
+      </c>
       <c r="J165" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -5917,11 +6455,13 @@
         <v>-117350.5088506413</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>67.59999999999999</v>
+      </c>
       <c r="J166" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -5960,7 +6500,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -5999,7 +6539,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6038,7 +6578,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6077,7 +6617,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6116,7 +6656,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6151,13 +6691,13 @@
         <v>-117665.4677506413</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>67</v>
       </c>
       <c r="J172" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6196,7 +6736,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6231,13 +6771,11 @@
         <v>-117682.8957506413</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>67.01000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6276,7 +6814,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6315,7 +6853,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6354,7 +6892,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6393,7 +6931,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6432,7 +6970,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6471,7 +7009,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6510,7 +7048,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -6549,7 +7087,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -6588,7 +7126,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -6627,7 +7165,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -6666,7 +7204,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -6705,7 +7243,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -6744,7 +7282,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -6779,11 +7317,13 @@
         <v>-184404.4913506413</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>66.2</v>
+      </c>
       <c r="J188" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -6818,11 +7358,13 @@
         <v>-195620.3724506413</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>66.79000000000001</v>
+      </c>
       <c r="J189" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -6861,7 +7403,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -6896,11 +7438,13 @@
         <v>-195937.1533506413</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>66.5</v>
+      </c>
       <c r="J191" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -6935,11 +7479,13 @@
         <v>-195937.1533506413</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>66.3</v>
+      </c>
       <c r="J192" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -6974,11 +7520,13 @@
         <v>-195601.9443506413</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>66.3</v>
+      </c>
       <c r="J193" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7017,7 +7565,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7056,7 +7604,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7095,7 +7643,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7130,13 +7678,13 @@
         <v>-194967.2808506413</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>66.5</v>
       </c>
       <c r="J197" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7171,13 +7719,13 @@
         <v>-189960.2707506413</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>66.5</v>
       </c>
       <c r="J198" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7212,13 +7760,13 @@
         <v>-189996.2707506413</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>67.2</v>
       </c>
       <c r="J199" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7253,11 +7801,13 @@
         <v>-189794.9881506413</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>67.09999999999999</v>
+      </c>
       <c r="J200" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7292,11 +7842,13 @@
         <v>-189794.9881506413</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>67.2</v>
+      </c>
       <c r="J201" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7331,11 +7883,13 @@
         <v>-194311.5604506413</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>67.2</v>
+      </c>
       <c r="J202" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7374,7 +7928,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7409,11 +7963,11 @@
         <v>-206250.8495506413</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7452,7 +8006,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>67</v>
+        <v>66.31</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7465,6 +8019,6 @@
       <c r="M205" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest FX.xlsx
+++ b/BackTest/2020-01-23 BackTest FX.xlsx
@@ -451,7 +451,7 @@
         <v>-45831.39394447522</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-45158.87615747522</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-45173.87615747522</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-45165.87615747522</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-27521.93555745115</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-28429.93555745115</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-33330.04565745115</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-97834.82105745113</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-97834.82105745113</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-97826.82105745113</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-97862.82105745113</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-97862.82105745113</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-103044.8992574511</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-77868.01210360725</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-77842.01210360725</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-77860.01210360725</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-77860.01210360725</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-77842.01210360725</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-77824.01210360725</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-77843.01210360725</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-77843.01210360725</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-77879.01210360725</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-77879.01210360725</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-77889.01210360725</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-77871.01210360725</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-78370.01210360725</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-118272.0121036073</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-118264.0121036073</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-118579.2501036072</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-118829.2501036072</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-103765.1501036072</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-103415.3776036072</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-104802.9782506413</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5401,14 +5401,10 @@
         <v>-104261.2695506413</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>66.34</v>
-      </c>
-      <c r="J152" t="n">
-        <v>66.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
@@ -5441,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>66.34</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5477,19 +5467,11 @@
         <v>-104271.2695506413</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>66.34999999999999</v>
-      </c>
-      <c r="J154" t="n">
-        <v>66.34</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5518,7 +5500,7 @@
         <v>-104497.7360506413</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5584,7 +5566,7 @@
         <v>-104253.2885506413</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5782,10 +5764,14 @@
         <v>-117170.0939506413</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="J163" t="n">
+        <v>66.34999999999999</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
@@ -5815,11 +5801,19 @@
         <v>-117170.0939506413</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="J164" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5848,11 +5842,19 @@
         <v>-117160.0939506413</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="J165" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5881,7 +5883,7 @@
         <v>-117350.5088506413</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5914,7 +5916,7 @@
         <v>-117350.5088506413</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5980,7 +5982,7 @@
         <v>-117410.6703506413</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6013,7 +6015,7 @@
         <v>-117718.1803506413</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6046,7 +6048,7 @@
         <v>-117684.6687506413</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6079,10 +6081,14 @@
         <v>-117665.4677506413</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>67</v>
+      </c>
+      <c r="J172" t="n">
+        <v>67</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
@@ -6115,8 +6121,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>67</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6148,8 +6160,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>67</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6178,7 +6196,7 @@
         <v>-117674.8957506413</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6211,7 +6229,7 @@
         <v>-117953.9057506413</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6244,7 +6262,7 @@
         <v>-117953.9057506413</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6277,7 +6295,7 @@
         <v>-118941.4153506413</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6310,7 +6328,7 @@
         <v>-118933.4153506413</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6343,7 +6361,7 @@
         <v>-170050.6349506413</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6376,7 +6394,7 @@
         <v>-170042.6349506413</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6574,10 +6592,14 @@
         <v>-184412.4913506413</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="J187" t="n">
+        <v>66.16</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
@@ -6607,11 +6629,19 @@
         <v>-184404.4913506413</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="J188" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6640,11 +6670,19 @@
         <v>-195620.3724506413</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>66.79000000000001</v>
+      </c>
+      <c r="J189" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6676,8 +6714,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6706,11 +6750,19 @@
         <v>-195937.1533506413</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="J191" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6745,9 +6797,13 @@
         <v>66.3</v>
       </c>
       <c r="J192" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
+        <v>66.16</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6782,11 +6838,11 @@
         <v>66.3</v>
       </c>
       <c r="J193" t="n">
-        <v>66.3</v>
+        <v>66.16</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L193" t="n">
@@ -6823,7 +6879,7 @@
         <v>66.5</v>
       </c>
       <c r="J194" t="n">
-        <v>66.3</v>
+        <v>66.16</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -6858,11 +6914,13 @@
         <v>-194827.7245506413</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>67.09999999999999</v>
+      </c>
       <c r="J195" t="n">
-        <v>66.3</v>
+        <v>66.16</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -6901,7 +6959,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>66.3</v>
+        <v>66.16</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -6936,11 +6994,13 @@
         <v>-194967.2808506413</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>66.5</v>
+      </c>
       <c r="J197" t="n">
-        <v>66.3</v>
+        <v>66.16</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -6981,7 +7041,7 @@
         <v>66.5</v>
       </c>
       <c r="J198" t="n">
-        <v>66.3</v>
+        <v>66.16</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7016,11 +7076,13 @@
         <v>-189996.2707506413</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>67.2</v>
+      </c>
       <c r="J199" t="n">
-        <v>66.3</v>
+        <v>66.16</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7055,11 +7117,13 @@
         <v>-189794.9881506413</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>67.09999999999999</v>
+      </c>
       <c r="J200" t="n">
-        <v>66.3</v>
+        <v>66.16</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7094,11 +7158,13 @@
         <v>-189794.9881506413</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>67.2</v>
+      </c>
       <c r="J201" t="n">
-        <v>66.3</v>
+        <v>66.16</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7133,11 +7199,13 @@
         <v>-194311.5604506413</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>67.2</v>
+      </c>
       <c r="J202" t="n">
-        <v>66.3</v>
+        <v>66.16</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7172,11 +7240,13 @@
         <v>-206250.8495506413</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>67.11</v>
+      </c>
       <c r="J203" t="n">
-        <v>66.3</v>
+        <v>66.16</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7211,11 +7281,13 @@
         <v>-206250.8495506413</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>67.09999999999999</v>
+      </c>
       <c r="J204" t="n">
-        <v>66.3</v>
+        <v>66.16</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7250,11 +7322,13 @@
         <v>-206250.8495506413</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>67.09999999999999</v>
+      </c>
       <c r="J205" t="n">
-        <v>66.3</v>
+        <v>66.16</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>

--- a/BackTest/2020-01-23 BackTest FX.xlsx
+++ b/BackTest/2020-01-23 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M205"/>
+  <dimension ref="A1:L205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>853.2037</v>
       </c>
       <c r="G2" t="n">
-        <v>-45831.39394447522</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>672.517787</v>
       </c>
       <c r="G3" t="n">
-        <v>-45158.87615747522</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>-45173.87615747522</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>-45165.87615747522</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>7.5135</v>
       </c>
       <c r="G6" t="n">
-        <v>-45165.87615747522</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>23.99663966710856</v>
       </c>
       <c r="G7" t="n">
-        <v>-45165.87615747522</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>19997.94060002407</v>
       </c>
       <c r="G8" t="n">
-        <v>-25167.93555745115</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>2354</v>
       </c>
       <c r="G9" t="n">
-        <v>-27521.93555745115</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>-27513.93555745115</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>483</v>
       </c>
       <c r="G11" t="n">
-        <v>-27996.93555745115</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-27986.93555745115</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>443</v>
       </c>
       <c r="G13" t="n">
-        <v>-28429.93555745115</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1318.8682</v>
       </c>
       <c r="G14" t="n">
-        <v>-27111.06735745115</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>6218.9783</v>
       </c>
       <c r="G15" t="n">
-        <v>-33330.04565745115</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>8</v>
       </c>
       <c r="G16" t="n">
-        <v>-33322.04565745115</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>324</v>
       </c>
       <c r="G17" t="n">
-        <v>-33646.04565745115</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>25454.7381</v>
       </c>
       <c r="G18" t="n">
-        <v>-59100.78375745115</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>-59092.78375745115</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>224.8834</v>
       </c>
       <c r="G20" t="n">
-        <v>-59317.66715745115</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>13154.8149</v>
       </c>
       <c r="G21" t="n">
-        <v>-72472.48205745115</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>224.8834</v>
       </c>
       <c r="G22" t="n">
-        <v>-72697.36545745116</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>7106.531</v>
       </c>
       <c r="G23" t="n">
-        <v>-72697.36545745116</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>955</v>
       </c>
       <c r="G24" t="n">
-        <v>-71742.36545745116</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>8.1493</v>
       </c>
       <c r="G25" t="n">
-        <v>-71734.21615745116</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>8770.3469</v>
       </c>
       <c r="G26" t="n">
-        <v>-71734.21615745116</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>31193.7863</v>
       </c>
       <c r="G27" t="n">
-        <v>-102928.0024574512</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>3776.5005</v>
       </c>
       <c r="G28" t="n">
-        <v>-99151.50195745117</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>6769.0009</v>
       </c>
       <c r="G29" t="n">
-        <v>-92382.50105745117</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>8</v>
       </c>
       <c r="G30" t="n">
-        <v>-92374.50105745117</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>18.97366474330522</v>
       </c>
       <c r="G31" t="n">
-        <v>-92374.50105745117</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>8.9</v>
       </c>
       <c r="G32" t="n">
-        <v>-92383.40105745116</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>9.1</v>
       </c>
       <c r="G33" t="n">
-        <v>-92374.30105745116</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>9</v>
       </c>
       <c r="G34" t="n">
-        <v>-92365.30105745116</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>25.4</v>
       </c>
       <c r="G35" t="n">
-        <v>-92390.70105745115</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>-92380.70105745115</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>18</v>
       </c>
       <c r="G37" t="n">
-        <v>-92398.70105745115</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>25.6818</v>
       </c>
       <c r="G38" t="n">
-        <v>-92424.38285745116</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>173.6797</v>
       </c>
       <c r="G39" t="n">
-        <v>-92598.06255745115</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>233.4903</v>
       </c>
       <c r="G40" t="n">
-        <v>-92598.06255745115</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>186.6594</v>
       </c>
       <c r="G41" t="n">
-        <v>-92598.06255745115</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>60</v>
       </c>
       <c r="G42" t="n">
-        <v>-92598.06255745115</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2461.8317</v>
       </c>
       <c r="G43" t="n">
-        <v>-95059.89425745115</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1509.6223</v>
       </c>
       <c r="G44" t="n">
-        <v>-96569.51655745115</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1093.2124</v>
       </c>
       <c r="G45" t="n">
-        <v>-97662.72895745115</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>13.456</v>
       </c>
       <c r="G46" t="n">
-        <v>-97649.27295745115</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>92.2773</v>
       </c>
       <c r="G47" t="n">
-        <v>-97649.27295745115</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>19</v>
       </c>
       <c r="G48" t="n">
-        <v>-97668.27295745115</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>8</v>
       </c>
       <c r="G49" t="n">
-        <v>-97660.27295745115</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>110.3688</v>
       </c>
       <c r="G50" t="n">
-        <v>-97770.64175745114</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>10.7296</v>
       </c>
       <c r="G51" t="n">
-        <v>-97759.91215745114</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>33.59</v>
       </c>
       <c r="G52" t="n">
-        <v>-97759.91215745114</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>59.16</v>
       </c>
       <c r="G53" t="n">
-        <v>-97700.75215745113</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,21 @@
         <v>152.8422</v>
       </c>
       <c r="G54" t="n">
-        <v>-97853.59435745113</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>66.5</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2039,21 @@
         <v>68.22669999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>-97785.36765745113</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>66.2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2075,19 @@
         <v>1.7733</v>
       </c>
       <c r="G56" t="n">
-        <v>-97785.36765745113</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2109,19 @@
         <v>49.4534</v>
       </c>
       <c r="G57" t="n">
-        <v>-97834.82105745113</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2143,19 @@
         <v>176</v>
       </c>
       <c r="G58" t="n">
-        <v>-97834.82105745113</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2177,19 @@
         <v>121.4534</v>
       </c>
       <c r="G59" t="n">
-        <v>-97834.82105745113</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2211,19 @@
         <v>36</v>
       </c>
       <c r="G60" t="n">
-        <v>-97834.82105745113</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2245,19 @@
         <v>18</v>
       </c>
       <c r="G61" t="n">
-        <v>-97834.82105745113</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2279,19 @@
         <v>8</v>
       </c>
       <c r="G62" t="n">
-        <v>-97826.82105745113</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2313,19 @@
         <v>36</v>
       </c>
       <c r="G63" t="n">
-        <v>-97862.82105745113</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2347,19 @@
         <v>2383.245</v>
       </c>
       <c r="G64" t="n">
-        <v>-97862.82105745113</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2381,19 @@
         <v>5182.0782</v>
       </c>
       <c r="G65" t="n">
-        <v>-103044.8992574511</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2415,19 @@
         <v>27104.8468</v>
       </c>
       <c r="G66" t="n">
-        <v>-75940.05245745114</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2449,19 @@
         <v>1699</v>
       </c>
       <c r="G67" t="n">
-        <v>-77639.05245745114</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2483,19 @@
         <v>1342.5345</v>
       </c>
       <c r="G68" t="n">
-        <v>-76296.51795745114</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2517,19 @@
         <v>54</v>
       </c>
       <c r="G69" t="n">
-        <v>-76242.51795745114</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2551,19 @@
         <v>1021.816298438881</v>
       </c>
       <c r="G70" t="n">
-        <v>-77264.33425589002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2585,19 @@
         <v>18</v>
       </c>
       <c r="G71" t="n">
-        <v>-77246.33425589002</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2619,19 @@
         <v>18.97555228276878</v>
       </c>
       <c r="G72" t="n">
-        <v>-77227.35870360726</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2653,19 @@
         <v>14.4383</v>
       </c>
       <c r="G73" t="n">
-        <v>-77241.79700360725</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2687,19 @@
         <v>293.2551</v>
       </c>
       <c r="G74" t="n">
-        <v>-77535.05210360725</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2721,19 @@
         <v>8</v>
       </c>
       <c r="G75" t="n">
-        <v>-77527.05210360725</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2755,17 @@
         <v>340.96</v>
       </c>
       <c r="G76" t="n">
-        <v>-77868.01210360725</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2787,15 @@
         <v>18</v>
       </c>
       <c r="G77" t="n">
-        <v>-77868.01210360725</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2817,15 @@
         <v>26</v>
       </c>
       <c r="G78" t="n">
-        <v>-77842.01210360725</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2847,15 @@
         <v>18</v>
       </c>
       <c r="G79" t="n">
-        <v>-77860.01210360725</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2877,15 @@
         <v>36.98597014925373</v>
       </c>
       <c r="G80" t="n">
-        <v>-77860.01210360725</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2907,15 @@
         <v>18</v>
       </c>
       <c r="G81" t="n">
-        <v>-77842.01210360725</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2937,15 @@
         <v>18</v>
       </c>
       <c r="G82" t="n">
-        <v>-77824.01210360725</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2967,15 @@
         <v>19</v>
       </c>
       <c r="G83" t="n">
-        <v>-77843.01210360725</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2997,15 @@
         <v>18</v>
       </c>
       <c r="G84" t="n">
-        <v>-77843.01210360725</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3027,15 @@
         <v>36</v>
       </c>
       <c r="G85" t="n">
-        <v>-77879.01210360725</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3057,15 @@
         <v>18</v>
       </c>
       <c r="G86" t="n">
-        <v>-77879.01210360725</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3087,15 @@
         <v>18</v>
       </c>
       <c r="G87" t="n">
-        <v>-77879.01210360725</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3117,15 @@
         <v>36</v>
       </c>
       <c r="G88" t="n">
-        <v>-77879.01210360725</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3147,15 @@
         <v>8</v>
       </c>
       <c r="G89" t="n">
-        <v>-77871.01210360725</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3177,15 @@
         <v>18</v>
       </c>
       <c r="G90" t="n">
-        <v>-77889.01210360725</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3207,15 @@
         <v>18</v>
       </c>
       <c r="G91" t="n">
-        <v>-77871.01210360725</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3237,15 @@
         <v>36</v>
       </c>
       <c r="G92" t="n">
-        <v>-77871.01210360725</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3267,15 @@
         <v>18</v>
       </c>
       <c r="G93" t="n">
-        <v>-77871.01210360725</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3297,15 @@
         <v>469</v>
       </c>
       <c r="G94" t="n">
-        <v>-77402.01210360725</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3327,15 @@
         <v>976</v>
       </c>
       <c r="G95" t="n">
-        <v>-78378.01210360725</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3357,15 @@
         <v>8</v>
       </c>
       <c r="G96" t="n">
-        <v>-78370.01210360725</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3387,15 @@
         <v>39902</v>
       </c>
       <c r="G97" t="n">
-        <v>-118272.0121036073</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3417,15 @@
         <v>8</v>
       </c>
       <c r="G98" t="n">
-        <v>-118264.0121036073</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3447,15 @@
         <v>315.238</v>
       </c>
       <c r="G99" t="n">
-        <v>-118579.2501036072</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3477,15 @@
         <v>250</v>
       </c>
       <c r="G100" t="n">
-        <v>-118829.2501036072</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3507,15 @@
         <v>15080</v>
       </c>
       <c r="G101" t="n">
-        <v>-103749.2501036072</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3537,15 @@
         <v>8</v>
       </c>
       <c r="G102" t="n">
-        <v>-103741.2501036072</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3567,15 @@
         <v>23.9</v>
       </c>
       <c r="G103" t="n">
-        <v>-103765.1501036072</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3597,15 @@
         <v>349.7725</v>
       </c>
       <c r="G104" t="n">
-        <v>-103415.3776036072</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3627,15 @@
         <v>9</v>
       </c>
       <c r="G105" t="n">
-        <v>-103415.3776036072</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3657,15 @@
         <v>143.4507</v>
       </c>
       <c r="G106" t="n">
-        <v>-103558.8283036072</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3687,15 @@
         <v>292.2252</v>
       </c>
       <c r="G107" t="n">
-        <v>-103266.6031036072</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3717,15 @@
         <v>761</v>
       </c>
       <c r="G108" t="n">
-        <v>-102505.6031036072</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3747,15 @@
         <v>18</v>
       </c>
       <c r="G109" t="n">
-        <v>-102523.6031036072</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3777,15 @@
         <v>36</v>
       </c>
       <c r="G110" t="n">
-        <v>-102487.6031036072</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3807,15 @@
         <v>132</v>
       </c>
       <c r="G111" t="n">
-        <v>-102619.6031036072</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3837,15 @@
         <v>36</v>
       </c>
       <c r="G112" t="n">
-        <v>-102619.6031036072</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3867,15 @@
         <v>4375.95704618834</v>
       </c>
       <c r="G113" t="n">
-        <v>-98243.6460574189</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3897,15 @@
         <v>1007.61401838565</v>
       </c>
       <c r="G114" t="n">
-        <v>-99251.26007580454</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3927,15 @@
         <v>8</v>
       </c>
       <c r="G115" t="n">
-        <v>-99243.26007580454</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3957,15 @@
         <v>16.8783</v>
       </c>
       <c r="G116" t="n">
-        <v>-99260.13837580454</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3987,15 @@
         <v>8</v>
       </c>
       <c r="G117" t="n">
-        <v>-99252.13837580454</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4017,15 @@
         <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>-99253.13837580454</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4047,15 @@
         <v>53</v>
       </c>
       <c r="G119" t="n">
-        <v>-99200.13837580454</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4077,15 @@
         <v>18</v>
       </c>
       <c r="G120" t="n">
-        <v>-99200.13837580454</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4107,15 @@
         <v>617.5511</v>
       </c>
       <c r="G121" t="n">
-        <v>-98582.58727580454</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4137,15 @@
         <v>343.49</v>
       </c>
       <c r="G122" t="n">
-        <v>-98926.07727580455</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4167,15 @@
         <v>18</v>
       </c>
       <c r="G123" t="n">
-        <v>-98926.07727580455</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4197,15 @@
         <v>36</v>
       </c>
       <c r="G124" t="n">
-        <v>-98890.07727580455</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4227,15 @@
         <v>384.8787</v>
       </c>
       <c r="G125" t="n">
-        <v>-98505.19857580455</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4257,15 @@
         <v>1536</v>
       </c>
       <c r="G126" t="n">
-        <v>-98505.19857580455</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4287,15 @@
         <v>13393.3593</v>
       </c>
       <c r="G127" t="n">
-        <v>-111898.5578758045</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4317,15 @@
         <v>18</v>
       </c>
       <c r="G128" t="n">
-        <v>-111898.5578758045</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4347,15 @@
         <v>1325.8941</v>
       </c>
       <c r="G129" t="n">
-        <v>-111898.5578758045</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4377,15 @@
         <v>72</v>
       </c>
       <c r="G130" t="n">
-        <v>-111898.5578758045</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4407,15 @@
         <v>374.983</v>
       </c>
       <c r="G131" t="n">
-        <v>-111523.5748758046</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4437,15 @@
         <v>5969.378025163205</v>
       </c>
       <c r="G132" t="n">
-        <v>-105554.1968506413</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4467,15 @@
         <v>18</v>
       </c>
       <c r="G133" t="n">
-        <v>-105572.1968506413</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4497,15 @@
         <v>54</v>
       </c>
       <c r="G134" t="n">
-        <v>-105518.1968506413</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4527,15 @@
         <v>765.9395</v>
       </c>
       <c r="G135" t="n">
-        <v>-106284.1363506413</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4557,15 @@
         <v>54</v>
       </c>
       <c r="G136" t="n">
-        <v>-106230.1363506413</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4587,15 @@
         <v>8</v>
       </c>
       <c r="G137" t="n">
-        <v>-106222.1363506413</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4617,15 @@
         <v>18</v>
       </c>
       <c r="G138" t="n">
-        <v>-106240.1363506413</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4647,15 @@
         <v>18</v>
       </c>
       <c r="G139" t="n">
-        <v>-106240.1363506413</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4677,15 @@
         <v>230.0977</v>
       </c>
       <c r="G140" t="n">
-        <v>-106010.0386506413</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4707,15 @@
         <v>1324.5234</v>
       </c>
       <c r="G141" t="n">
-        <v>-104685.5152506413</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4737,15 @@
         <v>8</v>
       </c>
       <c r="G142" t="n">
-        <v>-104677.5152506413</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4767,15 @@
         <v>125.463</v>
       </c>
       <c r="G143" t="n">
-        <v>-104802.9782506413</v>
-      </c>
-      <c r="H143" t="n">
         <v>2</v>
       </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4797,15 @@
         <v>197</v>
       </c>
       <c r="G144" t="n">
-        <v>-104802.9782506413</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4827,15 @@
         <v>860.5236</v>
       </c>
       <c r="G145" t="n">
-        <v>-105663.5018506413</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4857,15 @@
         <v>133</v>
       </c>
       <c r="G146" t="n">
-        <v>-105530.5018506413</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4887,15 @@
         <v>413</v>
       </c>
       <c r="G147" t="n">
-        <v>-105117.5018506413</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4917,15 @@
         <v>143.7677</v>
       </c>
       <c r="G148" t="n">
-        <v>-105261.2695506413</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4947,15 @@
         <v>36</v>
       </c>
       <c r="G149" t="n">
-        <v>-105225.2695506413</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4977,15 @@
         <v>72</v>
       </c>
       <c r="G150" t="n">
-        <v>-105297.2695506413</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5007,15 @@
         <v>36</v>
       </c>
       <c r="G151" t="n">
-        <v>-105261.2695506413</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5037,15 @@
         <v>1000</v>
       </c>
       <c r="G152" t="n">
-        <v>-104261.2695506413</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5067,15 @@
         <v>18</v>
       </c>
       <c r="G153" t="n">
-        <v>-104279.2695506413</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5097,15 @@
         <v>8</v>
       </c>
       <c r="G154" t="n">
-        <v>-104271.2695506413</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5127,15 @@
         <v>226.4665</v>
       </c>
       <c r="G155" t="n">
-        <v>-104497.7360506413</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5157,15 @@
         <v>694.4475</v>
       </c>
       <c r="G156" t="n">
-        <v>-103803.2885506413</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5187,15 @@
         <v>450</v>
       </c>
       <c r="G157" t="n">
-        <v>-104253.2885506413</v>
-      </c>
-      <c r="H157" t="n">
         <v>2</v>
       </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5217,15 @@
         <v>10.46</v>
       </c>
       <c r="G158" t="n">
-        <v>-104263.7485506413</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5247,15 @@
         <v>1200</v>
       </c>
       <c r="G159" t="n">
-        <v>-103063.7485506413</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5277,15 @@
         <v>225</v>
       </c>
       <c r="G160" t="n">
-        <v>-103288.7485506413</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5307,15 @@
         <v>14182.0144</v>
       </c>
       <c r="G161" t="n">
-        <v>-117470.7629506413</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5337,15 @@
         <v>36</v>
       </c>
       <c r="G162" t="n">
-        <v>-117470.7629506413</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,22 +5367,15 @@
         <v>300.669</v>
       </c>
       <c r="G163" t="n">
-        <v>-117170.0939506413</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>66.34999999999999</v>
-      </c>
-      <c r="J163" t="n">
-        <v>66.34999999999999</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5798,26 +5397,15 @@
         <v>18</v>
       </c>
       <c r="G164" t="n">
-        <v>-117170.0939506413</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="J164" t="n">
-        <v>66.34999999999999</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5839,26 +5427,15 @@
         <v>10</v>
       </c>
       <c r="G165" t="n">
-        <v>-117160.0939506413</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="J165" t="n">
-        <v>66.34999999999999</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5880,18 +5457,15 @@
         <v>190.4149</v>
       </c>
       <c r="G166" t="n">
-        <v>-117350.5088506413</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5913,18 +5487,15 @@
         <v>36.49</v>
       </c>
       <c r="G167" t="n">
-        <v>-117350.5088506413</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5946,18 +5517,15 @@
         <v>60.1615</v>
       </c>
       <c r="G168" t="n">
-        <v>-117410.6703506413</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5979,18 +5547,15 @@
         <v>20</v>
       </c>
       <c r="G169" t="n">
-        <v>-117410.6703506413</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6012,18 +5577,15 @@
         <v>307.51</v>
       </c>
       <c r="G170" t="n">
-        <v>-117718.1803506413</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6045,18 +5607,15 @@
         <v>33.5116</v>
       </c>
       <c r="G171" t="n">
-        <v>-117684.6687506413</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6078,22 +5637,15 @@
         <v>19.201</v>
       </c>
       <c r="G172" t="n">
-        <v>-117665.4677506413</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>67</v>
-      </c>
-      <c r="J172" t="n">
-        <v>67</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6115,24 +5667,15 @@
         <v>17.428</v>
       </c>
       <c r="G173" t="n">
-        <v>-117682.8957506413</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>67</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6154,24 +5697,15 @@
         <v>1.972</v>
       </c>
       <c r="G174" t="n">
-        <v>-117682.8957506413</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>67</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6193,18 +5727,15 @@
         <v>8</v>
       </c>
       <c r="G175" t="n">
-        <v>-117674.8957506413</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6226,18 +5757,15 @@
         <v>279.01</v>
       </c>
       <c r="G176" t="n">
-        <v>-117953.9057506413</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6259,18 +5787,15 @@
         <v>40.7643</v>
       </c>
       <c r="G177" t="n">
-        <v>-117953.9057506413</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6292,18 +5817,15 @@
         <v>987.5096</v>
       </c>
       <c r="G178" t="n">
-        <v>-118941.4153506413</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6325,18 +5847,15 @@
         <v>8</v>
       </c>
       <c r="G179" t="n">
-        <v>-118933.4153506413</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6358,18 +5877,15 @@
         <v>51117.2196</v>
       </c>
       <c r="G180" t="n">
-        <v>-170050.6349506413</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6391,18 +5907,15 @@
         <v>8</v>
       </c>
       <c r="G181" t="n">
-        <v>-170042.6349506413</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6424,18 +5937,15 @@
         <v>12.4162</v>
       </c>
       <c r="G182" t="n">
-        <v>-170055.0511506413</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6457,18 +5967,15 @@
         <v>4647.7768</v>
       </c>
       <c r="G183" t="n">
-        <v>-170055.0511506413</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6490,18 +5997,15 @@
         <v>1444.3455</v>
       </c>
       <c r="G184" t="n">
-        <v>-171499.3966506413</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6523,18 +6027,15 @@
         <v>3268.1459</v>
       </c>
       <c r="G185" t="n">
-        <v>-171499.3966506413</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6556,18 +6057,15 @@
         <v>13266.7695</v>
       </c>
       <c r="G186" t="n">
-        <v>-184766.1661506413</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6589,22 +6087,15 @@
         <v>353.6748</v>
       </c>
       <c r="G187" t="n">
-        <v>-184412.4913506413</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="J187" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6626,26 +6117,15 @@
         <v>8</v>
       </c>
       <c r="G188" t="n">
-        <v>-184404.4913506413</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="J188" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6667,26 +6147,15 @@
         <v>11215.8811</v>
       </c>
       <c r="G189" t="n">
-        <v>-195620.3724506413</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>66.79000000000001</v>
-      </c>
-      <c r="J189" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6708,24 +6177,15 @@
         <v>8</v>
       </c>
       <c r="G190" t="n">
-        <v>-195612.3724506413</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6747,26 +6207,15 @@
         <v>324.7809</v>
       </c>
       <c r="G191" t="n">
-        <v>-195937.1533506413</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J191" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6788,26 +6237,15 @@
         <v>537.3687</v>
       </c>
       <c r="G192" t="n">
-        <v>-195937.1533506413</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="J192" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6829,26 +6267,15 @@
         <v>335.209</v>
       </c>
       <c r="G193" t="n">
-        <v>-195601.9443506413</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="J193" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6870,26 +6297,15 @@
         <v>774.2198</v>
       </c>
       <c r="G194" t="n">
-        <v>-194827.7245506413</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J194" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6911,26 +6327,15 @@
         <v>431</v>
       </c>
       <c r="G195" t="n">
-        <v>-194827.7245506413</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="J195" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6952,24 +6357,15 @@
         <v>139.5563</v>
       </c>
       <c r="G196" t="n">
-        <v>-194967.2808506413</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6991,26 +6387,15 @@
         <v>6.1867</v>
       </c>
       <c r="G197" t="n">
-        <v>-194967.2808506413</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J197" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7032,26 +6417,15 @@
         <v>5007.0101</v>
       </c>
       <c r="G198" t="n">
-        <v>-189960.2707506413</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="J198" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7073,26 +6447,15 @@
         <v>36</v>
       </c>
       <c r="G199" t="n">
-        <v>-189996.2707506413</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="J199" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7114,26 +6477,15 @@
         <v>201.2826</v>
       </c>
       <c r="G200" t="n">
-        <v>-189794.9881506413</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="J200" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7155,26 +6507,15 @@
         <v>342.8558</v>
       </c>
       <c r="G201" t="n">
-        <v>-189794.9881506413</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="J201" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7196,26 +6537,15 @@
         <v>4516.5723</v>
       </c>
       <c r="G202" t="n">
-        <v>-194311.5604506413</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>67.2</v>
-      </c>
-      <c r="J202" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7237,26 +6567,15 @@
         <v>11939.2891</v>
       </c>
       <c r="G203" t="n">
-        <v>-206250.8495506413</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>67.11</v>
-      </c>
-      <c r="J203" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7278,26 +6597,15 @@
         <v>8</v>
       </c>
       <c r="G204" t="n">
-        <v>-206250.8495506413</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="J204" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7319,26 +6627,15 @@
         <v>1204.8385</v>
       </c>
       <c r="G205" t="n">
-        <v>-206250.8495506413</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="J205" t="n">
-        <v>66.16</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
